--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vocaloid2048\Desktop\File\App\GenshinHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF82D4-DDB8-4D5E-BA19-AF8924A041F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397E02B-ED08-41BE-87CE-1139CEE861B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Home_List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="430">
   <si>
     <t>"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1876,12 +1876,40 @@
     <t xml:space="preserve">String </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>traveler_female</t>
+  </si>
+  <si>
+    <t>traveler_full</t>
+  </si>
+  <si>
+    <t>traveler_anemo</t>
+  </si>
+  <si>
+    <t>traveler_geo</t>
+  </si>
+  <si>
+    <t>traveler_electro</t>
+  </si>
+  <si>
+    <t>Traveler-Anemo</t>
+  </si>
+  <si>
+    <t>Traveler-Geo</t>
+  </si>
+  <si>
+    <t>Traveler-Electro</t>
+  </si>
+  <si>
+    <t>//Add at 210820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1959,6 +1987,14 @@
       <color rgb="FF3A3A3A"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2042,7 +2078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2101,6 +2137,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7893,10 +7935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C5A84A-5C7F-451F-A1D8-4D9A74023F1A}">
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:Y112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:W18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7904,7 +7946,7 @@
     <col min="3" max="3" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>257</v>
       </c>
@@ -7934,45 +7976,52 @@
         <v>aloy_full</v>
       </c>
       <c r="J1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" t="str">
+        <f>G1&amp;"_ico"</f>
+        <v>aloy_ico</v>
+      </c>
+      <c r="L1" t="s">
         <v>256</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>368</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>379</v>
       </c>
-      <c r="N1" t="str">
-        <f>L1</f>
+      <c r="P1" t="str">
+        <f>N1</f>
         <v>normal_name</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>401</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>400</v>
       </c>
-      <c r="S1" t="str">
-        <f>Q1</f>
+      <c r="U1" t="str">
+        <f>S1</f>
         <v>sof1_name</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>420</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>401</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -8002,45 +8051,52 @@
         <v>kujou_sara_full</v>
       </c>
       <c r="J2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K45" si="1">G2&amp;"_ico"</f>
+        <v>kujou_sara_ico</v>
+      </c>
+      <c r="L2" t="s">
         <v>256</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>369</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>379</v>
       </c>
-      <c r="N2" t="str">
-        <f t="shared" ref="N2:N11" si="1">L2</f>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P11" si="2">N2</f>
         <v>normal_img</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>402</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>400</v>
       </c>
-      <c r="S2" t="str">
-        <f t="shared" ref="S2:S4" si="2">Q2</f>
+      <c r="U2" t="str">
+        <f t="shared" ref="U2:U4" si="3">S2</f>
         <v>sof1_img</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>420</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>402</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>259</v>
       </c>
@@ -8070,45 +8126,52 @@
         <v>sangonomiya_kokomi_full</v>
       </c>
       <c r="J3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" si="1"/>
+        <v>sangonomiya_kokomi_ico</v>
+      </c>
+      <c r="L3" t="s">
         <v>256</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>370</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>379</v>
       </c>
-      <c r="N3" t="str">
-        <f t="shared" si="1"/>
+      <c r="P3" t="str">
+        <f t="shared" si="2"/>
         <v>normal_desc1</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>403</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>400</v>
       </c>
-      <c r="S3" t="str">
-        <f t="shared" si="2"/>
+      <c r="U3" t="str">
+        <f t="shared" si="3"/>
         <v>sof1_desc</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>403</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>259</v>
       </c>
@@ -8138,45 +8201,52 @@
         <v>raudeb_shougun_full</v>
       </c>
       <c r="J4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="1"/>
+        <v>raudeb_shougun_ico</v>
+      </c>
+      <c r="L4" t="s">
         <v>256</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>371</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>379</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" si="1"/>
+      <c r="P4" t="str">
+        <f t="shared" si="2"/>
         <v>normal_desc2</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="Q4" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>404</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>400</v>
       </c>
-      <c r="S4" t="str">
-        <f t="shared" si="2"/>
+      <c r="U4" t="str">
+        <f t="shared" si="3"/>
         <v>sof2_name</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="V4" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>420</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>404</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>259</v>
       </c>
@@ -8206,45 +8276,52 @@
         <v>sayu_full</v>
       </c>
       <c r="J5" t="s">
+        <v>367</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="1"/>
+        <v>sayu_ico</v>
+      </c>
+      <c r="L5" t="s">
         <v>256</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>372</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>379</v>
       </c>
-      <c r="N5" t="str">
-        <f t="shared" si="1"/>
+      <c r="P5" t="str">
+        <f t="shared" si="2"/>
         <v>normal_desc3</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="Q5" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>405</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="S5" t="str">
-        <f t="shared" ref="S5:S16" si="3">Q5</f>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:U15" si="4">S5</f>
         <v>sof2_img</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="V5" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>420</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
         <v>405</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>259</v>
       </c>
@@ -8274,45 +8351,52 @@
         <v>yoimiya_full</v>
       </c>
       <c r="J6" t="s">
+        <v>367</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="1"/>
+        <v>yoimiya_ico</v>
+      </c>
+      <c r="L6" t="s">
         <v>256</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>373</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>379</v>
       </c>
-      <c r="N6" t="str">
-        <f t="shared" si="1"/>
+      <c r="P6" t="str">
+        <f t="shared" si="2"/>
         <v>element_name</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="Q6" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>406</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>400</v>
       </c>
-      <c r="S6" t="str">
-        <f t="shared" si="3"/>
+      <c r="U6" t="str">
+        <f t="shared" si="4"/>
         <v>sof2_desc</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="V6" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>420</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>406</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>259</v>
       </c>
@@ -8342,45 +8426,52 @@
         <v>kamisato_ayaka_full</v>
       </c>
       <c r="J7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="1"/>
+        <v>kamisato_ayaka_ico</v>
+      </c>
+      <c r="L7" t="s">
         <v>256</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>374</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>379</v>
       </c>
-      <c r="N7" t="str">
-        <f t="shared" si="1"/>
+      <c r="P7" t="str">
+        <f t="shared" si="2"/>
         <v>element_img</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="Q7" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>407</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>400</v>
       </c>
-      <c r="S7" t="str">
-        <f t="shared" si="3"/>
+      <c r="U7" t="str">
+        <f t="shared" si="4"/>
         <v>sof3_name</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="V7" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>420</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>407</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>259</v>
       </c>
@@ -8410,45 +8501,52 @@
         <v>kaedehara_kazuha_full</v>
       </c>
       <c r="J8" t="s">
+        <v>367</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="1"/>
+        <v>kaedehara_kazuha_ico</v>
+      </c>
+      <c r="L8" t="s">
         <v>256</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>375</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>379</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" si="1"/>
+      <c r="P8" t="str">
+        <f t="shared" si="2"/>
         <v>element_desc</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="Q8" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>408</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>400</v>
       </c>
-      <c r="S8" t="str">
-        <f t="shared" si="3"/>
+      <c r="U8" t="str">
+        <f t="shared" si="4"/>
         <v>sof3_img</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="V8" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>420</v>
       </c>
-      <c r="V8" t="s">
+      <c r="X8" t="s">
         <v>408</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>259</v>
       </c>
@@ -8478,45 +8576,52 @@
         <v>yanfei_full</v>
       </c>
       <c r="J9" t="s">
+        <v>367</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="1"/>
+        <v>yanfei_ico</v>
+      </c>
+      <c r="L9" t="s">
         <v>256</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>376</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>379</v>
       </c>
-      <c r="N9" t="str">
-        <f t="shared" si="1"/>
+      <c r="P9" t="str">
+        <f t="shared" si="2"/>
         <v>final_name</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="Q9" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>409</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>400</v>
       </c>
-      <c r="S9" t="str">
-        <f t="shared" si="3"/>
+      <c r="U9" t="str">
+        <f t="shared" si="4"/>
         <v>sof3_desc</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="V9" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>420</v>
       </c>
-      <c r="V9" t="s">
+      <c r="X9" t="s">
         <v>409</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -8546,45 +8651,52 @@
         <v>eula_full</v>
       </c>
       <c r="J10" t="s">
+        <v>367</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>eula_ico</v>
+      </c>
+      <c r="L10" t="s">
         <v>256</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>377</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>379</v>
       </c>
-      <c r="N10" t="str">
-        <f t="shared" si="1"/>
+      <c r="P10" t="str">
+        <f t="shared" si="2"/>
         <v>final_img</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="Q10" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>410</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>400</v>
       </c>
-      <c r="S10" t="str">
-        <f t="shared" si="3"/>
+      <c r="U10" t="str">
+        <f t="shared" si="4"/>
         <v>sof4_name</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="V10" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>420</v>
       </c>
-      <c r="V10" t="s">
+      <c r="X10" t="s">
         <v>410</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -8614,45 +8726,52 @@
         <v>rosaria_full</v>
       </c>
       <c r="J11" t="s">
+        <v>367</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="1"/>
+        <v>rosaria_ico</v>
+      </c>
+      <c r="L11" t="s">
         <v>256</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>378</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>379</v>
       </c>
-      <c r="N11" t="str">
-        <f t="shared" si="1"/>
+      <c r="P11" t="str">
+        <f t="shared" si="2"/>
         <v>final_desc</v>
       </c>
-      <c r="O11" s="19" t="s">
+      <c r="Q11" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>411</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>400</v>
       </c>
-      <c r="S11" t="str">
-        <f t="shared" si="3"/>
+      <c r="U11" t="str">
+        <f t="shared" si="4"/>
         <v>sof4_img</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="V11" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>420</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>411</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>259</v>
       </c>
@@ -8682,32 +8801,39 @@
         <v>xiao_full</v>
       </c>
       <c r="J12" t="s">
+        <v>367</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="1"/>
+        <v>xiao_ico</v>
+      </c>
+      <c r="L12" t="s">
         <v>256</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>412</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>400</v>
       </c>
-      <c r="S12" t="str">
-        <f t="shared" si="3"/>
+      <c r="U12" t="str">
+        <f t="shared" si="4"/>
         <v>sof4_desc</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="V12" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>420</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>412</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>259</v>
       </c>
@@ -8737,45 +8863,52 @@
         <v>hu_tao_full</v>
       </c>
       <c r="J13" t="s">
+        <v>367</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="1"/>
+        <v>hu_tao_ico</v>
+      </c>
+      <c r="L13" t="s">
         <v>256</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>384</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>381</v>
       </c>
-      <c r="N13" t="str">
-        <f>L13</f>
+      <c r="P13" t="str">
+        <f>N13</f>
         <v>talent1_name</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="Q13" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>413</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>400</v>
       </c>
-      <c r="S13" t="str">
-        <f t="shared" si="3"/>
+      <c r="U13" t="str">
+        <f t="shared" si="4"/>
         <v>sof5_name</v>
       </c>
-      <c r="T13" s="19" t="s">
+      <c r="V13" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>420</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>413</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>259</v>
       </c>
@@ -8805,45 +8938,52 @@
         <v>ganyu_full</v>
       </c>
       <c r="J14" t="s">
+        <v>367</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="1"/>
+        <v>ganyu_ico</v>
+      </c>
+      <c r="L14" t="s">
         <v>256</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>385</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>382</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" ref="N14:N28" si="4">L14</f>
+      <c r="P14" t="str">
+        <f t="shared" ref="P14:P28" si="5">N14</f>
         <v>talent1_unlock</v>
       </c>
-      <c r="O14" s="19" t="s">
+      <c r="Q14" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>414</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>400</v>
       </c>
-      <c r="S14" t="str">
-        <f t="shared" si="3"/>
+      <c r="U14" t="str">
+        <f t="shared" si="4"/>
         <v>sof5_img</v>
       </c>
-      <c r="T14" s="19" t="s">
+      <c r="V14" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>420</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>414</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>259</v>
       </c>
@@ -8873,45 +9013,52 @@
         <v>albedo_full</v>
       </c>
       <c r="J15" t="s">
+        <v>367</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="1"/>
+        <v>albedo_ico</v>
+      </c>
+      <c r="L15" t="s">
         <v>256</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>386</v>
       </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>381</v>
       </c>
-      <c r="N15" t="str">
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>talent1_img</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="S15" t="s">
+        <v>415</v>
+      </c>
+      <c r="T15" t="s">
+        <v>400</v>
+      </c>
+      <c r="U15" t="str">
         <f t="shared" si="4"/>
-        <v>talent1_img</v>
-      </c>
-      <c r="O15" s="19" t="s">
+        <v>sof5_desc</v>
+      </c>
+      <c r="V15" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="W15" t="s">
+        <v>420</v>
+      </c>
+      <c r="X15" t="s">
         <v>415</v>
       </c>
-      <c r="R15" t="s">
-        <v>400</v>
-      </c>
-      <c r="S15" t="str">
-        <f t="shared" si="3"/>
-        <v>sof5_desc</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="U15" t="s">
-        <v>420</v>
-      </c>
-      <c r="V15" t="s">
-        <v>415</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="Y15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>259</v>
       </c>
@@ -8941,45 +9088,52 @@
         <v>zhongli_full</v>
       </c>
       <c r="J16" t="s">
+        <v>367</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="1"/>
+        <v>zhongli_ico</v>
+      </c>
+      <c r="L16" t="s">
         <v>256</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>387</v>
       </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>381</v>
       </c>
-      <c r="N16" t="str">
-        <f t="shared" si="4"/>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
         <v>talent1_desc</v>
       </c>
-      <c r="O16" s="19" t="s">
+      <c r="Q16" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>416</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>400</v>
       </c>
-      <c r="S16" t="str">
-        <f t="shared" ref="S16:S18" si="5">Q16</f>
+      <c r="U16" t="str">
+        <f t="shared" ref="U16:U18" si="6">S16</f>
         <v>sof6_name</v>
       </c>
-      <c r="T16" s="19" t="s">
+      <c r="V16" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>420</v>
       </c>
-      <c r="V16" t="s">
+      <c r="X16" t="s">
         <v>416</v>
       </c>
-      <c r="W16" t="s">
+      <c r="Y16" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>259</v>
       </c>
@@ -9009,45 +9163,52 @@
         <v>xinyan_full</v>
       </c>
       <c r="J17" t="s">
+        <v>367</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="1"/>
+        <v>xinyan_ico</v>
+      </c>
+      <c r="L17" t="s">
         <v>256</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>388</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>381</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" si="4"/>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
         <v>talent2_name</v>
       </c>
-      <c r="O17" s="19" t="s">
+      <c r="Q17" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>417</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>400</v>
       </c>
-      <c r="S17" t="str">
-        <f t="shared" si="5"/>
+      <c r="U17" t="str">
+        <f t="shared" si="6"/>
         <v>sof6_img</v>
       </c>
-      <c r="T17" s="19" t="s">
+      <c r="V17" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" t="s">
         <v>420</v>
       </c>
-      <c r="V17" t="s">
+      <c r="X17" t="s">
         <v>417</v>
       </c>
-      <c r="W17" t="s">
+      <c r="Y17" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>259</v>
       </c>
@@ -9077,45 +9238,52 @@
         <v>tartaglia_full</v>
       </c>
       <c r="J18" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="1"/>
+        <v>tartaglia_ico</v>
+      </c>
+      <c r="L18" t="s">
         <v>256</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>389</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>381</v>
       </c>
-      <c r="N18" t="str">
-        <f t="shared" si="4"/>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
         <v>talent2_unlock</v>
       </c>
-      <c r="O18" s="19" t="s">
+      <c r="Q18" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>418</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>400</v>
       </c>
-      <c r="S18" t="str">
-        <f t="shared" si="5"/>
+      <c r="U18" t="str">
+        <f t="shared" si="6"/>
         <v>sof6_desc</v>
       </c>
-      <c r="T18" s="19" t="s">
+      <c r="V18" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="U18" t="s">
+      <c r="W18" t="s">
         <v>420</v>
       </c>
-      <c r="V18" t="s">
+      <c r="X18" t="s">
         <v>418</v>
       </c>
-      <c r="W18" t="s">
+      <c r="Y18" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -9145,23 +9313,30 @@
         <v>diona_full</v>
       </c>
       <c r="J19" t="s">
+        <v>367</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="1"/>
+        <v>diona_ico</v>
+      </c>
+      <c r="L19" t="s">
         <v>256</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>390</v>
       </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>381</v>
       </c>
-      <c r="N19" t="str">
-        <f t="shared" si="4"/>
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
         <v>talent2_img</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="Q19" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>259</v>
       </c>
@@ -9191,23 +9366,30 @@
         <v>xingqiu_full</v>
       </c>
       <c r="J20" t="s">
+        <v>367</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="1"/>
+        <v>xingqiu_ico</v>
+      </c>
+      <c r="L20" t="s">
         <v>256</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>391</v>
       </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>381</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" si="4"/>
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
         <v>talent2_desc</v>
       </c>
-      <c r="O20" s="19" t="s">
+      <c r="Q20" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>259</v>
       </c>
@@ -9237,23 +9419,30 @@
         <v>xiangling_full</v>
       </c>
       <c r="J21" t="s">
+        <v>367</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="1"/>
+        <v>xiangling_ico</v>
+      </c>
+      <c r="L21" t="s">
         <v>256</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>392</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>381</v>
       </c>
-      <c r="N21" t="str">
-        <f t="shared" si="4"/>
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
         <v>talent3_name</v>
       </c>
-      <c r="O21" s="19" t="s">
+      <c r="Q21" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>259</v>
       </c>
@@ -9283,23 +9472,30 @@
         <v>venti_full</v>
       </c>
       <c r="J22" t="s">
+        <v>367</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="1"/>
+        <v>venti_ico</v>
+      </c>
+      <c r="L22" t="s">
         <v>256</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>393</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>381</v>
       </c>
-      <c r="N22" t="str">
-        <f t="shared" si="4"/>
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
         <v>talent3_unlock</v>
       </c>
-      <c r="O22" s="19" t="s">
+      <c r="Q22" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>259</v>
       </c>
@@ -9329,23 +9525,30 @@
         <v>traveler_full</v>
       </c>
       <c r="J23" t="s">
+        <v>367</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="1"/>
+        <v>traveler_ico</v>
+      </c>
+      <c r="L23" t="s">
         <v>256</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>394</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>381</v>
       </c>
-      <c r="N23" t="str">
-        <f t="shared" si="4"/>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
         <v>talent3_img</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="Q23" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>259</v>
       </c>
@@ -9375,23 +9578,30 @@
         <v>sucrose_full</v>
       </c>
       <c r="J24" t="s">
+        <v>367</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="1"/>
+        <v>sucrose_ico</v>
+      </c>
+      <c r="L24" t="s">
         <v>256</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>395</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>381</v>
       </c>
-      <c r="N24" t="str">
-        <f t="shared" si="4"/>
+      <c r="P24" t="str">
+        <f t="shared" si="5"/>
         <v>talent3_desc</v>
       </c>
-      <c r="O24" s="19" t="s">
+      <c r="Q24" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>259</v>
       </c>
@@ -9421,23 +9631,30 @@
         <v>razor_full</v>
       </c>
       <c r="J25" t="s">
+        <v>367</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="1"/>
+        <v>razor_ico</v>
+      </c>
+      <c r="L25" t="s">
         <v>256</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>396</v>
       </c>
-      <c r="M25" t="s">
+      <c r="O25" t="s">
         <v>381</v>
       </c>
-      <c r="N25" t="str">
-        <f t="shared" si="4"/>
+      <c r="P25" t="str">
+        <f t="shared" si="5"/>
         <v>talent4_name</v>
       </c>
-      <c r="O25" s="19" t="s">
+      <c r="Q25" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>259</v>
       </c>
@@ -9467,23 +9684,30 @@
         <v>qiqi_full</v>
       </c>
       <c r="J26" t="s">
+        <v>367</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="1"/>
+        <v>qiqi_ico</v>
+      </c>
+      <c r="L26" t="s">
         <v>256</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>397</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>381</v>
       </c>
-      <c r="N26" t="str">
-        <f t="shared" si="4"/>
+      <c r="P26" t="str">
+        <f t="shared" si="5"/>
         <v>talent4_unlock</v>
       </c>
-      <c r="O26" s="19" t="s">
+      <c r="Q26" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>259</v>
       </c>
@@ -9513,23 +9737,30 @@
         <v>noelle_full</v>
       </c>
       <c r="J27" t="s">
+        <v>367</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="1"/>
+        <v>noelle_ico</v>
+      </c>
+      <c r="L27" t="s">
         <v>256</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>398</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>381</v>
       </c>
-      <c r="N27" t="str">
-        <f t="shared" si="4"/>
+      <c r="P27" t="str">
+        <f t="shared" si="5"/>
         <v>talent4_img</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="Q27" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>259</v>
       </c>
@@ -9559,23 +9790,30 @@
         <v>ningguang_full</v>
       </c>
       <c r="J28" t="s">
+        <v>367</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="1"/>
+        <v>ningguang_ico</v>
+      </c>
+      <c r="L28" t="s">
         <v>256</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>399</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>381</v>
       </c>
-      <c r="N28" t="str">
-        <f t="shared" si="4"/>
+      <c r="P28" t="str">
+        <f t="shared" si="5"/>
         <v>talent4_desc</v>
       </c>
-      <c r="O28" s="19" t="s">
+      <c r="Q28" s="19" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>259</v>
       </c>
@@ -9605,10 +9843,17 @@
         <v>mona_full</v>
       </c>
       <c r="J29" t="s">
+        <v>367</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="1"/>
+        <v>mona_ico</v>
+      </c>
+      <c r="L29" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>259</v>
       </c>
@@ -9638,10 +9883,17 @@
         <v>lisa_full</v>
       </c>
       <c r="J30" t="s">
+        <v>367</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="1"/>
+        <v>lisa_ico</v>
+      </c>
+      <c r="L30" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>259</v>
       </c>
@@ -9671,10 +9923,17 @@
         <v>klee_full</v>
       </c>
       <c r="J31" t="s">
+        <v>367</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="1"/>
+        <v>klee_ico</v>
+      </c>
+      <c r="L31" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>259</v>
       </c>
@@ -9704,10 +9963,17 @@
         <v>keqing_full</v>
       </c>
       <c r="J32" t="s">
+        <v>367</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="1"/>
+        <v>keqing_ico</v>
+      </c>
+      <c r="L32" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>259</v>
       </c>
@@ -9737,10 +10003,17 @@
         <v>kaeya_full</v>
       </c>
       <c r="J33" t="s">
+        <v>367</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="1"/>
+        <v>kaeya_ico</v>
+      </c>
+      <c r="L33" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>259</v>
       </c>
@@ -9770,10 +10043,17 @@
         <v>jean_full</v>
       </c>
       <c r="J34" t="s">
+        <v>367</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="1"/>
+        <v>jean_ico</v>
+      </c>
+      <c r="L34" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>259</v>
       </c>
@@ -9803,10 +10083,17 @@
         <v>fischl_full</v>
       </c>
       <c r="J35" t="s">
+        <v>367</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="1"/>
+        <v>fischl_ico</v>
+      </c>
+      <c r="L35" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>259</v>
       </c>
@@ -9836,10 +10123,17 @@
         <v>diluc_full</v>
       </c>
       <c r="J36" t="s">
+        <v>367</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="1"/>
+        <v>diluc_ico</v>
+      </c>
+      <c r="L36" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>259</v>
       </c>
@@ -9869,10 +10163,17 @@
         <v>chongyun_full</v>
       </c>
       <c r="J37" t="s">
+        <v>367</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="1"/>
+        <v>chongyun_ico</v>
+      </c>
+      <c r="L37" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>259</v>
       </c>
@@ -9902,10 +10203,17 @@
         <v>bennett_full</v>
       </c>
       <c r="J38" t="s">
+        <v>367</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="1"/>
+        <v>bennett_ico</v>
+      </c>
+      <c r="L38" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>259</v>
       </c>
@@ -9935,10 +10243,17 @@
         <v>beidou_full</v>
       </c>
       <c r="J39" t="s">
+        <v>367</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="1"/>
+        <v>beidou_ico</v>
+      </c>
+      <c r="L39" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>259</v>
       </c>
@@ -9968,10 +10283,17 @@
         <v>barbara_full</v>
       </c>
       <c r="J40" t="s">
+        <v>367</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="1"/>
+        <v>barbara_ico</v>
+      </c>
+      <c r="L40" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>259</v>
       </c>
@@ -10001,1088 +10323,1344 @@
         <v>amber_full</v>
       </c>
       <c r="J41" t="s">
+        <v>367</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="1"/>
+        <v>amber_ico</v>
+      </c>
+      <c r="L41" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
-      <c r="B44" t="s">
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>429</v>
+      </c>
+      <c r="B42" s="20"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>259</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C43" t="s">
+        <v>258</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="F43" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="H43" t="s">
+        <v>367</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="J43" t="s">
+        <v>367</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="1"/>
+        <v>traveler_anemo_ico</v>
+      </c>
+      <c r="L43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C44" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="F44" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="H44" t="s">
+        <v>367</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="J44" t="s">
+        <v>367</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="1"/>
+        <v>traveler_geo_ico</v>
+      </c>
+      <c r="L44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="C45" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="F45" t="s">
+        <v>172</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="H45" t="s">
+        <v>367</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="J45" t="s">
+        <v>367</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="1"/>
+        <v>traveler_electro_ico</v>
+      </c>
+      <c r="L45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="B46" s="19"/>
+      <c r="E46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="I46" s="21"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="B47" s="19"/>
+      <c r="E47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="I47" s="21"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="B48" s="19"/>
+      <c r="E48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="I48" s="21"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="19"/>
+      <c r="E49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="I49" s="21"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="19"/>
+      <c r="E50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="I50" s="21"/>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" s="19"/>
+      <c r="E51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="I51" s="21"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="19"/>
+      <c r="E52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="I52" s="21"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="19"/>
+      <c r="E53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="19"/>
+      <c r="E54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="19"/>
+      <c r="E55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="19"/>
+      <c r="E56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="I56" s="21"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="19"/>
+      <c r="E57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" s="19"/>
+      <c r="E58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="19"/>
+      <c r="E59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="19"/>
+      <c r="E60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="19"/>
+      <c r="E61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="19"/>
+      <c r="E62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" s="19"/>
+      <c r="E63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="19"/>
+      <c r="E64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="I64" s="21"/>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="B65" s="19"/>
+      <c r="E65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="B66" s="19"/>
+      <c r="E66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="I66" s="21"/>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="B69" t="s">
         <v>260</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C69" t="s">
         <v>261</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D69" t="s">
         <v>260</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E69" t="s">
         <v>262</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F69" t="s">
         <v>260</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G69" t="s">
         <v>263</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H69" t="s">
         <v>260</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I69" t="s">
         <v>264</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L69" t="s">
         <v>260</v>
       </c>
-      <c r="K44" t="s">
+      <c r="M69" t="s">
         <v>265</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N69" t="s">
         <v>260</v>
       </c>
-      <c r="M44" t="s">
+      <c r="O69" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
-      <c r="B45" t="s">
+    <row r="70" spans="1:15">
+      <c r="B70" t="s">
         <v>267</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C70" t="s">
         <v>261</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D70" t="s">
         <v>260</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E70" t="s">
         <v>262</v>
       </c>
-      <c r="F45" t="str">
-        <f>$B45</f>
+      <c r="F70" t="str">
+        <f>$B70</f>
         <v>hydro</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G70" t="s">
         <v>263</v>
       </c>
-      <c r="H45" t="str">
-        <f>$B45</f>
+      <c r="H70" t="str">
+        <f>$B70</f>
         <v>hydro</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I70" t="s">
         <v>264</v>
       </c>
-      <c r="J45" t="str">
-        <f>$B45</f>
+      <c r="L70" t="str">
+        <f>$B70</f>
         <v>hydro</v>
       </c>
-      <c r="K45" t="s">
+      <c r="M70" t="s">
         <v>265</v>
       </c>
-      <c r="L45" t="str">
-        <f>$B45</f>
+      <c r="N70" t="str">
+        <f>$B70</f>
         <v>hydro</v>
       </c>
-      <c r="M45" t="s">
+      <c r="O70" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
-      <c r="B46" t="s">
+    <row r="71" spans="1:15">
+      <c r="B71" t="s">
         <v>268</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C71" t="s">
         <v>261</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D71" t="s">
         <v>260</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E71" t="s">
         <v>262</v>
       </c>
-      <c r="F46" t="str">
-        <f t="shared" ref="F46:L55" si="6">$B46</f>
+      <c r="F71" t="str">
+        <f t="shared" ref="F71:N80" si="7">$B71</f>
         <v>anemo</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G71" t="s">
         <v>263</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="6"/>
+      <c r="H71" t="str">
+        <f t="shared" si="7"/>
         <v>anemo</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I71" t="s">
         <v>264</v>
       </c>
-      <c r="J46" t="str">
-        <f t="shared" si="6"/>
+      <c r="L71" t="str">
+        <f t="shared" si="7"/>
         <v>anemo</v>
       </c>
-      <c r="K46" t="s">
+      <c r="M71" t="s">
         <v>265</v>
       </c>
-      <c r="L46" t="str">
-        <f t="shared" si="6"/>
+      <c r="N71" t="str">
+        <f t="shared" si="7"/>
         <v>anemo</v>
       </c>
-      <c r="M46" t="s">
+      <c r="O71" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="B47" t="s">
+    <row r="72" spans="1:15">
+      <c r="B72" t="s">
         <v>269</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C72" t="s">
         <v>261</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D72" t="s">
         <v>260</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E72" t="s">
         <v>262</v>
       </c>
-      <c r="F47" t="str">
-        <f t="shared" si="6"/>
+      <c r="F72" t="str">
+        <f t="shared" si="7"/>
         <v>electro</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="H47" t="str">
-        <f t="shared" si="6"/>
+      <c r="H72" t="str">
+        <f t="shared" si="7"/>
         <v>electro</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I72" t="s">
         <v>264</v>
       </c>
-      <c r="J47" t="str">
-        <f t="shared" si="6"/>
+      <c r="L72" t="str">
+        <f t="shared" si="7"/>
         <v>electro</v>
       </c>
-      <c r="K47" t="s">
+      <c r="M72" t="s">
         <v>265</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" si="6"/>
+      <c r="N72" t="str">
+        <f t="shared" si="7"/>
         <v>electro</v>
       </c>
-      <c r="M47" t="s">
+      <c r="O72" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
-      <c r="B48" t="s">
+    <row r="73" spans="1:15">
+      <c r="B73" t="s">
         <v>270</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C73" t="s">
         <v>261</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D73" t="s">
         <v>260</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E73" t="s">
         <v>262</v>
       </c>
-      <c r="F48" t="str">
-        <f t="shared" si="6"/>
+      <c r="F73" t="str">
+        <f t="shared" si="7"/>
         <v>dendor</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="6"/>
+      <c r="H73" t="str">
+        <f t="shared" si="7"/>
         <v>dendor</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I73" t="s">
         <v>264</v>
       </c>
-      <c r="J48" t="str">
-        <f t="shared" si="6"/>
+      <c r="L73" t="str">
+        <f t="shared" si="7"/>
         <v>dendor</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M73" t="s">
         <v>265</v>
       </c>
-      <c r="L48" t="str">
-        <f t="shared" si="6"/>
+      <c r="N73" t="str">
+        <f t="shared" si="7"/>
         <v>dendor</v>
       </c>
-      <c r="M48" t="s">
+      <c r="O73" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="B49" t="s">
+    <row r="74" spans="1:15">
+      <c r="B74" t="s">
         <v>271</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C74" t="s">
         <v>261</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D74" t="s">
         <v>260</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E74" t="s">
         <v>262</v>
       </c>
-      <c r="F49" t="str">
-        <f t="shared" si="6"/>
+      <c r="F74" t="str">
+        <f t="shared" si="7"/>
         <v>cryo</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G74" t="s">
         <v>263</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="6"/>
+      <c r="H74" t="str">
+        <f t="shared" si="7"/>
         <v>cryo</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I74" t="s">
         <v>264</v>
       </c>
-      <c r="J49" t="str">
-        <f t="shared" si="6"/>
+      <c r="L74" t="str">
+        <f t="shared" si="7"/>
         <v>cryo</v>
       </c>
-      <c r="K49" t="s">
+      <c r="M74" t="s">
         <v>265</v>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" si="6"/>
+      <c r="N74" t="str">
+        <f t="shared" si="7"/>
         <v>cryo</v>
       </c>
-      <c r="M49" t="s">
+      <c r="O74" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="B50" t="s">
+    <row r="75" spans="1:15">
+      <c r="B75" t="s">
         <v>272</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C75" t="s">
         <v>261</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D75" t="s">
         <v>260</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E75" t="s">
         <v>262</v>
       </c>
-      <c r="F50" t="str">
-        <f t="shared" si="6"/>
+      <c r="F75" t="str">
+        <f t="shared" si="7"/>
         <v>geo</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="6"/>
+      <c r="H75" t="str">
+        <f t="shared" si="7"/>
         <v>geo</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I75" t="s">
         <v>264</v>
       </c>
-      <c r="J50" t="str">
-        <f t="shared" si="6"/>
+      <c r="L75" t="str">
+        <f t="shared" si="7"/>
         <v>geo</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M75" t="s">
         <v>265</v>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" si="6"/>
+      <c r="N75" t="str">
+        <f t="shared" si="7"/>
         <v>geo</v>
       </c>
-      <c r="M50" t="s">
+      <c r="O75" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" t="s">
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
         <v>273</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B76" t="s">
         <v>274</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C76" t="s">
         <v>261</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D76" t="s">
         <v>260</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E76" t="s">
         <v>262</v>
       </c>
-      <c r="F51" t="str">
-        <f t="shared" si="6"/>
+      <c r="F76" t="str">
+        <f t="shared" si="7"/>
         <v>sword</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G76" t="s">
         <v>263</v>
       </c>
-      <c r="H51" t="str">
-        <f>$A51&amp;$B51</f>
+      <c r="H76" t="str">
+        <f>$A76&amp;$B76</f>
         <v>ico_sword</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I76" t="s">
         <v>264</v>
       </c>
-      <c r="J51" t="str">
-        <f t="shared" si="6"/>
+      <c r="L76" t="str">
+        <f t="shared" si="7"/>
         <v>sword</v>
       </c>
-      <c r="K51" t="s">
+      <c r="M76" t="s">
         <v>265</v>
       </c>
-      <c r="L51" t="str">
-        <f>$A51&amp;$B51</f>
+      <c r="N76" t="str">
+        <f>$A76&amp;$B76</f>
         <v>ico_sword</v>
       </c>
-      <c r="M51" t="s">
+      <c r="O76" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" t="s">
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
         <v>273</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B77" t="s">
         <v>275</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C77" t="s">
         <v>261</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D77" t="s">
         <v>260</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E77" t="s">
         <v>262</v>
       </c>
-      <c r="F52" t="str">
-        <f t="shared" si="6"/>
+      <c r="F77" t="str">
+        <f t="shared" si="7"/>
         <v>claymore</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G77" t="s">
         <v>263</v>
       </c>
-      <c r="H52" t="str">
-        <f t="shared" ref="H52:H55" si="7">$A52&amp;$B52</f>
+      <c r="H77" t="str">
+        <f t="shared" ref="H77:H80" si="8">$A77&amp;$B77</f>
         <v>ico_claymore</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I77" t="s">
         <v>264</v>
       </c>
-      <c r="J52" t="str">
-        <f t="shared" si="6"/>
+      <c r="L77" t="str">
+        <f t="shared" si="7"/>
         <v>claymore</v>
       </c>
-      <c r="K52" t="s">
+      <c r="M77" t="s">
         <v>265</v>
       </c>
-      <c r="L52" t="str">
-        <f t="shared" ref="L52:L55" si="8">$A52&amp;$B52</f>
+      <c r="N77" t="str">
+        <f t="shared" ref="N77:N80" si="9">$A77&amp;$B77</f>
         <v>ico_claymore</v>
       </c>
-      <c r="M52" t="s">
+      <c r="O77" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" t="s">
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
         <v>273</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B78" t="s">
         <v>276</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C78" t="s">
         <v>261</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D78" t="s">
         <v>260</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E78" t="s">
         <v>262</v>
       </c>
-      <c r="F53" t="str">
-        <f t="shared" si="6"/>
+      <c r="F78" t="str">
+        <f t="shared" si="7"/>
         <v>polearm</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G78" t="s">
         <v>263</v>
       </c>
-      <c r="H53" t="str">
-        <f t="shared" si="7"/>
-        <v>ico_polearm</v>
-      </c>
-      <c r="I53" t="s">
-        <v>264</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="6"/>
-        <v>polearm</v>
-      </c>
-      <c r="K53" t="s">
-        <v>265</v>
-      </c>
-      <c r="L53" t="str">
+      <c r="H78" t="str">
         <f t="shared" si="8"/>
         <v>ico_polearm</v>
       </c>
-      <c r="M53" t="s">
+      <c r="I78" t="s">
+        <v>264</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="7"/>
+        <v>polearm</v>
+      </c>
+      <c r="M78" t="s">
+        <v>265</v>
+      </c>
+      <c r="N78" t="str">
+        <f t="shared" si="9"/>
+        <v>ico_polearm</v>
+      </c>
+      <c r="O78" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" t="s">
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
         <v>273</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B79" t="s">
         <v>277</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C79" t="s">
         <v>261</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D79" t="s">
         <v>260</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E79" t="s">
         <v>262</v>
       </c>
-      <c r="F54" t="str">
-        <f t="shared" si="6"/>
+      <c r="F79" t="str">
+        <f t="shared" si="7"/>
         <v>bow</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G79" t="s">
         <v>263</v>
       </c>
-      <c r="H54" t="str">
-        <f t="shared" si="7"/>
-        <v>ico_bow</v>
-      </c>
-      <c r="I54" t="s">
-        <v>264</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="6"/>
-        <v>bow</v>
-      </c>
-      <c r="K54" t="s">
-        <v>265</v>
-      </c>
-      <c r="L54" t="str">
+      <c r="H79" t="str">
         <f t="shared" si="8"/>
         <v>ico_bow</v>
       </c>
-      <c r="M54" t="s">
+      <c r="I79" t="s">
+        <v>264</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="7"/>
+        <v>bow</v>
+      </c>
+      <c r="M79" t="s">
+        <v>265</v>
+      </c>
+      <c r="N79" t="str">
+        <f t="shared" si="9"/>
+        <v>ico_bow</v>
+      </c>
+      <c r="O79" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" t="s">
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
         <v>273</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B80" t="s">
         <v>278</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C80" t="s">
         <v>261</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D80" t="s">
         <v>260</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E80" t="s">
         <v>262</v>
       </c>
-      <c r="F55" t="str">
-        <f t="shared" si="6"/>
+      <c r="F80" t="str">
+        <f t="shared" si="7"/>
         <v>catalyst</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G80" t="s">
         <v>263</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="7"/>
-        <v>ico_catalyst</v>
-      </c>
-      <c r="I55" t="s">
-        <v>264</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="6"/>
-        <v>catalyst</v>
-      </c>
-      <c r="K55" t="s">
-        <v>265</v>
-      </c>
-      <c r="L55" t="str">
+      <c r="H80" t="str">
         <f t="shared" si="8"/>
         <v>ico_catalyst</v>
       </c>
-      <c r="M55" t="s">
+      <c r="I80" t="s">
+        <v>264</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="7"/>
+        <v>catalyst</v>
+      </c>
+      <c r="M80" t="s">
+        <v>265</v>
+      </c>
+      <c r="N80" t="str">
+        <f t="shared" si="9"/>
+        <v>ico_catalyst</v>
+      </c>
+      <c r="O80" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
-      <c r="M60" t="s">
+    <row r="85" spans="1:17">
+      <c r="O85" t="s">
         <v>279</v>
       </c>
-      <c r="N60" t="s">
+      <c r="P85" t="s">
         <v>280</v>
       </c>
-      <c r="O60" t="s">
+      <c r="Q85" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="17" t="s">
+    <row r="86" spans="1:17">
+      <c r="A86" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B86" t="s">
         <v>274</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C86" t="s">
         <v>283</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D86" t="s">
         <v>274</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E86" t="s">
         <v>284</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G86" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I86" t="s">
         <v>287</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L86" t="s">
         <v>286</v>
       </c>
-      <c r="K61" t="s">
+      <c r="M86" t="s">
         <v>288</v>
       </c>
-      <c r="M61" t="s">
+      <c r="O86" t="s">
         <v>289</v>
       </c>
-      <c r="N61" t="s">
+      <c r="P86" t="s">
         <v>290</v>
       </c>
-      <c r="O61" t="s">
+      <c r="Q86" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="17" t="s">
+    <row r="87" spans="1:17">
+      <c r="A87" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B87" t="s">
         <v>275</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C87" t="s">
         <v>283</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D87" t="s">
         <v>275</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E87" t="s">
         <v>284</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G87" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H87" t="s">
         <v>292</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I87" t="s">
         <v>287</v>
       </c>
-      <c r="J62" t="s">
+      <c r="L87" t="s">
         <v>292</v>
       </c>
-      <c r="K62" t="s">
+      <c r="M87" t="s">
         <v>288</v>
       </c>
-      <c r="M62" t="s">
+      <c r="O87" t="s">
         <v>293</v>
       </c>
-      <c r="N62" t="s">
+      <c r="P87" t="s">
         <v>294</v>
       </c>
-      <c r="O62" t="s">
+      <c r="Q87" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="17" t="s">
+    <row r="88" spans="1:17">
+      <c r="A88" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B88" t="s">
         <v>276</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C88" t="s">
         <v>283</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D88" t="s">
         <v>276</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E88" t="s">
         <v>284</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G88" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H88" t="s">
         <v>296</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I88" t="s">
         <v>287</v>
       </c>
-      <c r="J63" t="s">
+      <c r="L88" t="s">
         <v>296</v>
       </c>
-      <c r="K63" t="s">
+      <c r="M88" t="s">
         <v>288</v>
       </c>
-      <c r="M63" t="s">
+      <c r="O88" t="s">
         <v>297</v>
       </c>
-      <c r="N63" t="s">
+      <c r="P88" t="s">
         <v>298</v>
       </c>
-      <c r="O63" t="s">
+      <c r="Q88" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="17" t="s">
+    <row r="89" spans="1:17">
+      <c r="A89" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B89" t="s">
         <v>277</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C89" t="s">
         <v>283</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D89" t="s">
         <v>277</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E89" t="s">
         <v>284</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G89" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H89" t="s">
         <v>300</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I89" t="s">
         <v>287</v>
       </c>
-      <c r="J64" t="s">
+      <c r="L89" t="s">
         <v>300</v>
       </c>
-      <c r="K64" t="s">
+      <c r="M89" t="s">
         <v>288</v>
       </c>
-      <c r="M64" t="s">
+      <c r="O89" t="s">
         <v>301</v>
       </c>
-      <c r="N64" t="s">
+      <c r="P89" t="s">
         <v>302</v>
       </c>
-      <c r="O64" t="s">
+      <c r="Q89" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="17" t="s">
+    <row r="90" spans="1:17">
+      <c r="A90" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B90" t="s">
         <v>278</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C90" t="s">
         <v>283</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D90" t="s">
         <v>278</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G90" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H90" t="s">
         <v>304</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I90" t="s">
         <v>287</v>
       </c>
-      <c r="J65" t="s">
+      <c r="L90" t="s">
         <v>304</v>
       </c>
-      <c r="K65" t="s">
+      <c r="M90" t="s">
         <v>288</v>
       </c>
-      <c r="M65" t="s">
+      <c r="O90" t="s">
         <v>305</v>
       </c>
-      <c r="N65" t="s">
+      <c r="P90" t="s">
         <v>306</v>
       </c>
-      <c r="O65" t="s">
+      <c r="Q90" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="17"/>
-      <c r="G66" s="17" t="s">
+    <row r="91" spans="1:17">
+      <c r="A91" s="17"/>
+      <c r="G91" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H91" t="s">
         <v>308</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I91" t="s">
         <v>287</v>
       </c>
-      <c r="J66" t="s">
+      <c r="L91" t="s">
         <v>308</v>
       </c>
-      <c r="K66" t="s">
+      <c r="M91" t="s">
         <v>288</v>
       </c>
-      <c r="M66" t="s">
+      <c r="O91" t="s">
         <v>309</v>
       </c>
-      <c r="N66" t="s">
+      <c r="P91" t="s">
         <v>310</v>
       </c>
-      <c r="O66" t="s">
+      <c r="Q91" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="17"/>
-      <c r="G67" s="17" t="s">
+    <row r="92" spans="1:17">
+      <c r="A92" s="17"/>
+      <c r="G92" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H92" t="s">
         <v>312</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I92" t="s">
         <v>287</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L92" t="s">
         <v>312</v>
       </c>
-      <c r="K67" t="s">
+      <c r="M92" t="s">
         <v>288</v>
       </c>
-      <c r="M67" t="s">
+      <c r="O92" t="s">
         <v>313</v>
       </c>
-      <c r="N67" t="s">
+      <c r="P92" t="s">
         <v>314</v>
       </c>
-      <c r="O67" t="s">
+      <c r="Q92" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
-      <c r="G68" s="17" t="s">
+    <row r="93" spans="1:17">
+      <c r="G93" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H93" t="s">
         <v>316</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I93" t="s">
         <v>287</v>
       </c>
-      <c r="J68" t="s">
+      <c r="L93" t="s">
         <v>316</v>
       </c>
-      <c r="K68" t="s">
+      <c r="M93" t="s">
         <v>288</v>
       </c>
-      <c r="M68" t="s">
+      <c r="O93" t="s">
         <v>317</v>
       </c>
-      <c r="N68" t="s">
+      <c r="P93" t="s">
         <v>318</v>
       </c>
-      <c r="O68" t="s">
+      <c r="Q93" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="G69" s="17" t="s">
+    <row r="94" spans="1:17">
+      <c r="G94" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H94" t="s">
         <v>320</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I94" t="s">
         <v>287</v>
       </c>
-      <c r="J69" t="s">
+      <c r="L94" t="s">
         <v>320</v>
       </c>
-      <c r="K69" t="s">
+      <c r="M94" t="s">
         <v>288</v>
       </c>
-      <c r="M69" t="s">
+      <c r="O94" t="s">
         <v>321</v>
       </c>
-      <c r="N69" t="s">
+      <c r="P94" t="s">
         <v>322</v>
       </c>
-      <c r="O69" t="s">
+      <c r="Q94" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
-      <c r="G70" s="17" t="s">
+    <row r="95" spans="1:17">
+      <c r="G95" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H95" t="s">
         <v>324</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I95" t="s">
         <v>287</v>
       </c>
-      <c r="J70" t="s">
+      <c r="L95" t="s">
         <v>324</v>
       </c>
-      <c r="K70" t="s">
+      <c r="M95" t="s">
         <v>288</v>
       </c>
-      <c r="M70" t="s">
+      <c r="O95" t="s">
         <v>325</v>
       </c>
-      <c r="N70" t="s">
+      <c r="P95" t="s">
         <v>326</v>
       </c>
-      <c r="O70" t="s">
+      <c r="Q95" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="G71" s="17" t="s">
+    <row r="96" spans="1:17">
+      <c r="G96" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H96" t="s">
         <v>328</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I96" t="s">
         <v>287</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L96" t="s">
         <v>328</v>
       </c>
-      <c r="K71" t="s">
+      <c r="M96" t="s">
         <v>288</v>
       </c>
-      <c r="M71" t="s">
+      <c r="O96" t="s">
         <v>329</v>
       </c>
-      <c r="N71" t="s">
+      <c r="P96" t="s">
         <v>330</v>
       </c>
-      <c r="O71" t="s">
+      <c r="Q96" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="G72" s="17" t="s">
+    <row r="97" spans="1:13">
+      <c r="G97" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H97" t="s">
         <v>332</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I97" t="s">
         <v>287</v>
       </c>
-      <c r="J72" t="s">
+      <c r="L97" t="s">
         <v>332</v>
       </c>
-      <c r="K72" t="s">
+      <c r="M97" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" t="s">
+    <row r="101" spans="1:13">
+      <c r="A101" t="s">
         <v>260</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B101" t="s">
         <v>333</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C101" t="s">
         <v>334</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D101" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="A77" t="s">
+    <row r="102" spans="1:13">
+      <c r="A102" t="s">
         <v>267</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B102" t="s">
         <v>333</v>
       </c>
-      <c r="C77" t="str">
-        <f>"show_"&amp;A77</f>
+      <c r="C102" t="str">
+        <f>"show_"&amp;A102</f>
         <v>show_hydro</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D102" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="A78" t="s">
+    <row r="103" spans="1:13">
+      <c r="A103" t="s">
         <v>268</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B103" t="s">
         <v>333</v>
       </c>
-      <c r="C78" t="str">
-        <f t="shared" ref="C78:C87" si="9">"show_"&amp;A78</f>
+      <c r="C103" t="str">
+        <f t="shared" ref="C103:C112" si="10">"show_"&amp;A103</f>
         <v>show_anemo</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D103" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
-      <c r="A79" t="s">
+    <row r="104" spans="1:13">
+      <c r="A104" t="s">
         <v>269</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B104" t="s">
         <v>333</v>
       </c>
-      <c r="C79" t="str">
-        <f t="shared" si="9"/>
+      <c r="C104" t="str">
+        <f t="shared" si="10"/>
         <v>show_electro</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D104" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" t="s">
+    <row r="105" spans="1:13">
+      <c r="A105" t="s">
         <v>270</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B105" t="s">
         <v>333</v>
       </c>
-      <c r="C80" t="str">
-        <f t="shared" si="9"/>
+      <c r="C105" t="str">
+        <f t="shared" si="10"/>
         <v>show_dendor</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D105" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+    <row r="106" spans="1:13">
+      <c r="A106" t="s">
         <v>271</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B106" t="s">
         <v>333</v>
       </c>
-      <c r="C81" t="str">
-        <f t="shared" si="9"/>
+      <c r="C106" t="str">
+        <f t="shared" si="10"/>
         <v>show_cryo</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D106" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+    <row r="107" spans="1:13">
+      <c r="A107" t="s">
         <v>272</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B107" t="s">
         <v>333</v>
       </c>
-      <c r="C82" t="str">
-        <f t="shared" si="9"/>
+      <c r="C107" t="str">
+        <f t="shared" si="10"/>
         <v>show_geo</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D107" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+    <row r="108" spans="1:13">
+      <c r="A108" t="s">
         <v>274</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B108" t="s">
         <v>333</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" si="9"/>
+      <c r="C108" t="str">
+        <f t="shared" si="10"/>
         <v>show_sword</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D108" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+    <row r="109" spans="1:13">
+      <c r="A109" t="s">
         <v>275</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B109" t="s">
         <v>333</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="9"/>
+      <c r="C109" t="str">
+        <f t="shared" si="10"/>
         <v>show_claymore</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D109" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+    <row r="110" spans="1:13">
+      <c r="A110" t="s">
         <v>276</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B110" t="s">
         <v>333</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" si="9"/>
+      <c r="C110" t="str">
+        <f t="shared" si="10"/>
         <v>show_polearm</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D110" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+    <row r="111" spans="1:13">
+      <c r="A111" t="s">
         <v>277</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B111" t="s">
         <v>333</v>
       </c>
-      <c r="C86" t="str">
-        <f t="shared" si="9"/>
+      <c r="C111" t="str">
+        <f t="shared" si="10"/>
         <v>show_bow</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D111" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+    <row r="112" spans="1:13">
+      <c r="A112" t="s">
         <v>278</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B112" t="s">
         <v>333</v>
       </c>
-      <c r="C87" t="str">
-        <f t="shared" si="9"/>
+      <c r="C112" t="str">
+        <f t="shared" si="10"/>
         <v>show_catalyst</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D112" t="s">
         <v>335</v>
       </c>
     </row>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vocaloid2048\Desktop\File\App\GenshinHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397E02B-ED08-41BE-87CE-1139CEE861B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A856BDE-8020-44E6-9C40-101C09375CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
+    <workbookView xWindow="30360" yWindow="690" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Home_List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="508">
   <si>
     <t>"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1903,6 +1903,242 @@
   <si>
     <t>//Add at 210820</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REN "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_Albedo_Portrait.png</t>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albedo.png</t>
+  </si>
+  <si>
+    <t>Character_Amber_Portrait.png</t>
+  </si>
+  <si>
+    <t>Amber.png</t>
+  </si>
+  <si>
+    <t>Character_Barbara_Portrait.png</t>
+  </si>
+  <si>
+    <t>Barbara.png</t>
+  </si>
+  <si>
+    <t>Character_Beidou_Portrait.png</t>
+  </si>
+  <si>
+    <t>Beidou.png</t>
+  </si>
+  <si>
+    <t>Character_Bennett_Portrait.png</t>
+  </si>
+  <si>
+    <t>Bennett.png</t>
+  </si>
+  <si>
+    <t>Character_Chongyun_Portrait.png</t>
+  </si>
+  <si>
+    <t>Chongyun.png</t>
+  </si>
+  <si>
+    <t>Character_Diluc_Portrait.png</t>
+  </si>
+  <si>
+    <t>Diluc.png</t>
+  </si>
+  <si>
+    <t>Character_Diona_Portrait.png</t>
+  </si>
+  <si>
+    <t>Diona.png</t>
+  </si>
+  <si>
+    <t>Character_Fischl_Portrait.png</t>
+  </si>
+  <si>
+    <t>Fischl.png</t>
+  </si>
+  <si>
+    <t>Character_Ganyu_Portrait.png</t>
+  </si>
+  <si>
+    <t>Ganyu.png</t>
+  </si>
+  <si>
+    <t>Character_Hu_Tao_Portrait.png</t>
+  </si>
+  <si>
+    <t>Hu_Tao.png</t>
+  </si>
+  <si>
+    <t>Character_Jean_Portrait.png</t>
+  </si>
+  <si>
+    <t>Jean.png</t>
+  </si>
+  <si>
+    <t>Character_Kaedehara_Kazuha_Portrait.png</t>
+  </si>
+  <si>
+    <t>Kaedehara_Kazuha.png</t>
+  </si>
+  <si>
+    <t>Character_Kaeya_Portrait.png</t>
+  </si>
+  <si>
+    <t>Kaeya.png</t>
+  </si>
+  <si>
+    <t>Character_Kamisato_Ayaka_Portrait.png</t>
+  </si>
+  <si>
+    <t>Kamisato_Ayaka.png</t>
+  </si>
+  <si>
+    <t>Character_Keqing_Portrait.png</t>
+  </si>
+  <si>
+    <t>Keqing.png</t>
+  </si>
+  <si>
+    <t>Character_Klee_Portrait.png</t>
+  </si>
+  <si>
+    <t>Klee.png</t>
+  </si>
+  <si>
+    <t>Character_Kujou_Sara_Portrait.webp</t>
+  </si>
+  <si>
+    <t>Kujou_Sara.webp</t>
+  </si>
+  <si>
+    <t>Character_Lisa_Portrait.png</t>
+  </si>
+  <si>
+    <t>Lisa.png</t>
+  </si>
+  <si>
+    <t>Character_Mona_Portrait.png</t>
+  </si>
+  <si>
+    <t>Mona.png</t>
+  </si>
+  <si>
+    <t>Character_Ningguang_Portrait.png</t>
+  </si>
+  <si>
+    <t>Ningguang.png</t>
+  </si>
+  <si>
+    <t>Character_Noelle_Portrait.png</t>
+  </si>
+  <si>
+    <t>Noelle.png</t>
+  </si>
+  <si>
+    <t>Character_Qiqi_Portrait.png</t>
+  </si>
+  <si>
+    <t>Qiqi.png</t>
+  </si>
+  <si>
+    <t>Character_Raiden_Shogun_Portrait .png</t>
+  </si>
+  <si>
+    <t>Raiden_Shogun .png</t>
+  </si>
+  <si>
+    <t>Character_Razor_Portrait.png</t>
+  </si>
+  <si>
+    <t>Razor.png</t>
+  </si>
+  <si>
+    <t>Character_Rosaria_Portrait.png</t>
+  </si>
+  <si>
+    <t>Rosaria.png</t>
+  </si>
+  <si>
+    <t>Character_Sangonomiya_Kokomi_Portrait.webp</t>
+  </si>
+  <si>
+    <t>Sangonomiya_Kokomi.webp</t>
+  </si>
+  <si>
+    <t>Character_Sayu_Portrait.png</t>
+  </si>
+  <si>
+    <t>Sayu.png</t>
+  </si>
+  <si>
+    <t>Character_Sucrose_Portrait.png</t>
+  </si>
+  <si>
+    <t>Sucrose.png</t>
+  </si>
+  <si>
+    <t>Character_Tartaglia_Portrait.png</t>
+  </si>
+  <si>
+    <t>Tartaglia.png</t>
+  </si>
+  <si>
+    <t>Character_Venti_Portrait.png</t>
+  </si>
+  <si>
+    <t>Venti.png</t>
+  </si>
+  <si>
+    <t>Character_Xiangling_Portrait.png</t>
+  </si>
+  <si>
+    <t>Xiangling.png</t>
+  </si>
+  <si>
+    <t>Character_Xiao_Portrait.png</t>
+  </si>
+  <si>
+    <t>Xiao.png</t>
+  </si>
+  <si>
+    <t>Character_Xingqiu_Portrait.png</t>
+  </si>
+  <si>
+    <t>Xingqiu.png</t>
+  </si>
+  <si>
+    <t>Character_Xinyan_Portrait.png</t>
+  </si>
+  <si>
+    <t>Xinyan.png</t>
+  </si>
+  <si>
+    <t>Character_Yanfei_Portrait.png</t>
+  </si>
+  <si>
+    <t>Yanfei.png</t>
+  </si>
+  <si>
+    <t>Character_Yoimiya_Portrait.png</t>
+  </si>
+  <si>
+    <t>Yoimiya.png</t>
+  </si>
+  <si>
+    <t>Character_Zhongli_Portrait.png</t>
+  </si>
+  <si>
+    <t>Zhongli.png</t>
   </si>
 </sst>
 </file>
@@ -7935,10 +8171,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C5A84A-5C7F-451F-A1D8-4D9A74023F1A}">
-  <dimension ref="A1:Y112"/>
+  <dimension ref="A1:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11662,6 +11898,804 @@
       </c>
       <c r="D112" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" t="s">
+        <v>430</v>
+      </c>
+      <c r="B115" t="s">
+        <v>431</v>
+      </c>
+      <c r="C115" t="s">
+        <v>432</v>
+      </c>
+      <c r="D115" t="str">
+        <f>LOWER(H115)</f>
+        <v>albedo.png</v>
+      </c>
+      <c r="E115" t="s">
+        <v>349</v>
+      </c>
+      <c r="H115" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" t="s">
+        <v>430</v>
+      </c>
+      <c r="B116" t="s">
+        <v>434</v>
+      </c>
+      <c r="C116" t="s">
+        <v>432</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" ref="D116:D152" si="11">LOWER(H116)</f>
+        <v>amber.png</v>
+      </c>
+      <c r="E116" t="s">
+        <v>349</v>
+      </c>
+      <c r="H116" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" t="s">
+        <v>430</v>
+      </c>
+      <c r="B117" t="s">
+        <v>436</v>
+      </c>
+      <c r="C117" t="s">
+        <v>432</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="11"/>
+        <v>barbara.png</v>
+      </c>
+      <c r="E117" t="s">
+        <v>349</v>
+      </c>
+      <c r="H117" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>430</v>
+      </c>
+      <c r="B118" t="s">
+        <v>438</v>
+      </c>
+      <c r="C118" t="s">
+        <v>432</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="11"/>
+        <v>beidou.png</v>
+      </c>
+      <c r="E118" t="s">
+        <v>349</v>
+      </c>
+      <c r="H118" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" t="s">
+        <v>430</v>
+      </c>
+      <c r="B119" t="s">
+        <v>440</v>
+      </c>
+      <c r="C119" t="s">
+        <v>432</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="11"/>
+        <v>bennett.png</v>
+      </c>
+      <c r="E119" t="s">
+        <v>349</v>
+      </c>
+      <c r="H119" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" t="s">
+        <v>442</v>
+      </c>
+      <c r="C120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="11"/>
+        <v>chongyun.png</v>
+      </c>
+      <c r="E120" t="s">
+        <v>349</v>
+      </c>
+      <c r="H120" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
+        <v>430</v>
+      </c>
+      <c r="B121" t="s">
+        <v>444</v>
+      </c>
+      <c r="C121" t="s">
+        <v>432</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="11"/>
+        <v>diluc.png</v>
+      </c>
+      <c r="E121" t="s">
+        <v>349</v>
+      </c>
+      <c r="H121" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" t="s">
+        <v>430</v>
+      </c>
+      <c r="B122" t="s">
+        <v>446</v>
+      </c>
+      <c r="C122" t="s">
+        <v>432</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="11"/>
+        <v>diona.png</v>
+      </c>
+      <c r="E122" t="s">
+        <v>349</v>
+      </c>
+      <c r="H122" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" t="s">
+        <v>430</v>
+      </c>
+      <c r="B123" t="s">
+        <v>448</v>
+      </c>
+      <c r="C123" t="s">
+        <v>432</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="11"/>
+        <v>fischl.png</v>
+      </c>
+      <c r="E123" t="s">
+        <v>349</v>
+      </c>
+      <c r="H123" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" t="s">
+        <v>430</v>
+      </c>
+      <c r="B124" t="s">
+        <v>450</v>
+      </c>
+      <c r="C124" t="s">
+        <v>432</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="11"/>
+        <v>ganyu.png</v>
+      </c>
+      <c r="E124" t="s">
+        <v>349</v>
+      </c>
+      <c r="H124" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
+        <v>430</v>
+      </c>
+      <c r="B125" t="s">
+        <v>452</v>
+      </c>
+      <c r="C125" t="s">
+        <v>432</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="11"/>
+        <v>hu_tao.png</v>
+      </c>
+      <c r="E125" t="s">
+        <v>349</v>
+      </c>
+      <c r="H125" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" t="s">
+        <v>430</v>
+      </c>
+      <c r="B126" t="s">
+        <v>454</v>
+      </c>
+      <c r="C126" t="s">
+        <v>432</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="11"/>
+        <v>jean.png</v>
+      </c>
+      <c r="E126" t="s">
+        <v>349</v>
+      </c>
+      <c r="H126" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" t="s">
+        <v>430</v>
+      </c>
+      <c r="B127" t="s">
+        <v>456</v>
+      </c>
+      <c r="C127" t="s">
+        <v>432</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="11"/>
+        <v>kaedehara_kazuha.png</v>
+      </c>
+      <c r="E127" t="s">
+        <v>349</v>
+      </c>
+      <c r="H127" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" t="s">
+        <v>430</v>
+      </c>
+      <c r="B128" t="s">
+        <v>458</v>
+      </c>
+      <c r="C128" t="s">
+        <v>432</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="11"/>
+        <v>kaeya.png</v>
+      </c>
+      <c r="E128" t="s">
+        <v>349</v>
+      </c>
+      <c r="H128" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>430</v>
+      </c>
+      <c r="B129" t="s">
+        <v>460</v>
+      </c>
+      <c r="C129" t="s">
+        <v>432</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" si="11"/>
+        <v>kamisato_ayaka.png</v>
+      </c>
+      <c r="E129" t="s">
+        <v>349</v>
+      </c>
+      <c r="H129" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" t="s">
+        <v>430</v>
+      </c>
+      <c r="B130" t="s">
+        <v>462</v>
+      </c>
+      <c r="C130" t="s">
+        <v>432</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="11"/>
+        <v>keqing.png</v>
+      </c>
+      <c r="E130" t="s">
+        <v>349</v>
+      </c>
+      <c r="H130" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>430</v>
+      </c>
+      <c r="B131" t="s">
+        <v>464</v>
+      </c>
+      <c r="C131" t="s">
+        <v>432</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="11"/>
+        <v>klee.png</v>
+      </c>
+      <c r="E131" t="s">
+        <v>349</v>
+      </c>
+      <c r="H131" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>430</v>
+      </c>
+      <c r="B132" t="s">
+        <v>466</v>
+      </c>
+      <c r="C132" t="s">
+        <v>432</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="11"/>
+        <v>kujou_sara.webp</v>
+      </c>
+      <c r="E132" t="s">
+        <v>349</v>
+      </c>
+      <c r="H132" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>430</v>
+      </c>
+      <c r="B133" t="s">
+        <v>468</v>
+      </c>
+      <c r="C133" t="s">
+        <v>432</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="11"/>
+        <v>lisa.png</v>
+      </c>
+      <c r="E133" t="s">
+        <v>349</v>
+      </c>
+      <c r="H133" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>430</v>
+      </c>
+      <c r="B134" t="s">
+        <v>470</v>
+      </c>
+      <c r="C134" t="s">
+        <v>432</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="11"/>
+        <v>mona.png</v>
+      </c>
+      <c r="E134" t="s">
+        <v>349</v>
+      </c>
+      <c r="H134" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135" t="s">
+        <v>472</v>
+      </c>
+      <c r="C135" t="s">
+        <v>432</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="11"/>
+        <v>ningguang.png</v>
+      </c>
+      <c r="E135" t="s">
+        <v>349</v>
+      </c>
+      <c r="H135" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>430</v>
+      </c>
+      <c r="B136" t="s">
+        <v>474</v>
+      </c>
+      <c r="C136" t="s">
+        <v>432</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="11"/>
+        <v>noelle.png</v>
+      </c>
+      <c r="E136" t="s">
+        <v>349</v>
+      </c>
+      <c r="H136" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>430</v>
+      </c>
+      <c r="B137" t="s">
+        <v>476</v>
+      </c>
+      <c r="C137" t="s">
+        <v>432</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="11"/>
+        <v>qiqi.png</v>
+      </c>
+      <c r="E137" t="s">
+        <v>349</v>
+      </c>
+      <c r="H137" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>430</v>
+      </c>
+      <c r="B138" t="s">
+        <v>478</v>
+      </c>
+      <c r="C138" t="s">
+        <v>432</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="11"/>
+        <v>raiden_shogun .png</v>
+      </c>
+      <c r="E138" t="s">
+        <v>349</v>
+      </c>
+      <c r="H138" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>430</v>
+      </c>
+      <c r="B139" t="s">
+        <v>480</v>
+      </c>
+      <c r="C139" t="s">
+        <v>432</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="11"/>
+        <v>razor.png</v>
+      </c>
+      <c r="E139" t="s">
+        <v>349</v>
+      </c>
+      <c r="H139" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>430</v>
+      </c>
+      <c r="B140" t="s">
+        <v>482</v>
+      </c>
+      <c r="C140" t="s">
+        <v>432</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="11"/>
+        <v>rosaria.png</v>
+      </c>
+      <c r="E140" t="s">
+        <v>349</v>
+      </c>
+      <c r="H140" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>430</v>
+      </c>
+      <c r="B141" t="s">
+        <v>484</v>
+      </c>
+      <c r="C141" t="s">
+        <v>432</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="11"/>
+        <v>sangonomiya_kokomi.webp</v>
+      </c>
+      <c r="E141" t="s">
+        <v>349</v>
+      </c>
+      <c r="H141" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>430</v>
+      </c>
+      <c r="B142" t="s">
+        <v>486</v>
+      </c>
+      <c r="C142" t="s">
+        <v>432</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="11"/>
+        <v>sayu.png</v>
+      </c>
+      <c r="E142" t="s">
+        <v>349</v>
+      </c>
+      <c r="H142" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>430</v>
+      </c>
+      <c r="B143" t="s">
+        <v>488</v>
+      </c>
+      <c r="C143" t="s">
+        <v>432</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="11"/>
+        <v>sucrose.png</v>
+      </c>
+      <c r="E143" t="s">
+        <v>349</v>
+      </c>
+      <c r="H143" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>430</v>
+      </c>
+      <c r="B144" t="s">
+        <v>490</v>
+      </c>
+      <c r="C144" t="s">
+        <v>432</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="11"/>
+        <v>tartaglia.png</v>
+      </c>
+      <c r="E144" t="s">
+        <v>349</v>
+      </c>
+      <c r="H144" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>430</v>
+      </c>
+      <c r="B145" t="s">
+        <v>492</v>
+      </c>
+      <c r="C145" t="s">
+        <v>432</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="11"/>
+        <v>venti.png</v>
+      </c>
+      <c r="E145" t="s">
+        <v>349</v>
+      </c>
+      <c r="H145" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" t="s">
+        <v>430</v>
+      </c>
+      <c r="B146" t="s">
+        <v>494</v>
+      </c>
+      <c r="C146" t="s">
+        <v>432</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="11"/>
+        <v>xiangling.png</v>
+      </c>
+      <c r="E146" t="s">
+        <v>349</v>
+      </c>
+      <c r="H146" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" t="s">
+        <v>430</v>
+      </c>
+      <c r="B147" t="s">
+        <v>496</v>
+      </c>
+      <c r="C147" t="s">
+        <v>432</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="11"/>
+        <v>xiao.png</v>
+      </c>
+      <c r="E147" t="s">
+        <v>349</v>
+      </c>
+      <c r="H147" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148" t="s">
+        <v>430</v>
+      </c>
+      <c r="B148" t="s">
+        <v>498</v>
+      </c>
+      <c r="C148" t="s">
+        <v>432</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="11"/>
+        <v>xingqiu.png</v>
+      </c>
+      <c r="E148" t="s">
+        <v>349</v>
+      </c>
+      <c r="H148" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149" t="s">
+        <v>430</v>
+      </c>
+      <c r="B149" t="s">
+        <v>500</v>
+      </c>
+      <c r="C149" t="s">
+        <v>432</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="11"/>
+        <v>xinyan.png</v>
+      </c>
+      <c r="E149" t="s">
+        <v>349</v>
+      </c>
+      <c r="H149" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>430</v>
+      </c>
+      <c r="B150" t="s">
+        <v>502</v>
+      </c>
+      <c r="C150" t="s">
+        <v>432</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="11"/>
+        <v>yanfei.png</v>
+      </c>
+      <c r="E150" t="s">
+        <v>349</v>
+      </c>
+      <c r="H150" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" t="s">
+        <v>504</v>
+      </c>
+      <c r="C151" t="s">
+        <v>432</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="11"/>
+        <v>yoimiya.png</v>
+      </c>
+      <c r="E151" t="s">
+        <v>349</v>
+      </c>
+      <c r="H151" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" t="s">
+        <v>430</v>
+      </c>
+      <c r="B152" t="s">
+        <v>506</v>
+      </c>
+      <c r="C152" t="s">
+        <v>432</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="11"/>
+        <v>zhongli.png</v>
+      </c>
+      <c r="E152" t="s">
+        <v>349</v>
+      </c>
+      <c r="H152" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vocaloid2048\Desktop\File\App\GenshinHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A856BDE-8020-44E6-9C40-101C09375CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B19236-4252-4047-9470-702C4DC08489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="690" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
+    <workbookView xWindow="30015" yWindow="345" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Home_List" sheetId="1" r:id="rId1"/>
     <sheet name="Char_List" sheetId="2" r:id="rId2"/>
     <sheet name="getCharByName" sheetId="3" r:id="rId3"/>
-    <sheet name="klee_CharStatus" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId4"/>
+    <sheet name="klee_CharStatus" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="589">
   <si>
     <t>"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2139,6 +2140,252 @@
   </si>
   <si>
     <t>Zhongli.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raiden_shogun </t>
+  </si>
+  <si>
+    <t>.png" "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_full.png"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>albedo_flag.png</t>
+  </si>
+  <si>
+    <t>amber_flag.png</t>
+  </si>
+  <si>
+    <t>barbara_flag.png</t>
+  </si>
+  <si>
+    <t>beidou_flag.png</t>
+  </si>
+  <si>
+    <t>bennett_flag.png</t>
+  </si>
+  <si>
+    <t>chongyun_flag.png</t>
+  </si>
+  <si>
+    <t>diluc_flag.png</t>
+  </si>
+  <si>
+    <t>diona_flag.png</t>
+  </si>
+  <si>
+    <t>eula_flag.png</t>
+  </si>
+  <si>
+    <t>fischl_flag.png</t>
+  </si>
+  <si>
+    <t>ganyu_flag.png</t>
+  </si>
+  <si>
+    <t>hu_tao_flag.png</t>
+  </si>
+  <si>
+    <t>jean_flag.png</t>
+  </si>
+  <si>
+    <t>kaedehara_kazuha_flag.png</t>
+  </si>
+  <si>
+    <t>kaeya_flag.png</t>
+  </si>
+  <si>
+    <t>kamisato_ayaka_flag.png</t>
+  </si>
+  <si>
+    <t>keqing_flag.png</t>
+  </si>
+  <si>
+    <t>klee_flag.png</t>
+  </si>
+  <si>
+    <t>kujou_sara_flag.png</t>
+  </si>
+  <si>
+    <t>lisa_flag.png</t>
+  </si>
+  <si>
+    <t>mona_flag.png</t>
+  </si>
+  <si>
+    <t>ningguang_flag.png</t>
+  </si>
+  <si>
+    <t>noelle_flag.png</t>
+  </si>
+  <si>
+    <t>qiqi_flag.png</t>
+  </si>
+  <si>
+    <t>raiden_shogun_flag.png</t>
+  </si>
+  <si>
+    <t>razor_flag.png</t>
+  </si>
+  <si>
+    <t>rosaria_flag.png</t>
+  </si>
+  <si>
+    <t>sangonomiya_kokomi_flag.png</t>
+  </si>
+  <si>
+    <t>sayu_flag.png</t>
+  </si>
+  <si>
+    <t>sucrose_flag.png</t>
+  </si>
+  <si>
+    <t>tartaglia_flag.png</t>
+  </si>
+  <si>
+    <t>venti_flag.png</t>
+  </si>
+  <si>
+    <t>xiangling_flag.png</t>
+  </si>
+  <si>
+    <t>xiao_flag.png</t>
+  </si>
+  <si>
+    <t>xingqiu_flag.png</t>
+  </si>
+  <si>
+    <t>xinyan_flag.png</t>
+  </si>
+  <si>
+    <t>yanfei_flag.png</t>
+  </si>
+  <si>
+    <t>yoimiya_flag.png</t>
+  </si>
+  <si>
+    <t>zhongli_flag.png</t>
+  </si>
+  <si>
+    <t>Char_IMG00.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Char_IMG01.png</t>
+  </si>
+  <si>
+    <t>Char_IMG02.png</t>
+  </si>
+  <si>
+    <t>Char_IMG03.png</t>
+  </si>
+  <si>
+    <t>Char_IMG04.png</t>
+  </si>
+  <si>
+    <t>Char_IMG05.png</t>
+  </si>
+  <si>
+    <t>Char_IMG06.png</t>
+  </si>
+  <si>
+    <t>Char_IMG07.png</t>
+  </si>
+  <si>
+    <t>Char_IMG08.png</t>
+  </si>
+  <si>
+    <t>Char_IMG09.png</t>
+  </si>
+  <si>
+    <t>Char_IMG10.png</t>
+  </si>
+  <si>
+    <t>Char_IMG11.png</t>
+  </si>
+  <si>
+    <t>Char_IMG12.png</t>
+  </si>
+  <si>
+    <t>Char_IMG13.png</t>
+  </si>
+  <si>
+    <t>Char_IMG14.png</t>
+  </si>
+  <si>
+    <t>Char_IMG15.png</t>
+  </si>
+  <si>
+    <t>Char_IMG16.png</t>
+  </si>
+  <si>
+    <t>Char_IMG17.png</t>
+  </si>
+  <si>
+    <t>Char_IMG18.png</t>
+  </si>
+  <si>
+    <t>Char_IMG19.png</t>
+  </si>
+  <si>
+    <t>Char_IMG20.png</t>
+  </si>
+  <si>
+    <t>Char_IMG21.png</t>
+  </si>
+  <si>
+    <t>Char_IMG22.png</t>
+  </si>
+  <si>
+    <t>Char_IMG23.png</t>
+  </si>
+  <si>
+    <t>Char_IMG24.png</t>
+  </si>
+  <si>
+    <t>Char_IMG25.png</t>
+  </si>
+  <si>
+    <t>Char_IMG26.png</t>
+  </si>
+  <si>
+    <t>Char_IMG27.png</t>
+  </si>
+  <si>
+    <t>Char_IMG28.png</t>
+  </si>
+  <si>
+    <t>Char_IMG29.png</t>
+  </si>
+  <si>
+    <t>Char_IMG30.png</t>
+  </si>
+  <si>
+    <t>Char_IMG31.png</t>
+  </si>
+  <si>
+    <t>Char_IMG32.png</t>
+  </si>
+  <si>
+    <t>Char_IMG33.png</t>
+  </si>
+  <si>
+    <t>Char_IMG34.png</t>
+  </si>
+  <si>
+    <t>Char_IMG35.png</t>
+  </si>
+  <si>
+    <t>Char_IMG36.png</t>
+  </si>
+  <si>
+    <t>Char_IMG37.png</t>
+  </si>
+  <si>
+    <t>Char_IMG38.png</t>
   </si>
 </sst>
 </file>
@@ -8173,8 +8420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C5A84A-5C7F-451F-A1D8-4D9A74023F1A}">
   <dimension ref="A1:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:I152"/>
+    <sheetView topLeftCell="B131" workbookViewId="0">
+      <selection activeCell="K115" sqref="K115:O152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11900,7 +12147,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:18">
       <c r="A115" t="s">
         <v>430</v>
       </c>
@@ -11920,8 +12167,27 @@
       <c r="H115" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="K115" t="s">
+        <v>430</v>
+      </c>
+      <c r="L115" t="s">
+        <v>181</v>
+      </c>
+      <c r="M115" t="s">
+        <v>509</v>
+      </c>
+      <c r="N115" t="str">
+        <f>LOWER(R115)</f>
+        <v>albedo</v>
+      </c>
+      <c r="O115" t="s">
+        <v>510</v>
+      </c>
+      <c r="R115" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" t="s">
         <v>430</v>
       </c>
@@ -11941,8 +12207,27 @@
       <c r="H116" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="K116" t="s">
+        <v>430</v>
+      </c>
+      <c r="L116" t="s">
+        <v>207</v>
+      </c>
+      <c r="M116" t="s">
+        <v>509</v>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" ref="N116:N152" si="12">LOWER(R116)</f>
+        <v>amber</v>
+      </c>
+      <c r="O116" t="s">
+        <v>510</v>
+      </c>
+      <c r="R116" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" t="s">
         <v>430</v>
       </c>
@@ -11962,8 +12247,27 @@
       <c r="H117" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="K117" t="s">
+        <v>430</v>
+      </c>
+      <c r="L117" t="s">
+        <v>206</v>
+      </c>
+      <c r="M117" t="s">
+        <v>509</v>
+      </c>
+      <c r="N117" t="str">
+        <f t="shared" si="12"/>
+        <v>barbara</v>
+      </c>
+      <c r="O117" t="s">
+        <v>510</v>
+      </c>
+      <c r="R117" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" t="s">
         <v>430</v>
       </c>
@@ -11983,8 +12287,27 @@
       <c r="H118" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="K118" t="s">
+        <v>430</v>
+      </c>
+      <c r="L118" t="s">
+        <v>205</v>
+      </c>
+      <c r="M118" t="s">
+        <v>509</v>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="12"/>
+        <v>beidou</v>
+      </c>
+      <c r="O118" t="s">
+        <v>510</v>
+      </c>
+      <c r="R118" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" t="s">
         <v>430</v>
       </c>
@@ -12004,8 +12327,27 @@
       <c r="H119" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="K119" t="s">
+        <v>430</v>
+      </c>
+      <c r="L119" t="s">
+        <v>204</v>
+      </c>
+      <c r="M119" t="s">
+        <v>509</v>
+      </c>
+      <c r="N119" t="str">
+        <f t="shared" si="12"/>
+        <v>bennett</v>
+      </c>
+      <c r="O119" t="s">
+        <v>510</v>
+      </c>
+      <c r="R119" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" t="s">
         <v>430</v>
       </c>
@@ -12025,8 +12367,27 @@
       <c r="H120" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="K120" t="s">
+        <v>430</v>
+      </c>
+      <c r="L120" t="s">
+        <v>203</v>
+      </c>
+      <c r="M120" t="s">
+        <v>509</v>
+      </c>
+      <c r="N120" t="str">
+        <f t="shared" si="12"/>
+        <v>chongyun</v>
+      </c>
+      <c r="O120" t="s">
+        <v>510</v>
+      </c>
+      <c r="R120" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" t="s">
         <v>430</v>
       </c>
@@ -12046,8 +12407,27 @@
       <c r="H121" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="K121" t="s">
+        <v>430</v>
+      </c>
+      <c r="L121" t="s">
+        <v>202</v>
+      </c>
+      <c r="M121" t="s">
+        <v>509</v>
+      </c>
+      <c r="N121" t="str">
+        <f t="shared" si="12"/>
+        <v>diluc</v>
+      </c>
+      <c r="O121" t="s">
+        <v>510</v>
+      </c>
+      <c r="R121" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" t="s">
         <v>430</v>
       </c>
@@ -12067,8 +12447,27 @@
       <c r="H122" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="K122" t="s">
+        <v>430</v>
+      </c>
+      <c r="L122" t="s">
+        <v>185</v>
+      </c>
+      <c r="M122" t="s">
+        <v>509</v>
+      </c>
+      <c r="N122" t="str">
+        <f t="shared" si="12"/>
+        <v>diona</v>
+      </c>
+      <c r="O122" t="s">
+        <v>510</v>
+      </c>
+      <c r="R122" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" t="s">
         <v>430</v>
       </c>
@@ -12088,8 +12487,27 @@
       <c r="H123" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="K123" t="s">
+        <v>430</v>
+      </c>
+      <c r="L123" t="s">
+        <v>201</v>
+      </c>
+      <c r="M123" t="s">
+        <v>509</v>
+      </c>
+      <c r="N123" t="str">
+        <f t="shared" si="12"/>
+        <v>fischl</v>
+      </c>
+      <c r="O123" t="s">
+        <v>510</v>
+      </c>
+      <c r="R123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
       <c r="A124" t="s">
         <v>430</v>
       </c>
@@ -12109,8 +12527,27 @@
       <c r="H124" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="K124" t="s">
+        <v>430</v>
+      </c>
+      <c r="L124" t="s">
+        <v>180</v>
+      </c>
+      <c r="M124" t="s">
+        <v>509</v>
+      </c>
+      <c r="N124" t="str">
+        <f t="shared" si="12"/>
+        <v>ganyu</v>
+      </c>
+      <c r="O124" t="s">
+        <v>510</v>
+      </c>
+      <c r="R124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
       <c r="A125" t="s">
         <v>430</v>
       </c>
@@ -12130,8 +12567,27 @@
       <c r="H125" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="K125" t="s">
+        <v>430</v>
+      </c>
+      <c r="L125" t="s">
+        <v>213</v>
+      </c>
+      <c r="M125" t="s">
+        <v>509</v>
+      </c>
+      <c r="N125" t="str">
+        <f t="shared" si="12"/>
+        <v>hu_tao</v>
+      </c>
+      <c r="O125" t="s">
+        <v>510</v>
+      </c>
+      <c r="R125" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
       <c r="A126" t="s">
         <v>430</v>
       </c>
@@ -12151,8 +12607,27 @@
       <c r="H126" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="K126" t="s">
+        <v>430</v>
+      </c>
+      <c r="L126" t="s">
+        <v>200</v>
+      </c>
+      <c r="M126" t="s">
+        <v>509</v>
+      </c>
+      <c r="N126" t="str">
+        <f t="shared" si="12"/>
+        <v>jean</v>
+      </c>
+      <c r="O126" t="s">
+        <v>510</v>
+      </c>
+      <c r="R126" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
       <c r="A127" t="s">
         <v>430</v>
       </c>
@@ -12172,8 +12647,27 @@
       <c r="H127" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="K127" t="s">
+        <v>430</v>
+      </c>
+      <c r="L127" t="s">
+        <v>212</v>
+      </c>
+      <c r="M127" t="s">
+        <v>509</v>
+      </c>
+      <c r="N127" t="str">
+        <f t="shared" si="12"/>
+        <v>kaedehara_kazuha</v>
+      </c>
+      <c r="O127" t="s">
+        <v>510</v>
+      </c>
+      <c r="R127" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
       <c r="A128" t="s">
         <v>430</v>
       </c>
@@ -12193,8 +12687,27 @@
       <c r="H128" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="K128" t="s">
+        <v>430</v>
+      </c>
+      <c r="L128" t="s">
+        <v>199</v>
+      </c>
+      <c r="M128" t="s">
+        <v>509</v>
+      </c>
+      <c r="N128" t="str">
+        <f t="shared" si="12"/>
+        <v>kaeya</v>
+      </c>
+      <c r="O128" t="s">
+        <v>510</v>
+      </c>
+      <c r="R128" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
       <c r="A129" t="s">
         <v>430</v>
       </c>
@@ -12214,8 +12727,27 @@
       <c r="H129" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="K129" t="s">
+        <v>430</v>
+      </c>
+      <c r="L129" t="s">
+        <v>211</v>
+      </c>
+      <c r="M129" t="s">
+        <v>509</v>
+      </c>
+      <c r="N129" t="str">
+        <f t="shared" si="12"/>
+        <v>kamisato_ayaka</v>
+      </c>
+      <c r="O129" t="s">
+        <v>510</v>
+      </c>
+      <c r="R129" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" t="s">
         <v>430</v>
       </c>
@@ -12235,8 +12767,27 @@
       <c r="H130" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="K130" t="s">
+        <v>430</v>
+      </c>
+      <c r="L130" t="s">
+        <v>198</v>
+      </c>
+      <c r="M130" t="s">
+        <v>509</v>
+      </c>
+      <c r="N130" t="str">
+        <f t="shared" si="12"/>
+        <v>keqing</v>
+      </c>
+      <c r="O130" t="s">
+        <v>510</v>
+      </c>
+      <c r="R130" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -12256,8 +12807,27 @@
       <c r="H131" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="K131" t="s">
+        <v>430</v>
+      </c>
+      <c r="L131" t="s">
+        <v>197</v>
+      </c>
+      <c r="M131" t="s">
+        <v>509</v>
+      </c>
+      <c r="N131" t="str">
+        <f t="shared" si="12"/>
+        <v>klee</v>
+      </c>
+      <c r="O131" t="s">
+        <v>510</v>
+      </c>
+      <c r="R131" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" t="s">
         <v>430</v>
       </c>
@@ -12277,8 +12847,27 @@
       <c r="H132" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="K132" t="s">
+        <v>430</v>
+      </c>
+      <c r="L132" t="s">
+        <v>208</v>
+      </c>
+      <c r="M132" t="s">
+        <v>509</v>
+      </c>
+      <c r="N132" t="str">
+        <f t="shared" si="12"/>
+        <v>kujou_sara</v>
+      </c>
+      <c r="O132" t="s">
+        <v>510</v>
+      </c>
+      <c r="R132" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" t="s">
         <v>430</v>
       </c>
@@ -12298,8 +12887,27 @@
       <c r="H133" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="K133" t="s">
+        <v>430</v>
+      </c>
+      <c r="L133" t="s">
+        <v>196</v>
+      </c>
+      <c r="M133" t="s">
+        <v>509</v>
+      </c>
+      <c r="N133" t="str">
+        <f t="shared" si="12"/>
+        <v>lisa</v>
+      </c>
+      <c r="O133" t="s">
+        <v>510</v>
+      </c>
+      <c r="R133" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" t="s">
         <v>430</v>
       </c>
@@ -12319,8 +12927,27 @@
       <c r="H134" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="K134" t="s">
+        <v>430</v>
+      </c>
+      <c r="L134" t="s">
+        <v>195</v>
+      </c>
+      <c r="M134" t="s">
+        <v>509</v>
+      </c>
+      <c r="N134" t="str">
+        <f t="shared" si="12"/>
+        <v>mona</v>
+      </c>
+      <c r="O134" t="s">
+        <v>510</v>
+      </c>
+      <c r="R134" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" t="s">
         <v>430</v>
       </c>
@@ -12340,8 +12967,27 @@
       <c r="H135" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="K135" t="s">
+        <v>430</v>
+      </c>
+      <c r="L135" t="s">
+        <v>194</v>
+      </c>
+      <c r="M135" t="s">
+        <v>509</v>
+      </c>
+      <c r="N135" t="str">
+        <f t="shared" si="12"/>
+        <v>ningguang</v>
+      </c>
+      <c r="O135" t="s">
+        <v>510</v>
+      </c>
+      <c r="R135" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" t="s">
         <v>430</v>
       </c>
@@ -12361,8 +13007,27 @@
       <c r="H136" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="K136" t="s">
+        <v>430</v>
+      </c>
+      <c r="L136" t="s">
+        <v>193</v>
+      </c>
+      <c r="M136" t="s">
+        <v>509</v>
+      </c>
+      <c r="N136" t="str">
+        <f t="shared" si="12"/>
+        <v>noelle</v>
+      </c>
+      <c r="O136" t="s">
+        <v>510</v>
+      </c>
+      <c r="R136" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" t="s">
         <v>430</v>
       </c>
@@ -12382,8 +13047,27 @@
       <c r="H137" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="K137" t="s">
+        <v>430</v>
+      </c>
+      <c r="L137" t="s">
+        <v>192</v>
+      </c>
+      <c r="M137" t="s">
+        <v>509</v>
+      </c>
+      <c r="N137" t="str">
+        <f t="shared" si="12"/>
+        <v>qiqi</v>
+      </c>
+      <c r="O137" t="s">
+        <v>510</v>
+      </c>
+      <c r="R137" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" t="s">
         <v>430</v>
       </c>
@@ -12403,8 +13087,27 @@
       <c r="H138" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="K138" t="s">
+        <v>430</v>
+      </c>
+      <c r="L138" t="s">
+        <v>508</v>
+      </c>
+      <c r="M138" t="s">
+        <v>509</v>
+      </c>
+      <c r="N138" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">raiden_shogun </v>
+      </c>
+      <c r="O138" t="s">
+        <v>510</v>
+      </c>
+      <c r="R138" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" t="s">
         <v>430</v>
       </c>
@@ -12424,8 +13127,27 @@
       <c r="H139" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="K139" t="s">
+        <v>430</v>
+      </c>
+      <c r="L139" t="s">
+        <v>191</v>
+      </c>
+      <c r="M139" t="s">
+        <v>509</v>
+      </c>
+      <c r="N139" t="str">
+        <f t="shared" si="12"/>
+        <v>razor</v>
+      </c>
+      <c r="O139" t="s">
+        <v>510</v>
+      </c>
+      <c r="R139" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" t="s">
         <v>430</v>
       </c>
@@ -12445,8 +13167,27 @@
       <c r="H140" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="K140" t="s">
+        <v>430</v>
+      </c>
+      <c r="L140" t="s">
+        <v>178</v>
+      </c>
+      <c r="M140" t="s">
+        <v>509</v>
+      </c>
+      <c r="N140" t="str">
+        <f t="shared" si="12"/>
+        <v>rosaria</v>
+      </c>
+      <c r="O140" t="s">
+        <v>510</v>
+      </c>
+      <c r="R140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" t="s">
         <v>430</v>
       </c>
@@ -12466,8 +13207,27 @@
       <c r="H141" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="K141" t="s">
+        <v>430</v>
+      </c>
+      <c r="L141" t="s">
+        <v>209</v>
+      </c>
+      <c r="M141" t="s">
+        <v>509</v>
+      </c>
+      <c r="N141" t="str">
+        <f t="shared" si="12"/>
+        <v>sangonomiya_kokomi</v>
+      </c>
+      <c r="O141" t="s">
+        <v>510</v>
+      </c>
+      <c r="R141" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" t="s">
         <v>430</v>
       </c>
@@ -12487,8 +13247,27 @@
       <c r="H142" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="K142" t="s">
+        <v>430</v>
+      </c>
+      <c r="L142" t="s">
+        <v>174</v>
+      </c>
+      <c r="M142" t="s">
+        <v>509</v>
+      </c>
+      <c r="N142" t="str">
+        <f t="shared" si="12"/>
+        <v>sayu</v>
+      </c>
+      <c r="O142" t="s">
+        <v>510</v>
+      </c>
+      <c r="R142" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" t="s">
         <v>430</v>
       </c>
@@ -12508,8 +13287,27 @@
       <c r="H143" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="K143" t="s">
+        <v>430</v>
+      </c>
+      <c r="L143" t="s">
+        <v>190</v>
+      </c>
+      <c r="M143" t="s">
+        <v>509</v>
+      </c>
+      <c r="N143" t="str">
+        <f t="shared" si="12"/>
+        <v>sucrose</v>
+      </c>
+      <c r="O143" t="s">
+        <v>510</v>
+      </c>
+      <c r="R143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" t="s">
         <v>430</v>
       </c>
@@ -12529,8 +13327,27 @@
       <c r="H144" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="K144" t="s">
+        <v>430</v>
+      </c>
+      <c r="L144" t="s">
+        <v>184</v>
+      </c>
+      <c r="M144" t="s">
+        <v>509</v>
+      </c>
+      <c r="N144" t="str">
+        <f t="shared" si="12"/>
+        <v>tartaglia</v>
+      </c>
+      <c r="O144" t="s">
+        <v>510</v>
+      </c>
+      <c r="R144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" t="s">
         <v>430</v>
       </c>
@@ -12550,8 +13367,27 @@
       <c r="H145" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="K145" t="s">
+        <v>430</v>
+      </c>
+      <c r="L145" t="s">
+        <v>188</v>
+      </c>
+      <c r="M145" t="s">
+        <v>509</v>
+      </c>
+      <c r="N145" t="str">
+        <f t="shared" si="12"/>
+        <v>venti</v>
+      </c>
+      <c r="O145" t="s">
+        <v>510</v>
+      </c>
+      <c r="R145" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" t="s">
         <v>430</v>
       </c>
@@ -12571,8 +13407,27 @@
       <c r="H146" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="K146" t="s">
+        <v>430</v>
+      </c>
+      <c r="L146" t="s">
+        <v>187</v>
+      </c>
+      <c r="M146" t="s">
+        <v>509</v>
+      </c>
+      <c r="N146" t="str">
+        <f t="shared" si="12"/>
+        <v>xiangling</v>
+      </c>
+      <c r="O146" t="s">
+        <v>510</v>
+      </c>
+      <c r="R146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" t="s">
         <v>430</v>
       </c>
@@ -12592,8 +13447,27 @@
       <c r="H147" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="K147" t="s">
+        <v>430</v>
+      </c>
+      <c r="L147" t="s">
+        <v>179</v>
+      </c>
+      <c r="M147" t="s">
+        <v>509</v>
+      </c>
+      <c r="N147" t="str">
+        <f t="shared" si="12"/>
+        <v>xiao</v>
+      </c>
+      <c r="O147" t="s">
+        <v>510</v>
+      </c>
+      <c r="R147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" t="s">
         <v>430</v>
       </c>
@@ -12613,8 +13487,27 @@
       <c r="H148" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="K148" t="s">
+        <v>430</v>
+      </c>
+      <c r="L148" t="s">
+        <v>186</v>
+      </c>
+      <c r="M148" t="s">
+        <v>509</v>
+      </c>
+      <c r="N148" t="str">
+        <f t="shared" si="12"/>
+        <v>xingqiu</v>
+      </c>
+      <c r="O148" t="s">
+        <v>510</v>
+      </c>
+      <c r="R148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" t="s">
         <v>430</v>
       </c>
@@ -12634,8 +13527,27 @@
       <c r="H149" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="K149" t="s">
+        <v>430</v>
+      </c>
+      <c r="L149" t="s">
+        <v>183</v>
+      </c>
+      <c r="M149" t="s">
+        <v>509</v>
+      </c>
+      <c r="N149" t="str">
+        <f t="shared" si="12"/>
+        <v>xinyan</v>
+      </c>
+      <c r="O149" t="s">
+        <v>510</v>
+      </c>
+      <c r="R149" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" t="s">
         <v>430</v>
       </c>
@@ -12655,8 +13567,27 @@
       <c r="H150" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="K150" t="s">
+        <v>430</v>
+      </c>
+      <c r="L150" t="s">
+        <v>176</v>
+      </c>
+      <c r="M150" t="s">
+        <v>509</v>
+      </c>
+      <c r="N150" t="str">
+        <f t="shared" si="12"/>
+        <v>yanfei</v>
+      </c>
+      <c r="O150" t="s">
+        <v>510</v>
+      </c>
+      <c r="R150" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" t="s">
         <v>430</v>
       </c>
@@ -12676,8 +13607,27 @@
       <c r="H151" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="K151" t="s">
+        <v>430</v>
+      </c>
+      <c r="L151" t="s">
+        <v>175</v>
+      </c>
+      <c r="M151" t="s">
+        <v>509</v>
+      </c>
+      <c r="N151" t="str">
+        <f t="shared" si="12"/>
+        <v>yoimiya</v>
+      </c>
+      <c r="O151" t="s">
+        <v>510</v>
+      </c>
+      <c r="R151" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" t="s">
         <v>430</v>
       </c>
@@ -12696,6 +13646,25 @@
       </c>
       <c r="H152" t="s">
         <v>507</v>
+      </c>
+      <c r="K152" t="s">
+        <v>430</v>
+      </c>
+      <c r="L152" t="s">
+        <v>182</v>
+      </c>
+      <c r="M152" t="s">
+        <v>509</v>
+      </c>
+      <c r="N152" t="str">
+        <f t="shared" si="12"/>
+        <v>zhongli</v>
+      </c>
+      <c r="O152" t="s">
+        <v>510</v>
+      </c>
+      <c r="R152" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -12706,6 +13675,688 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F09172-611D-4E12-A778-D2B0C0BA0748}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="A1:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" t="s">
+        <v>515</v>
+      </c>
+      <c r="E5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" t="s">
+        <v>556</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D9" t="s">
+        <v>519</v>
+      </c>
+      <c r="E9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C10" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" t="s">
+        <v>520</v>
+      </c>
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C11" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" t="s">
+        <v>522</v>
+      </c>
+      <c r="E12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" t="s">
+        <v>562</v>
+      </c>
+      <c r="C13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D13" t="s">
+        <v>523</v>
+      </c>
+      <c r="E13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" t="s">
+        <v>563</v>
+      </c>
+      <c r="C14" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16" t="s">
+        <v>526</v>
+      </c>
+      <c r="E16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" t="s">
+        <v>566</v>
+      </c>
+      <c r="C17" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" t="s">
+        <v>527</v>
+      </c>
+      <c r="E17" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" t="s">
+        <v>567</v>
+      </c>
+      <c r="C18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D18" t="s">
+        <v>528</v>
+      </c>
+      <c r="E18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B19" t="s">
+        <v>568</v>
+      </c>
+      <c r="C19" t="s">
+        <v>432</v>
+      </c>
+      <c r="D19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C20" t="s">
+        <v>432</v>
+      </c>
+      <c r="D20" t="s">
+        <v>531</v>
+      </c>
+      <c r="E20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>430</v>
+      </c>
+      <c r="B21" t="s">
+        <v>570</v>
+      </c>
+      <c r="C21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" t="s">
+        <v>532</v>
+      </c>
+      <c r="E21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" t="s">
+        <v>571</v>
+      </c>
+      <c r="C22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D22" t="s">
+        <v>533</v>
+      </c>
+      <c r="E22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" t="s">
+        <v>572</v>
+      </c>
+      <c r="C23" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" t="s">
+        <v>534</v>
+      </c>
+      <c r="E23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" t="s">
+        <v>573</v>
+      </c>
+      <c r="C24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D25" t="s">
+        <v>536</v>
+      </c>
+      <c r="E25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" t="s">
+        <v>575</v>
+      </c>
+      <c r="C26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" t="s">
+        <v>537</v>
+      </c>
+      <c r="E26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C27" t="s">
+        <v>432</v>
+      </c>
+      <c r="D27" t="s">
+        <v>539</v>
+      </c>
+      <c r="E27" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" t="s">
+        <v>577</v>
+      </c>
+      <c r="C28" t="s">
+        <v>432</v>
+      </c>
+      <c r="D28" t="s">
+        <v>540</v>
+      </c>
+      <c r="E28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" t="s">
+        <v>578</v>
+      </c>
+      <c r="C29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" t="s">
+        <v>541</v>
+      </c>
+      <c r="E29" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" t="s">
+        <v>579</v>
+      </c>
+      <c r="C30" t="s">
+        <v>432</v>
+      </c>
+      <c r="D30" t="s">
+        <v>542</v>
+      </c>
+      <c r="E30" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>430</v>
+      </c>
+      <c r="B31" t="s">
+        <v>580</v>
+      </c>
+      <c r="C31" t="s">
+        <v>432</v>
+      </c>
+      <c r="D31" t="s">
+        <v>543</v>
+      </c>
+      <c r="E31" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>430</v>
+      </c>
+      <c r="B32" t="s">
+        <v>581</v>
+      </c>
+      <c r="C32" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32" t="s">
+        <v>544</v>
+      </c>
+      <c r="E32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>430</v>
+      </c>
+      <c r="B33" t="s">
+        <v>582</v>
+      </c>
+      <c r="C33" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" t="s">
+        <v>545</v>
+      </c>
+      <c r="E33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>430</v>
+      </c>
+      <c r="B34" t="s">
+        <v>583</v>
+      </c>
+      <c r="C34" t="s">
+        <v>432</v>
+      </c>
+      <c r="D34" t="s">
+        <v>546</v>
+      </c>
+      <c r="E34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" t="s">
+        <v>584</v>
+      </c>
+      <c r="C35" t="s">
+        <v>432</v>
+      </c>
+      <c r="D35" t="s">
+        <v>547</v>
+      </c>
+      <c r="E35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B36" t="s">
+        <v>585</v>
+      </c>
+      <c r="C36" t="s">
+        <v>432</v>
+      </c>
+      <c r="D36" t="s">
+        <v>548</v>
+      </c>
+      <c r="E36" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" t="s">
+        <v>586</v>
+      </c>
+      <c r="C37" t="s">
+        <v>432</v>
+      </c>
+      <c r="D37" t="s">
+        <v>549</v>
+      </c>
+      <c r="E37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>430</v>
+      </c>
+      <c r="B38" t="s">
+        <v>587</v>
+      </c>
+      <c r="C38" t="s">
+        <v>432</v>
+      </c>
+      <c r="D38" t="s">
+        <v>529</v>
+      </c>
+      <c r="E38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>430</v>
+      </c>
+      <c r="B39" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" t="s">
+        <v>432</v>
+      </c>
+      <c r="D39" t="s">
+        <v>538</v>
+      </c>
+      <c r="E39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D32F9-5FE0-4AC9-9E77-8D8F66934FC1}">
   <dimension ref="A1:J31"/>
   <sheetViews>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vocaloid2048\Desktop\File\App\GenshinHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A3FBE9-9490-4AB3-808F-C2C55598DE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0684DBFA-D586-40E3-902F-ADBD1581DE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
   </bookViews>
@@ -20,6 +20,10 @@
     <sheet name="klee_CharStatus" sheetId="4" r:id="rId5"/>
     <sheet name="CharEXP" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CharEXP!$T$51:$T$86</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">CharEXP!$T$135:$T$150</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4564" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6044" uniqueCount="1191">
   <si>
     <t>"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3818,12 +3822,813 @@
     <t>","t_boss" : "</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">int </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** Boss ASC*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** LOCAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 0 ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = new ArrayList&lt;Integer&gt;();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayList&lt;Integer&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由_的哲學</t>
+  </si>
+  <si>
+    <t>黃金_的哲學</t>
+  </si>
+  <si>
+    <t>抗爭_的哲學</t>
+  </si>
+  <si>
+    <t>勤勞_的哲學</t>
+  </si>
+  <si>
+    <t>詩文_的哲學</t>
+  </si>
+  <si>
+    <t>繁榮_的哲學</t>
+  </si>
+  <si>
+    <t>風雅_的哲學</t>
+  </si>
+  <si>
+    <t>浮世_的哲學</t>
+  </si>
+  <si>
+    <t>天光_的哲學</t>
+  </si>
+  <si>
+    <t>歷戰的箭簇</t>
+  </si>
+  <si>
+    <t>歷戰的箭簇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.add(0);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃願瑪瑙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,temp_count,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>")){addCountIntoVar(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>);}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CRYSTAL"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(temp_item.get(1).equals("</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(temp_item.get(4).equals("</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"COMMON"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"T-BOOK"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「自由」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BOSS"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎏金之鱗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.out.println("</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> "+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"){return R.drawable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>everflame_seed</t>
+  </si>
+  <si>
+    <t>cleansing_heart</t>
+  </si>
+  <si>
+    <t>lightning_prism</t>
+  </si>
+  <si>
+    <t>hoarfrost_core</t>
+  </si>
+  <si>
+    <t>hurricane_seed</t>
+  </si>
+  <si>
+    <t>basalt_pillar</t>
+  </si>
+  <si>
+    <t>juvenile_jade</t>
+  </si>
+  <si>
+    <t>crystalline_bloom</t>
+  </si>
+  <si>
+    <t>maguu_kishin</t>
+  </si>
+  <si>
+    <t>perpetual_heart</t>
+  </si>
+  <si>
+    <t>smoldering_pearl</t>
+  </si>
+  <si>
+    <t>small_lamp_grass</t>
+  </si>
+  <si>
+    <t>philanemo_mushroom</t>
+  </si>
+  <si>
+    <t>noctilous_jade</t>
+  </si>
+  <si>
+    <t>windwheel_aster</t>
+  </si>
+  <si>
+    <t>cor_lapis</t>
+  </si>
+  <si>
+    <t>dandelion_seed</t>
+  </si>
+  <si>
+    <t>calla_lily</t>
+  </si>
+  <si>
+    <t>valberry</t>
+  </si>
+  <si>
+    <t>violetgrass</t>
+  </si>
+  <si>
+    <t>glaze_lily</t>
+  </si>
+  <si>
+    <t>silk_flower</t>
+  </si>
+  <si>
+    <t>jueyun_chili</t>
+  </si>
+  <si>
+    <t>cecilia</t>
+  </si>
+  <si>
+    <t>wolfhook</t>
+  </si>
+  <si>
+    <t>starconch</t>
+  </si>
+  <si>
+    <t>qingxin</t>
+  </si>
+  <si>
+    <t>sea_ganoderma</t>
+  </si>
+  <si>
+    <t>sakura_bloom</t>
+  </si>
+  <si>
+    <t>naku_weed</t>
+  </si>
+  <si>
+    <t>crystal_marrow</t>
+  </si>
+  <si>
+    <t>北風之環</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ring_of_boreas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvalins_sigh</t>
+  </si>
+  <si>
+    <t>東風之翎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dvalins_plume</t>
+  </si>
+  <si>
+    <t>spirit_locket_of_boreas</t>
+  </si>
+  <si>
+    <t>dvalins_claw</t>
+  </si>
+  <si>
+    <t>tail_of_boreas</t>
+  </si>
+  <si>
+    <t>shard_of_foul_legacy</t>
+  </si>
+  <si>
+    <t>shadow_of_the_warrior</t>
+  </si>
+  <si>
+    <t>tusk_of_monoceros_caeli</t>
+  </si>
+  <si>
+    <t>gilded_scale</t>
+  </si>
+  <si>
+    <t>dragon_lords_crown</t>
+  </si>
+  <si>
+    <t>bloodjade_branch</t>
+  </si>
+  <si>
+    <t>;}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>")){return R.drawable.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尋寶鴉印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牢固的箭簇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>銳利的箭簇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁咒繪卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>導能繪卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封魔繪卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攫金鴉印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏銀鴉印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不祥的面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破損的面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>污穢的面具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尉官的徽記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新兵的徽記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士官的徽記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原素花蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微光花蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>騙騙花蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史萊姆原漿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史萊姆凝液</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史萊姆清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名刀鐔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影打刀鐔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破舊的刀鐔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由_的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「風雅」的教導</t>
+  </si>
+  <si>
+    <t>「浮世」的教導</t>
+  </si>
+  <si>
+    <t>「天光」的教導</t>
+  </si>
+  <si>
+    <t>「自由」的指引</t>
+  </si>
+  <si>
+    <t>「黃金」的指引</t>
+  </si>
+  <si>
+    <t>「抗爭」的指引</t>
+  </si>
+  <si>
+    <t>「勤勞」的指引</t>
+  </si>
+  <si>
+    <t>「詩文」的指引</t>
+  </si>
+  <si>
+    <t>「繁榮」的指引</t>
+  </si>
+  <si>
+    <t>「風雅」的指引</t>
+  </si>
+  <si>
+    <t>「浮世」的指引</t>
+  </si>
+  <si>
+    <t>「天光」的指引</t>
+  </si>
+  <si>
+    <t>firm_arrowhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharp_arrowhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weathered_arrowhead</t>
+  </si>
+  <si>
+    <t>divining_scroll</t>
+  </si>
+  <si>
+    <t>sealed_scroll</t>
+  </si>
+  <si>
+    <t>forbidden_curse_scroll</t>
+  </si>
+  <si>
+    <t>treasure_hoarder_insignia</t>
+  </si>
+  <si>
+    <t>silver_raven_insignia</t>
+  </si>
+  <si>
+    <t>golden_raven_insignia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damaged_mask</t>
+  </si>
+  <si>
+    <t>stained_mask</t>
+  </si>
+  <si>
+    <t>ominous_mask</t>
+  </si>
+  <si>
+    <t>recruits_insignia</t>
+  </si>
+  <si>
+    <t>sergeants_insignia</t>
+  </si>
+  <si>
+    <t>lieutenants_insignia</t>
+  </si>
+  <si>
+    <t>whopperflower_nectar</t>
+  </si>
+  <si>
+    <t>shimmering_nectar</t>
+  </si>
+  <si>
+    <t>energy_nectar</t>
+  </si>
+  <si>
+    <t>slime_condensate</t>
+  </si>
+  <si>
+    <t>slime_secretions</t>
+  </si>
+  <si>
+    <t>slime_concentrate</t>
+  </si>
+  <si>
+    <t>old_handguard</t>
+  </si>
+  <si>
+    <t>kageuchi_handguard</t>
+  </si>
+  <si>
+    <t>famed_handguard</t>
+  </si>
+  <si>
+    <t>teaching_of_ballad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching_of_prosperity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guide_of_freedom</t>
+  </si>
+  <si>
+    <t>guide_of_gold</t>
+  </si>
+  <si>
+    <t>guide_of_resistance</t>
+  </si>
+  <si>
+    <t>guide_of_prosperity</t>
+  </si>
+  <si>
+    <t>guide_of_ballad</t>
+  </si>
+  <si>
+    <t>guide_of_diligence</t>
+  </si>
+  <si>
+    <t>guides_of_elegance</t>
+  </si>
+  <si>
+    <t>guides_of_transience</t>
+  </si>
+  <si>
+    <t>guides_of_light</t>
+  </si>
+  <si>
+    <t>philosophies_of_freedom</t>
+  </si>
+  <si>
+    <t>philosophies_of_gold</t>
+  </si>
+  <si>
+    <t>philosophies_of_resistance</t>
+  </si>
+  <si>
+    <t>philosophies_of_prosperity</t>
+  </si>
+  <si>
+    <t>philosophies_of_ballad</t>
+  </si>
+  <si>
+    <t>philosophies_of_diligence</t>
+  </si>
+  <si>
+    <t>philosophiess_of_elegance</t>
+  </si>
+  <si>
+    <t>philosophiess_of_transience</t>
+  </si>
+  <si>
+    <t>philosophiess_of_light</t>
+  </si>
+  <si>
+    <t>碎屑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斷片</t>
+  </si>
+  <si>
+    <t>塊</t>
+  </si>
+  <si>
+    <t>agnidus_agate_sliver</t>
+  </si>
+  <si>
+    <t>agnidus_agate_fragment</t>
+  </si>
+  <si>
+    <t>agnidus_agate_chunk</t>
+  </si>
+  <si>
+    <t>agnidus_agate_gemstone</t>
+  </si>
+  <si>
+    <t>vayuda_turquoise_sliver</t>
+  </si>
+  <si>
+    <t>vayuda_turquoise_gemstone</t>
+  </si>
+  <si>
+    <t>vayuda_turquoise_fragment</t>
+  </si>
+  <si>
+    <t>vayuda_turquoise_chunk</t>
+  </si>
+  <si>
+    <t>vajrada_amethyst_sliver</t>
+  </si>
+  <si>
+    <t>vajrada_amethyst_gemstone</t>
+  </si>
+  <si>
+    <t>vajrada_amethyst_fragment</t>
+  </si>
+  <si>
+    <t>vajrada_amethyst_chunk</t>
+  </si>
+  <si>
+    <t>shivada_jade_sliver</t>
+  </si>
+  <si>
+    <t>shivada_jade_fragment</t>
+  </si>
+  <si>
+    <t>shivada_jade_chunk</t>
+  </si>
+  <si>
+    <t>shivada_jade_gemstone</t>
+  </si>
+  <si>
+    <t>brilliant_diamond_chunk</t>
+  </si>
+  <si>
+    <t>brilliant_diamond_sliver</t>
+  </si>
+  <si>
+    <t>brilliant_diamond_fragment</t>
+  </si>
+  <si>
+    <t>brilliant_diamond_gemstone</t>
+  </si>
+  <si>
+    <t>nagadus_emerald_sliver</t>
+  </si>
+  <si>
+    <t>nagadus_emerald_fragment</t>
+  </si>
+  <si>
+    <t>nagadus_emerald_chunk</t>
+  </si>
+  <si>
+    <t>prithiva_topaz_sliver</t>
+  </si>
+  <si>
+    <t>prithiva_topaz_fragment</t>
+  </si>
+  <si>
+    <t>prithiva_topaz_chunk</t>
+  </si>
+  <si>
+    <t>prithiva_topaz_gemstone</t>
+  </si>
+  <si>
+    <r>
+      <t>燃願瑪瑙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>燃願瑪瑙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>燃願瑪瑙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>燃願瑪瑙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>.get(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>「抗爭」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「繁榮」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「勤勞」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「浮世」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「風雅」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「黃金」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「詩文」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「天光」的哲學</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3964,8 +4769,44 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF9876AA"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6897BB"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3996,8 +4837,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -4071,6 +4918,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4080,7 +4942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4193,6 +5055,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5293,7 +6173,6 @@
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BC3DCDF1-850C-4450-AFF2-19B7D92E1A07}" name="表格9" displayName="表格9" ref="L50:T86" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="L50:T86" xr:uid="{BC3DCDF1-850C-4450-AFF2-19B7D92E1A07}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L51:T86">
     <sortCondition ref="L50:L86"/>
   </sortState>
@@ -18858,10 +19737,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DDF792-EDA2-41C8-9FF9-80AF9A857C2E}">
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AK276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="K216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P228" sqref="P228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18870,13 +19749,15 @@
     <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.625" bestFit="1" customWidth="1"/>
@@ -22571,7 +23452,7 @@
         <v>922</v>
       </c>
       <c r="R51" s="37" t="s">
-        <v>923</v>
+        <v>1016</v>
       </c>
       <c r="S51" s="37" t="s">
         <v>922</v>
@@ -26693,6 +27574,9 @@
         <f>表格5[[#This Row],[Mora]]&amp;"},"</f>
         <v>77390},</v>
       </c>
+      <c r="N89" s="38"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="37"/>
       <c r="AI89"/>
       <c r="AK89" s="21"/>
     </row>
@@ -26728,6 +27612,9 @@
         <f>表格5[[#This Row],[Mora]]&amp;"},"</f>
         <v>86885},</v>
       </c>
+      <c r="N90" s="37"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="37"/>
       <c r="AI90"/>
       <c r="AK90" s="21"/>
     </row>
@@ -26763,6 +27650,9 @@
         <f>表格5[[#This Row],[Mora]]&amp;"},"</f>
         <v>97525},</v>
       </c>
+      <c r="N91" s="37"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="37"/>
       <c r="AI91"/>
       <c r="AK91" s="21"/>
     </row>
@@ -26798,6 +27688,9 @@
         <f>表格5[[#This Row],[Mora]]&amp;"},"</f>
         <v>109440},</v>
       </c>
+      <c r="N92" s="37"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="37"/>
       <c r="AI92"/>
       <c r="AK92" s="21"/>
     </row>
@@ -26805,10 +27698,16 @@
       <c r="E93" t="s">
         <v>350</v>
       </c>
+      <c r="N93" s="37"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="37"/>
       <c r="AI93"/>
       <c r="AK93" s="21"/>
     </row>
     <row r="94" spans="1:37">
+      <c r="N94" s="37"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="37"/>
       <c r="AI94"/>
       <c r="AK94" s="21"/>
     </row>
@@ -26823,22 +27722,29 @@
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
       <c r="J95" s="21"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="37"/>
       <c r="AI95"/>
       <c r="AK95" s="21"/>
     </row>
     <row r="96" spans="1:37">
+      <c r="O96" s="38"/>
       <c r="AI96"/>
       <c r="AK96" s="21"/>
     </row>
     <row r="97" spans="12:37">
+      <c r="O97" s="38"/>
       <c r="AI97"/>
       <c r="AK97" s="21"/>
     </row>
     <row r="98" spans="12:37">
+      <c r="O98" s="39"/>
       <c r="AI98"/>
       <c r="AK98" s="21"/>
     </row>
     <row r="99" spans="12:37">
+      <c r="O99" s="38"/>
       <c r="AI99"/>
       <c r="AK99" s="21"/>
     </row>
@@ -26873,6 +27779,7954 @@
       <c r="AJ101" s="21"/>
       <c r="AK101" s="21"/>
     </row>
+    <row r="102" spans="12:37">
+      <c r="L102" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M102" s="41" t="s">
+        <v>876</v>
+      </c>
+      <c r="N102" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O102" s="40"/>
+      <c r="P102" s="40"/>
+      <c r="Q102" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R102" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="S102" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T102" s="41" t="str">
+        <f>R102</f>
+        <v>燃願瑪瑙</v>
+      </c>
+      <c r="U102" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V102" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W102" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X102" s="40"/>
+      <c r="Y102" s="41" t="s">
+        <v>876</v>
+      </c>
+      <c r="Z102" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA102" s="40"/>
+      <c r="AB102" s="40"/>
+      <c r="AC102" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD102" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="AE102" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF102" s="40" t="str">
+        <f>AD102</f>
+        <v>燃願瑪瑙</v>
+      </c>
+      <c r="AG102" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH102" s="40"/>
+    </row>
+    <row r="103" spans="12:37">
+      <c r="L103" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M103" s="41" t="s">
+        <v>924</v>
+      </c>
+      <c r="N103" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R103" s="40" t="str">
+        <f t="shared" ref="R103:R107" si="20">M103</f>
+        <v>滌淨青金</v>
+      </c>
+      <c r="S103" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T103" s="41" t="str">
+        <f t="shared" ref="T103:T107" si="21">R103</f>
+        <v>滌淨青金</v>
+      </c>
+      <c r="U103" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V103" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W103" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X103" s="40"/>
+      <c r="Y103" s="41" t="s">
+        <v>924</v>
+      </c>
+      <c r="Z103" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA103" s="40"/>
+      <c r="AB103" s="40"/>
+      <c r="AC103" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD103" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="AE103" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF103" s="40" t="str">
+        <f t="shared" ref="AF103:AF166" si="22">AD103</f>
+        <v>滌淨青金</v>
+      </c>
+      <c r="AG103" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH103" s="40"/>
+    </row>
+    <row r="104" spans="12:37">
+      <c r="L104" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M104" s="41" t="s">
+        <v>931</v>
+      </c>
+      <c r="N104" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R104" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v>最勝紫晶</v>
+      </c>
+      <c r="S104" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T104" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v>最勝紫晶</v>
+      </c>
+      <c r="U104" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V104" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W104" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X104" s="40"/>
+      <c r="Y104" s="41" t="s">
+        <v>931</v>
+      </c>
+      <c r="Z104" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA104" s="40"/>
+      <c r="AB104" s="40"/>
+      <c r="AC104" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD104" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="AE104" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF104" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>最勝紫晶</v>
+      </c>
+      <c r="AG104" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH104" s="40"/>
+    </row>
+    <row r="105" spans="12:37">
+      <c r="L105" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M105" s="41" t="s">
+        <v>888</v>
+      </c>
+      <c r="N105" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
+      <c r="Q105" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R105" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v>哀敘冰玉</v>
+      </c>
+      <c r="S105" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T105" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v>哀敘冰玉</v>
+      </c>
+      <c r="U105" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V105" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W105" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X105" s="40"/>
+      <c r="Y105" s="41" t="s">
+        <v>888</v>
+      </c>
+      <c r="Z105" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA105" s="40"/>
+      <c r="AB105" s="40"/>
+      <c r="AC105" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD105" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="AE105" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF105" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>哀敘冰玉</v>
+      </c>
+      <c r="AG105" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH105" s="40"/>
+    </row>
+    <row r="106" spans="12:37">
+      <c r="L106" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M106" s="41" t="s">
+        <v>882</v>
+      </c>
+      <c r="N106" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
+      <c r="Q106" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R106" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v>自在松石</v>
+      </c>
+      <c r="S106" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T106" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v>自在松石</v>
+      </c>
+      <c r="U106" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V106" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W106" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X106" s="40"/>
+      <c r="Y106" s="41" t="s">
+        <v>882</v>
+      </c>
+      <c r="Z106" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA106" s="40"/>
+      <c r="AB106" s="40"/>
+      <c r="AC106" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD106" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="AE106" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF106" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>自在松石</v>
+      </c>
+      <c r="AG106" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH106" s="40"/>
+    </row>
+    <row r="107" spans="12:37">
+      <c r="L107" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M107" s="41" t="s">
+        <v>914</v>
+      </c>
+      <c r="N107" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R107" s="40" t="str">
+        <f t="shared" si="20"/>
+        <v>堅牢黃玉</v>
+      </c>
+      <c r="S107" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T107" s="41" t="str">
+        <f t="shared" si="21"/>
+        <v>堅牢黃玉</v>
+      </c>
+      <c r="U107" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V107" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W107" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X107" s="40"/>
+      <c r="Y107" s="41" t="s">
+        <v>914</v>
+      </c>
+      <c r="Z107" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA107" s="40"/>
+      <c r="AB107" s="40"/>
+      <c r="AC107" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD107" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="AE107" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF107" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>堅牢黃玉</v>
+      </c>
+      <c r="AG107" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH107" s="40"/>
+    </row>
+    <row r="108" spans="12:37">
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="40"/>
+      <c r="R108" s="40"/>
+      <c r="S108" s="41"/>
+      <c r="T108" s="40"/>
+      <c r="U108" s="40"/>
+      <c r="V108" s="40"/>
+      <c r="W108" s="40"/>
+      <c r="X108" s="40"/>
+      <c r="Y108" s="40"/>
+      <c r="Z108" s="40"/>
+      <c r="AA108" s="40"/>
+      <c r="AB108" s="40"/>
+      <c r="AC108" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD108" s="40" t="s">
+        <v>919</v>
+      </c>
+      <c r="AE108" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF108" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>常燃火種</v>
+      </c>
+      <c r="AG108" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH108" s="40"/>
+    </row>
+    <row r="109" spans="12:37">
+      <c r="L109" s="40"/>
+      <c r="M109" s="40" t="s">
+        <v>990</v>
+      </c>
+      <c r="N109" s="40"/>
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
+      <c r="Q109" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R109" s="40" t="str">
+        <f>M145</f>
+        <v>歷戰的箭簇</v>
+      </c>
+      <c r="S109" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T109" s="41" t="str">
+        <f>R109</f>
+        <v>歷戰的箭簇</v>
+      </c>
+      <c r="U109" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V109" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W109" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X109" s="40"/>
+      <c r="Y109" s="41" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Z109" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA109" s="40"/>
+      <c r="AB109" s="40"/>
+      <c r="AC109" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD109" s="40" t="s">
+        <v>925</v>
+      </c>
+      <c r="AE109" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF109" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>淨水之心</v>
+      </c>
+      <c r="AG109" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH109" s="40"/>
+    </row>
+    <row r="110" spans="12:37">
+      <c r="L110" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M110" s="41" t="s">
+        <v>919</v>
+      </c>
+      <c r="N110" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R110" s="40" t="str">
+        <f t="shared" ref="R110:R117" si="23">M146</f>
+        <v>禁咒繪卷</v>
+      </c>
+      <c r="S110" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T110" s="41" t="str">
+        <f t="shared" ref="T110:T116" si="24">R110</f>
+        <v>禁咒繪卷</v>
+      </c>
+      <c r="U110" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V110" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W110" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X110" s="40"/>
+      <c r="Y110" s="41" t="s">
+        <v>879</v>
+      </c>
+      <c r="Z110" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA110" s="40"/>
+      <c r="AB110" s="40"/>
+      <c r="AC110" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD110" s="40" t="s">
+        <v>932</v>
+      </c>
+      <c r="AE110" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF110" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>雷光棱鏡</v>
+      </c>
+      <c r="AG110" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH110" s="40"/>
+    </row>
+    <row r="111" spans="12:37">
+      <c r="L111" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M111" s="41" t="s">
+        <v>925</v>
+      </c>
+      <c r="N111" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O111" s="40"/>
+      <c r="P111" s="40"/>
+      <c r="Q111" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R111" s="40" t="str">
+        <f t="shared" si="23"/>
+        <v>攫金鴉印</v>
+      </c>
+      <c r="S111" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T111" s="41" t="str">
+        <f t="shared" si="24"/>
+        <v>攫金鴉印</v>
+      </c>
+      <c r="U111" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V111" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W111" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X111" s="40"/>
+      <c r="Y111" s="41" t="s">
+        <v>895</v>
+      </c>
+      <c r="Z111" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA111" s="40"/>
+      <c r="AB111" s="40"/>
+      <c r="AC111" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD111" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE111" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF111" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>極寒之核</v>
+      </c>
+      <c r="AG111" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH111" s="40"/>
+    </row>
+    <row r="112" spans="12:37">
+      <c r="L112" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M112" s="41" t="s">
+        <v>932</v>
+      </c>
+      <c r="N112" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O112" s="40"/>
+      <c r="P112" s="40"/>
+      <c r="Q112" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R112" s="40" t="str">
+        <f t="shared" si="23"/>
+        <v>不祥的面具</v>
+      </c>
+      <c r="S112" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T112" s="41" t="str">
+        <f t="shared" si="24"/>
+        <v>不祥的面具</v>
+      </c>
+      <c r="U112" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V112" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W112" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X112" s="40"/>
+      <c r="Y112" s="41" t="s">
+        <v>899</v>
+      </c>
+      <c r="Z112" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA112" s="40"/>
+      <c r="AB112" s="40"/>
+      <c r="AC112" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD112" s="40" t="s">
+        <v>929</v>
+      </c>
+      <c r="AE112" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF112" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>颶風之種</v>
+      </c>
+      <c r="AG112" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH112" s="40"/>
+    </row>
+    <row r="113" spans="12:34">
+      <c r="L113" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M113" s="41" t="s">
+        <v>904</v>
+      </c>
+      <c r="N113" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O113" s="40"/>
+      <c r="P113" s="40"/>
+      <c r="Q113" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R113" s="40" t="str">
+        <f t="shared" si="23"/>
+        <v>尉官的徽記</v>
+      </c>
+      <c r="S113" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T113" s="41" t="str">
+        <f t="shared" si="24"/>
+        <v>尉官的徽記</v>
+      </c>
+      <c r="U113" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V113" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W113" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X113" s="40"/>
+      <c r="Y113" s="41" t="s">
+        <v>906</v>
+      </c>
+      <c r="Z113" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA113" s="40"/>
+      <c r="AB113" s="40"/>
+      <c r="AC113" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD113" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="AE113" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF113" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>玄岩之塔</v>
+      </c>
+      <c r="AG113" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH113" s="40"/>
+    </row>
+    <row r="114" spans="12:34">
+      <c r="L114" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M114" s="41" t="s">
+        <v>929</v>
+      </c>
+      <c r="N114" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O114" s="40"/>
+      <c r="P114" s="40"/>
+      <c r="Q114" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R114" s="40" t="str">
+        <f t="shared" si="23"/>
+        <v>原素花蜜</v>
+      </c>
+      <c r="S114" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T114" s="41" t="str">
+        <f t="shared" si="24"/>
+        <v>原素花蜜</v>
+      </c>
+      <c r="U114" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V114" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W114" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X114" s="40"/>
+      <c r="Y114" s="41" t="s">
+        <v>885</v>
+      </c>
+      <c r="Z114" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA114" s="40"/>
+      <c r="AB114" s="40"/>
+      <c r="AC114" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD114" s="40" t="s">
+        <v>901</v>
+      </c>
+      <c r="AE114" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF114" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>未熟之玉</v>
+      </c>
+      <c r="AG114" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH114" s="40"/>
+    </row>
+    <row r="115" spans="12:34">
+      <c r="L115" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M115" s="41" t="s">
+        <v>915</v>
+      </c>
+      <c r="N115" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40"/>
+      <c r="Q115" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R115" s="40" t="str">
+        <f t="shared" si="23"/>
+        <v>史萊姆原漿</v>
+      </c>
+      <c r="S115" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T115" s="41" t="str">
+        <f t="shared" si="24"/>
+        <v>史萊姆原漿</v>
+      </c>
+      <c r="U115" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V115" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W115" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X115" s="40"/>
+      <c r="Y115" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="Z115" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA115" s="40"/>
+      <c r="AB115" s="40"/>
+      <c r="AC115" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD115" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="AE115" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF115" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>晶凝之華</v>
+      </c>
+      <c r="AG115" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH115" s="40"/>
+    </row>
+    <row r="116" spans="12:34">
+      <c r="L116" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M116" s="41" t="s">
+        <v>901</v>
+      </c>
+      <c r="N116" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O116" s="40"/>
+      <c r="P116" s="40"/>
+      <c r="Q116" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R116" s="40" t="str">
+        <f t="shared" si="23"/>
+        <v>名刀鐔</v>
+      </c>
+      <c r="S116" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T116" s="41" t="str">
+        <f t="shared" si="24"/>
+        <v>名刀鐔</v>
+      </c>
+      <c r="U116" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V116" s="40" t="s">
+        <v>1014</v>
+      </c>
+      <c r="W116" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X116" s="40"/>
+      <c r="Y116" s="41" t="s">
+        <v>891</v>
+      </c>
+      <c r="Z116" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA116" s="40"/>
+      <c r="AB116" s="40"/>
+      <c r="AC116" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD116" s="40" t="s">
+        <v>883</v>
+      </c>
+      <c r="AE116" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF116" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>魔偶機心</v>
+      </c>
+      <c r="AG116" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH116" s="40"/>
+    </row>
+    <row r="117" spans="12:34">
+      <c r="L117" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M117" s="41" t="s">
+        <v>897</v>
+      </c>
+      <c r="N117" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O117" s="40"/>
+      <c r="P117" s="40"/>
+      <c r="Q117" s="40"/>
+      <c r="R117" s="40"/>
+      <c r="S117" s="40"/>
+      <c r="T117" s="40"/>
+      <c r="U117" s="40"/>
+      <c r="V117" s="40"/>
+      <c r="W117" s="40"/>
+      <c r="X117" s="40"/>
+      <c r="Y117" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="Z117" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA117" s="40"/>
+      <c r="AB117" s="40"/>
+      <c r="AC117" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD117" s="40" t="s">
+        <v>889</v>
+      </c>
+      <c r="AE117" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF117" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>恒常機關之心</v>
+      </c>
+      <c r="AG117" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH117" s="40"/>
+    </row>
+    <row r="118" spans="12:34">
+      <c r="L118" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M118" s="41" t="s">
+        <v>883</v>
+      </c>
+      <c r="N118" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R118" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="S118" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T118" s="41" t="str">
+        <f>R118</f>
+        <v>自由_的哲學</v>
+      </c>
+      <c r="U118" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V118" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W118" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X118" s="40"/>
+      <c r="Y118" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="Z118" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA118" s="40"/>
+      <c r="AB118" s="40"/>
+      <c r="AC118" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD118" s="40" t="s">
+        <v>877</v>
+      </c>
+      <c r="AE118" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF118" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>陰燃之珠</v>
+      </c>
+      <c r="AG118" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH118" s="40"/>
+    </row>
+    <row r="119" spans="12:34">
+      <c r="L119" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M119" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="N119" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O119" s="40"/>
+      <c r="P119" s="40"/>
+      <c r="Q119" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R119" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="S119" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T119" s="41" t="str">
+        <f t="shared" ref="T119:T123" si="25">R119</f>
+        <v>黃金_的哲學</v>
+      </c>
+      <c r="U119" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V119" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W119" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X119" s="40"/>
+      <c r="Y119" s="41" t="s">
+        <v>997</v>
+      </c>
+      <c r="Z119" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA119" s="40"/>
+      <c r="AB119" s="40"/>
+      <c r="AC119" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD119" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="AE119" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF119" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>小燈草</v>
+      </c>
+      <c r="AG119" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH119" s="40"/>
+    </row>
+    <row r="120" spans="12:34">
+      <c r="L120" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M120" s="41" t="s">
+        <v>877</v>
+      </c>
+      <c r="N120" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O120" s="41"/>
+      <c r="P120" s="41"/>
+      <c r="Q120" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R120" s="41" t="s">
+        <v>997</v>
+      </c>
+      <c r="S120" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T120" s="41" t="str">
+        <f t="shared" si="25"/>
+        <v>抗爭_的哲學</v>
+      </c>
+      <c r="U120" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V120" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W120" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X120" s="40"/>
+      <c r="Y120" s="41" t="s">
+        <v>998</v>
+      </c>
+      <c r="Z120" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="40"/>
+      <c r="AC120" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD120" s="40" t="s">
+        <v>927</v>
+      </c>
+      <c r="AE120" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF120" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>慕風蘑菇</v>
+      </c>
+      <c r="AG120" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH120" s="40"/>
+    </row>
+    <row r="121" spans="12:34">
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="40"/>
+      <c r="O121" s="41"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R121" s="41" t="s">
+        <v>998</v>
+      </c>
+      <c r="S121" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T121" s="41" t="str">
+        <f t="shared" si="25"/>
+        <v>勤勞_的哲學</v>
+      </c>
+      <c r="U121" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V121" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W121" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X121" s="40"/>
+      <c r="Y121" s="41" t="s">
+        <v>999</v>
+      </c>
+      <c r="Z121" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA121" s="40"/>
+      <c r="AB121" s="40"/>
+      <c r="AC121" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD121" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="AE121" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF121" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>夜泊石</v>
+      </c>
+      <c r="AG121" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH121" s="40"/>
+    </row>
+    <row r="122" spans="12:34">
+      <c r="L122" s="40"/>
+      <c r="M122" s="40" t="s">
+        <v>991</v>
+      </c>
+      <c r="N122" s="40"/>
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R122" s="41" t="s">
+        <v>999</v>
+      </c>
+      <c r="S122" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T122" s="41" t="str">
+        <f t="shared" si="25"/>
+        <v>詩文_的哲學</v>
+      </c>
+      <c r="U122" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V122" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W122" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X122" s="40"/>
+      <c r="Y122" s="41" t="s">
+        <v>1000</v>
+      </c>
+      <c r="Z122" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="40"/>
+      <c r="AC122" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD122" s="40" t="s">
+        <v>940</v>
+      </c>
+      <c r="AE122" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF122" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>風車菊</v>
+      </c>
+      <c r="AG122" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH122" s="40"/>
+    </row>
+    <row r="123" spans="12:34">
+      <c r="L123" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M123" s="41" t="s">
+        <v>936</v>
+      </c>
+      <c r="N123" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O123" s="41"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R123" s="41" t="s">
+        <v>1000</v>
+      </c>
+      <c r="S123" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T123" s="41" t="str">
+        <f t="shared" si="25"/>
+        <v>繁榮_的哲學</v>
+      </c>
+      <c r="U123" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V123" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W123" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X123" s="40"/>
+      <c r="Y123" s="41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Z123" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA123" s="40"/>
+      <c r="AB123" s="40"/>
+      <c r="AC123" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD123" s="40" t="s">
+        <v>918</v>
+      </c>
+      <c r="AE123" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF123" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>石珀</v>
+      </c>
+      <c r="AG123" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH123" s="40"/>
+    </row>
+    <row r="124" spans="12:34">
+      <c r="L124" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M124" s="41" t="s">
+        <v>927</v>
+      </c>
+      <c r="N124" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O124" s="41"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R124" s="41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="S124" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T124" s="41" t="str">
+        <f t="shared" ref="T124:T126" si="26">R124</f>
+        <v>風雅_的哲學</v>
+      </c>
+      <c r="U124" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V124" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W124" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X124" s="40"/>
+      <c r="Y124" s="41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Z124" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA124" s="40"/>
+      <c r="AB124" s="40"/>
+      <c r="AC124" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD124" s="40" t="s">
+        <v>898</v>
+      </c>
+      <c r="AE124" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF124" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>蒲公英籽</v>
+      </c>
+      <c r="AG124" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH124" s="40"/>
+    </row>
+    <row r="125" spans="12:34">
+      <c r="L125" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M125" s="41" t="s">
+        <v>902</v>
+      </c>
+      <c r="N125" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O125" s="41"/>
+      <c r="P125" s="41"/>
+      <c r="Q125" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R125" s="41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S125" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T125" s="41" t="str">
+        <f t="shared" si="26"/>
+        <v>浮世_的哲學</v>
+      </c>
+      <c r="U125" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V125" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W125" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X125" s="40"/>
+      <c r="Y125" s="41" t="s">
+        <v>1003</v>
+      </c>
+      <c r="Z125" s="41" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AA125" s="40"/>
+      <c r="AB125" s="40"/>
+      <c r="AC125" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD125" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="AE125" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF125" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>嘟嘟蓮</v>
+      </c>
+      <c r="AG125" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH125" s="40"/>
+    </row>
+    <row r="126" spans="12:34">
+      <c r="L126" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M126" s="41" t="s">
+        <v>940</v>
+      </c>
+      <c r="N126" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O126" s="41"/>
+      <c r="P126" s="41"/>
+      <c r="Q126" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R126" s="41" t="s">
+        <v>1003</v>
+      </c>
+      <c r="S126" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T126" s="41" t="str">
+        <f t="shared" si="26"/>
+        <v>天光_的哲學</v>
+      </c>
+      <c r="U126" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V126" s="40" t="s">
+        <v>1015</v>
+      </c>
+      <c r="W126" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X126" s="40"/>
+      <c r="Y126" s="40"/>
+      <c r="Z126" s="40"/>
+      <c r="AA126" s="40"/>
+      <c r="AB126" s="40"/>
+      <c r="AC126" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD126" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE126" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF126" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>落落莓</v>
+      </c>
+      <c r="AG126" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH126" s="40"/>
+    </row>
+    <row r="127" spans="12:34">
+      <c r="L127" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M127" s="41" t="s">
+        <v>918</v>
+      </c>
+      <c r="N127" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O127" s="41"/>
+      <c r="P127" s="41"/>
+      <c r="Q127" s="41"/>
+      <c r="R127" s="41"/>
+      <c r="S127" s="41"/>
+      <c r="T127" s="41"/>
+      <c r="U127" s="40"/>
+      <c r="V127" s="40"/>
+      <c r="W127" s="40"/>
+      <c r="X127" s="40"/>
+      <c r="Y127" s="40"/>
+      <c r="Z127" s="40"/>
+      <c r="AA127" s="40"/>
+      <c r="AB127" s="40"/>
+      <c r="AC127" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD127" s="40" t="s">
+        <v>941</v>
+      </c>
+      <c r="AE127" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF127" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>琉璃百合</v>
+      </c>
+      <c r="AG127" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH127" s="40"/>
+    </row>
+    <row r="128" spans="12:34">
+      <c r="L128" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M128" s="41" t="s">
+        <v>898</v>
+      </c>
+      <c r="N128" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O128" s="41"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R128" s="41" t="str">
+        <f>M110</f>
+        <v>常燃火種</v>
+      </c>
+      <c r="S128" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T128" s="41" t="str">
+        <f>R128</f>
+        <v>常燃火種</v>
+      </c>
+      <c r="U128" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V128" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W128" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X128" s="40"/>
+      <c r="Y128" s="40"/>
+      <c r="Z128" s="40"/>
+      <c r="AA128" s="40"/>
+      <c r="AB128" s="40"/>
+      <c r="AC128" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD128" s="40" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE128" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF128" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>琉璃袋</v>
+      </c>
+      <c r="AG128" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH128" s="40"/>
+    </row>
+    <row r="129" spans="12:34">
+      <c r="L129" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M129" s="41" t="s">
+        <v>921</v>
+      </c>
+      <c r="N129" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O129" s="41"/>
+      <c r="P129" s="41"/>
+      <c r="Q129" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R129" s="41" t="str">
+        <f t="shared" ref="R129:R136" si="27">M111</f>
+        <v>淨水之心</v>
+      </c>
+      <c r="S129" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T129" s="41" t="str">
+        <f t="shared" ref="T129:T136" si="28">R129</f>
+        <v>淨水之心</v>
+      </c>
+      <c r="U129" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V129" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W129" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X129" s="40"/>
+      <c r="Y129" s="40"/>
+      <c r="Z129" s="40"/>
+      <c r="AA129" s="40"/>
+      <c r="AB129" s="40"/>
+      <c r="AC129" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD129" s="40" t="s">
+        <v>933</v>
+      </c>
+      <c r="AE129" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF129" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>鉤鉤果</v>
+      </c>
+      <c r="AG129" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH129" s="40"/>
+    </row>
+    <row r="130" spans="12:34">
+      <c r="L130" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M130" s="41" t="s">
+        <v>905</v>
+      </c>
+      <c r="N130" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O130" s="41"/>
+      <c r="P130" s="41"/>
+      <c r="Q130" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R130" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v>雷光棱鏡</v>
+      </c>
+      <c r="S130" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T130" s="41" t="str">
+        <f t="shared" si="28"/>
+        <v>雷光棱鏡</v>
+      </c>
+      <c r="U130" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V130" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W130" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X130" s="40"/>
+      <c r="Y130" s="40"/>
+      <c r="Z130" s="40"/>
+      <c r="AA130" s="40"/>
+      <c r="AB130" s="40"/>
+      <c r="AC130" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD130" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="AE130" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF130" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>塞西莉亞花</v>
+      </c>
+      <c r="AG130" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH130" s="40"/>
+    </row>
+    <row r="131" spans="12:34">
+      <c r="L131" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M131" s="41" t="s">
+        <v>941</v>
+      </c>
+      <c r="N131" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O131" s="41"/>
+      <c r="P131" s="41"/>
+      <c r="Q131" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R131" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v>極寒之核</v>
+      </c>
+      <c r="S131" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T131" s="41" t="str">
+        <f t="shared" si="28"/>
+        <v>極寒之核</v>
+      </c>
+      <c r="U131" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V131" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W131" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X131" s="40"/>
+      <c r="Y131" s="40"/>
+      <c r="Z131" s="40"/>
+      <c r="AA131" s="40"/>
+      <c r="AB131" s="40"/>
+      <c r="AC131" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD131" s="40" t="s">
+        <v>935</v>
+      </c>
+      <c r="AE131" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF131" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>絕雲椒椒</v>
+      </c>
+      <c r="AG131" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH131" s="40"/>
+    </row>
+    <row r="132" spans="12:34">
+      <c r="L132" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M132" s="41" t="s">
+        <v>920</v>
+      </c>
+      <c r="N132" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O132" s="41"/>
+      <c r="P132" s="41"/>
+      <c r="Q132" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R132" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v>颶風之種</v>
+      </c>
+      <c r="S132" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T132" s="41" t="str">
+        <f t="shared" si="28"/>
+        <v>颶風之種</v>
+      </c>
+      <c r="U132" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V132" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W132" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X132" s="40"/>
+      <c r="Y132" s="40"/>
+      <c r="Z132" s="40"/>
+      <c r="AA132" s="40"/>
+      <c r="AB132" s="40"/>
+      <c r="AC132" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD132" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="AE132" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF132" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>霓裳花</v>
+      </c>
+      <c r="AG132" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH132" s="40"/>
+    </row>
+    <row r="133" spans="12:34">
+      <c r="L133" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M133" s="41" t="s">
+        <v>933</v>
+      </c>
+      <c r="N133" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O133" s="41"/>
+      <c r="P133" s="41"/>
+      <c r="Q133" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R133" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v>玄岩之塔</v>
+      </c>
+      <c r="S133" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T133" s="41" t="str">
+        <f t="shared" si="28"/>
+        <v>玄岩之塔</v>
+      </c>
+      <c r="U133" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V133" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W133" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X133" s="40"/>
+      <c r="Y133" s="40"/>
+      <c r="Z133" s="40"/>
+      <c r="AA133" s="40"/>
+      <c r="AB133" s="40"/>
+      <c r="AC133" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD133" s="40" t="s">
+        <v>926</v>
+      </c>
+      <c r="AE133" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF133" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>星螺</v>
+      </c>
+      <c r="AG133" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH133" s="40"/>
+    </row>
+    <row r="134" spans="12:34">
+      <c r="L134" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M134" s="41" t="s">
+        <v>916</v>
+      </c>
+      <c r="N134" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O134" s="41"/>
+      <c r="P134" s="41"/>
+      <c r="Q134" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R134" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v>未熟之玉</v>
+      </c>
+      <c r="S134" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T134" s="41" t="str">
+        <f t="shared" si="28"/>
+        <v>未熟之玉</v>
+      </c>
+      <c r="U134" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V134" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W134" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X134" s="40"/>
+      <c r="Y134" s="40"/>
+      <c r="Z134" s="40"/>
+      <c r="AA134" s="40"/>
+      <c r="AB134" s="40"/>
+      <c r="AC134" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD134" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="AE134" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF134" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>清心</v>
+      </c>
+      <c r="AG134" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH134" s="40"/>
+    </row>
+    <row r="135" spans="12:34">
+      <c r="L135" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M135" s="41" t="s">
+        <v>935</v>
+      </c>
+      <c r="N135" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O135" s="41"/>
+      <c r="P135" s="41"/>
+      <c r="Q135" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R135" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v>晶凝之華</v>
+      </c>
+      <c r="S135" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T135" s="41" t="str">
+        <f t="shared" si="28"/>
+        <v>晶凝之華</v>
+      </c>
+      <c r="U135" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V135" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W135" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X135" s="40"/>
+      <c r="Y135" s="40"/>
+      <c r="Z135" s="40"/>
+      <c r="AA135" s="40"/>
+      <c r="AB135" s="40"/>
+      <c r="AC135" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD135" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="AE135" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF135" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>海靈芝</v>
+      </c>
+      <c r="AG135" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH135" s="40"/>
+    </row>
+    <row r="136" spans="12:34">
+      <c r="L136" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M136" s="41" t="s">
+        <v>909</v>
+      </c>
+      <c r="N136" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O136" s="41"/>
+      <c r="P136" s="41"/>
+      <c r="Q136" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R136" s="41" t="str">
+        <f t="shared" si="27"/>
+        <v>魔偶機心</v>
+      </c>
+      <c r="S136" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T136" s="41" t="str">
+        <f t="shared" si="28"/>
+        <v>魔偶機心</v>
+      </c>
+      <c r="U136" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V136" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W136" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X136" s="40"/>
+      <c r="Y136" s="40"/>
+      <c r="Z136" s="40"/>
+      <c r="AA136" s="40"/>
+      <c r="AB136" s="40"/>
+      <c r="AC136" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD136" s="40" t="s">
+        <v>890</v>
+      </c>
+      <c r="AE136" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF136" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>緋櫻繡球</v>
+      </c>
+      <c r="AG136" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH136" s="40"/>
+    </row>
+    <row r="137" spans="12:34">
+      <c r="L137" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M137" s="41" t="s">
+        <v>926</v>
+      </c>
+      <c r="N137" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O137" s="40"/>
+      <c r="P137" s="40"/>
+      <c r="Q137" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R137" s="41" t="str">
+        <f>M119</f>
+        <v>恒常機關之心</v>
+      </c>
+      <c r="S137" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T137" s="41" t="str">
+        <f>R137</f>
+        <v>恒常機關之心</v>
+      </c>
+      <c r="U137" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V137" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W137" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X137" s="40"/>
+      <c r="Y137" s="40"/>
+      <c r="Z137" s="40"/>
+      <c r="AA137" s="40"/>
+      <c r="AB137" s="40"/>
+      <c r="AC137" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD137" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="AE137" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF137" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>鳴草</v>
+      </c>
+      <c r="AG137" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH137" s="40"/>
+    </row>
+    <row r="138" spans="12:34">
+      <c r="L138" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M138" s="41" t="s">
+        <v>911</v>
+      </c>
+      <c r="N138" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O138" s="40"/>
+      <c r="P138" s="40"/>
+      <c r="Q138" s="40" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R138" s="41" t="str">
+        <f t="shared" ref="R138" si="29">M120</f>
+        <v>陰燃之珠</v>
+      </c>
+      <c r="S138" s="41" t="s">
+        <v>1009</v>
+      </c>
+      <c r="T138" s="41" t="str">
+        <f t="shared" ref="T138" si="30">R138</f>
+        <v>陰燃之珠</v>
+      </c>
+      <c r="U138" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V138" s="40" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W138" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="X138" s="40"/>
+      <c r="Y138" s="40"/>
+      <c r="Z138" s="40"/>
+      <c r="AA138" s="40"/>
+      <c r="AB138" s="40"/>
+      <c r="AC138" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD138" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="AE138" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF138" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>晶化骨髓</v>
+      </c>
+      <c r="AG138" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH138" s="40"/>
+    </row>
+    <row r="139" spans="12:34">
+      <c r="L139" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M139" s="41" t="s">
+        <v>894</v>
+      </c>
+      <c r="N139" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O139" s="40"/>
+      <c r="P139" s="40"/>
+      <c r="Q139" s="40"/>
+      <c r="R139" s="40"/>
+      <c r="S139" s="40"/>
+      <c r="T139" s="40"/>
+      <c r="U139" s="40"/>
+      <c r="V139" s="40"/>
+      <c r="W139" s="40"/>
+      <c r="X139" s="40"/>
+      <c r="Y139" s="40"/>
+      <c r="Z139" s="40"/>
+      <c r="AA139" s="40"/>
+      <c r="AB139" s="40"/>
+      <c r="AC139" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD139" s="40" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AE139" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF139" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>歷戰的箭簇</v>
+      </c>
+      <c r="AG139" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH139" s="40"/>
+    </row>
+    <row r="140" spans="12:34">
+      <c r="L140" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M140" s="41" t="s">
+        <v>890</v>
+      </c>
+      <c r="N140" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O140" s="40"/>
+      <c r="P140" s="40"/>
+      <c r="Q140" s="40" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R140" s="40"/>
+      <c r="S140" s="40"/>
+      <c r="T140" s="40"/>
+      <c r="U140" s="40"/>
+      <c r="V140" s="40"/>
+      <c r="W140" s="40"/>
+      <c r="X140" s="40"/>
+      <c r="Y140" s="40"/>
+      <c r="Z140" s="40"/>
+      <c r="AA140" s="40"/>
+      <c r="AB140" s="40"/>
+      <c r="AC140" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD140" s="40" t="s">
+        <v>879</v>
+      </c>
+      <c r="AE140" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF140" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>禁咒繪卷</v>
+      </c>
+      <c r="AG140" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH140" s="40"/>
+    </row>
+    <row r="141" spans="12:34">
+      <c r="L141" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M141" s="41" t="s">
+        <v>878</v>
+      </c>
+      <c r="N141" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O141" s="40"/>
+      <c r="P141" s="40"/>
+      <c r="Q141" s="40"/>
+      <c r="R141" s="40"/>
+      <c r="S141" s="40"/>
+      <c r="T141" s="40"/>
+      <c r="U141" s="40"/>
+      <c r="V141" s="40"/>
+      <c r="W141" s="40"/>
+      <c r="X141" s="40"/>
+      <c r="Y141" s="40"/>
+      <c r="Z141" s="40"/>
+      <c r="AA141" s="40"/>
+      <c r="AB141" s="40"/>
+      <c r="AC141" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD141" s="40" t="s">
+        <v>895</v>
+      </c>
+      <c r="AE141" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF141" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>攫金鴉印</v>
+      </c>
+      <c r="AG141" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH141" s="40"/>
+    </row>
+    <row r="142" spans="12:34">
+      <c r="L142" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M142" s="41" t="s">
+        <v>884</v>
+      </c>
+      <c r="N142" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O142" s="40"/>
+      <c r="P142" s="40"/>
+      <c r="Q142" s="40"/>
+      <c r="R142" s="40"/>
+      <c r="S142" s="40"/>
+      <c r="T142" s="40"/>
+      <c r="U142" s="40"/>
+      <c r="V142" s="40"/>
+      <c r="W142" s="40"/>
+      <c r="X142" s="40"/>
+      <c r="Y142" s="40"/>
+      <c r="Z142" s="40"/>
+      <c r="AA142" s="40"/>
+      <c r="AB142" s="40"/>
+      <c r="AC142" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD142" s="40" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE142" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF142" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>不祥的面具</v>
+      </c>
+      <c r="AG142" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH142" s="40"/>
+    </row>
+    <row r="143" spans="12:34">
+      <c r="L143" s="40"/>
+      <c r="M143" s="40"/>
+      <c r="N143" s="40"/>
+      <c r="O143" s="40"/>
+      <c r="P143" s="40"/>
+      <c r="Q143" s="40"/>
+      <c r="R143" s="40"/>
+      <c r="S143" s="40"/>
+      <c r="T143" s="40"/>
+      <c r="U143" s="40"/>
+      <c r="V143" s="40"/>
+      <c r="W143" s="40"/>
+      <c r="X143" s="40"/>
+      <c r="Y143" s="40"/>
+      <c r="Z143" s="40"/>
+      <c r="AA143" s="40"/>
+      <c r="AB143" s="40"/>
+      <c r="AC143" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD143" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE143" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF143" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>尉官的徽記</v>
+      </c>
+      <c r="AG143" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH143" s="40"/>
+    </row>
+    <row r="144" spans="12:34">
+      <c r="L144" s="40"/>
+      <c r="M144" s="40"/>
+      <c r="N144" s="40"/>
+      <c r="O144" s="40"/>
+      <c r="P144" s="40"/>
+      <c r="Q144" s="40"/>
+      <c r="R144" s="40"/>
+      <c r="S144" s="40"/>
+      <c r="T144" s="40"/>
+      <c r="U144" s="40"/>
+      <c r="V144" s="40"/>
+      <c r="W144" s="40"/>
+      <c r="X144" s="40"/>
+      <c r="Y144" s="40"/>
+      <c r="Z144" s="40"/>
+      <c r="AA144" s="40"/>
+      <c r="AB144" s="40"/>
+      <c r="AC144" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD144" s="40" t="s">
+        <v>885</v>
+      </c>
+      <c r="AE144" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF144" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>原素花蜜</v>
+      </c>
+      <c r="AG144" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH144" s="40"/>
+    </row>
+    <row r="145" spans="12:34">
+      <c r="L145" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M145" s="41" t="s">
+        <v>1005</v>
+      </c>
+      <c r="N145" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O145" s="40"/>
+      <c r="P145" s="40"/>
+      <c r="Q145" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R145" s="40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="S145" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T145" s="40"/>
+      <c r="U145" s="40"/>
+      <c r="V145" s="40"/>
+      <c r="W145" s="40"/>
+      <c r="X145" s="40"/>
+      <c r="Y145" s="40"/>
+      <c r="Z145" s="40"/>
+      <c r="AA145" s="40"/>
+      <c r="AB145" s="40"/>
+      <c r="AC145" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD145" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="AE145" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF145" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>史萊姆原漿</v>
+      </c>
+      <c r="AG145" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH145" s="40"/>
+    </row>
+    <row r="146" spans="12:34">
+      <c r="L146" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M146" s="41" t="s">
+        <v>879</v>
+      </c>
+      <c r="N146" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O146" s="40"/>
+      <c r="P146" s="40"/>
+      <c r="Q146" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R146" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="S146" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T146" s="40"/>
+      <c r="U146" s="40"/>
+      <c r="V146" s="40"/>
+      <c r="W146" s="40"/>
+      <c r="X146" s="40"/>
+      <c r="Y146" s="40"/>
+      <c r="Z146" s="40"/>
+      <c r="AA146" s="40"/>
+      <c r="AB146" s="40"/>
+      <c r="AC146" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD146" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="AE146" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF146" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>名刀鐔</v>
+      </c>
+      <c r="AG146" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH146" s="40"/>
+    </row>
+    <row r="147" spans="12:34">
+      <c r="L147" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M147" s="41" t="s">
+        <v>895</v>
+      </c>
+      <c r="N147" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O147" s="40"/>
+      <c r="P147" s="40"/>
+      <c r="Q147" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R147" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="S147" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T147" s="40"/>
+      <c r="U147" s="40"/>
+      <c r="V147" s="40"/>
+      <c r="W147" s="40"/>
+      <c r="X147" s="40"/>
+      <c r="Y147" s="40"/>
+      <c r="Z147" s="40"/>
+      <c r="AA147" s="40"/>
+      <c r="AB147" s="40"/>
+      <c r="AC147" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD147" s="40" t="s">
+        <v>995</v>
+      </c>
+      <c r="AE147" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF147" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>自由_的哲學</v>
+      </c>
+      <c r="AG147" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH147" s="40"/>
+    </row>
+    <row r="148" spans="12:34">
+      <c r="L148" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M148" s="41" t="s">
+        <v>899</v>
+      </c>
+      <c r="N148" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O148" s="40"/>
+      <c r="P148" s="40"/>
+      <c r="Q148" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R148" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="S148" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T148" s="40"/>
+      <c r="U148" s="40"/>
+      <c r="V148" s="40"/>
+      <c r="W148" s="40"/>
+      <c r="X148" s="40"/>
+      <c r="Y148" s="40"/>
+      <c r="Z148" s="40"/>
+      <c r="AA148" s="40"/>
+      <c r="AB148" s="40"/>
+      <c r="AC148" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD148" s="40" t="s">
+        <v>996</v>
+      </c>
+      <c r="AE148" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF148" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>黃金_的哲學</v>
+      </c>
+      <c r="AG148" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH148" s="40"/>
+    </row>
+    <row r="149" spans="12:34">
+      <c r="L149" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M149" s="41" t="s">
+        <v>906</v>
+      </c>
+      <c r="N149" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O149" s="40"/>
+      <c r="P149" s="40"/>
+      <c r="Q149" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R149" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="S149" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T149" s="40"/>
+      <c r="U149" s="40"/>
+      <c r="V149" s="40"/>
+      <c r="W149" s="40"/>
+      <c r="X149" s="40"/>
+      <c r="Y149" s="40"/>
+      <c r="Z149" s="40"/>
+      <c r="AA149" s="40"/>
+      <c r="AB149" s="40"/>
+      <c r="AC149" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD149" s="40" t="s">
+        <v>997</v>
+      </c>
+      <c r="AE149" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF149" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>抗爭_的哲學</v>
+      </c>
+      <c r="AG149" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH149" s="40"/>
+    </row>
+    <row r="150" spans="12:34">
+      <c r="L150" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M150" s="41" t="s">
+        <v>885</v>
+      </c>
+      <c r="N150" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O150" s="40"/>
+      <c r="P150" s="40"/>
+      <c r="Q150" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R150" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="S150" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T150" s="40"/>
+      <c r="U150" s="40"/>
+      <c r="V150" s="40"/>
+      <c r="W150" s="40"/>
+      <c r="X150" s="40"/>
+      <c r="Y150" s="40"/>
+      <c r="Z150" s="40"/>
+      <c r="AA150" s="40"/>
+      <c r="AB150" s="40"/>
+      <c r="AC150" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD150" s="40" t="s">
+        <v>998</v>
+      </c>
+      <c r="AE150" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF150" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>勤勞_的哲學</v>
+      </c>
+      <c r="AG150" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH150" s="40"/>
+    </row>
+    <row r="151" spans="12:34">
+      <c r="L151" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M151" s="41" t="s">
+        <v>912</v>
+      </c>
+      <c r="N151" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O151" s="40"/>
+      <c r="P151" s="40"/>
+      <c r="Q151" s="40"/>
+      <c r="R151" s="40"/>
+      <c r="S151" s="40"/>
+      <c r="T151" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="U151" s="40" t="s">
+        <v>919</v>
+      </c>
+      <c r="V151" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W151" s="42" t="s">
+        <v>1022</v>
+      </c>
+      <c r="X151" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y151" s="40"/>
+      <c r="Z151" s="40"/>
+      <c r="AA151" s="40"/>
+      <c r="AB151" s="40"/>
+      <c r="AC151" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD151" s="40" t="s">
+        <v>999</v>
+      </c>
+      <c r="AE151" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF151" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>詩文_的哲學</v>
+      </c>
+      <c r="AG151" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH151" s="40"/>
+    </row>
+    <row r="152" spans="12:34">
+      <c r="L152" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M152" s="41" t="s">
+        <v>891</v>
+      </c>
+      <c r="N152" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O152" s="40"/>
+      <c r="P152" s="40"/>
+      <c r="Q152" s="40"/>
+      <c r="R152" s="40"/>
+      <c r="S152" s="40"/>
+      <c r="T152" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U152" s="40" t="s">
+        <v>925</v>
+      </c>
+      <c r="V152" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W152" s="42" t="s">
+        <v>1023</v>
+      </c>
+      <c r="X152" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y152" s="40"/>
+      <c r="Z152" s="40"/>
+      <c r="AA152" s="40"/>
+      <c r="AB152" s="40"/>
+      <c r="AC152" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD152" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AE152" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF152" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>繁榮_的哲學</v>
+      </c>
+      <c r="AG152" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH152" s="40"/>
+    </row>
+    <row r="153" spans="12:34">
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="40"/>
+      <c r="O153" s="40"/>
+      <c r="P153" s="40"/>
+      <c r="Q153" s="40"/>
+      <c r="R153" s="40"/>
+      <c r="S153" s="40"/>
+      <c r="T153" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U153" s="40" t="s">
+        <v>932</v>
+      </c>
+      <c r="V153" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W153" s="42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="X153" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y153" s="40"/>
+      <c r="Z153" s="40"/>
+      <c r="AA153" s="40"/>
+      <c r="AB153" s="40"/>
+      <c r="AC153" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD153" s="40" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AE153" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF153" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>風雅_的哲學</v>
+      </c>
+      <c r="AG153" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH153" s="40"/>
+    </row>
+    <row r="154" spans="12:34">
+      <c r="L154" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M154" s="41" t="s">
+        <v>995</v>
+      </c>
+      <c r="N154" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O154" s="40"/>
+      <c r="P154" s="40"/>
+      <c r="Q154" s="40"/>
+      <c r="R154" s="40"/>
+      <c r="S154" s="40"/>
+      <c r="T154" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U154" s="40" t="s">
+        <v>904</v>
+      </c>
+      <c r="V154" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W154" s="42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="X154" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y154" s="40"/>
+      <c r="Z154" s="40"/>
+      <c r="AA154" s="40"/>
+      <c r="AB154" s="40"/>
+      <c r="AC154" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD154" s="40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AE154" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF154" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>浮世_的哲學</v>
+      </c>
+      <c r="AG154" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH154" s="40"/>
+    </row>
+    <row r="155" spans="12:34">
+      <c r="L155" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M155" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="N155" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O155" s="40"/>
+      <c r="P155" s="40"/>
+      <c r="Q155" s="40"/>
+      <c r="R155" s="40"/>
+      <c r="S155" s="40"/>
+      <c r="T155" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U155" s="40" t="s">
+        <v>929</v>
+      </c>
+      <c r="V155" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W155" s="42" t="s">
+        <v>1026</v>
+      </c>
+      <c r="X155" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y155" s="40"/>
+      <c r="Z155" s="40"/>
+      <c r="AA155" s="40"/>
+      <c r="AB155" s="40"/>
+      <c r="AC155" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD155" s="40" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AE155" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF155" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>天光_的哲學</v>
+      </c>
+      <c r="AG155" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH155" s="40"/>
+    </row>
+    <row r="156" spans="12:34">
+      <c r="L156" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M156" s="41" t="s">
+        <v>997</v>
+      </c>
+      <c r="N156" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O156" s="40"/>
+      <c r="P156" s="40"/>
+      <c r="Q156" s="40"/>
+      <c r="R156" s="40"/>
+      <c r="S156" s="40"/>
+      <c r="T156" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U156" s="40" t="s">
+        <v>915</v>
+      </c>
+      <c r="V156" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W156" s="42" t="s">
+        <v>1027</v>
+      </c>
+      <c r="X156" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y156" s="40"/>
+      <c r="Z156" s="40"/>
+      <c r="AA156" s="40"/>
+      <c r="AB156" s="40"/>
+      <c r="AC156" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD156" s="40" t="s">
+        <v>928</v>
+      </c>
+      <c r="AE156" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF156" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>北風之環</v>
+      </c>
+      <c r="AG156" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH156" s="40"/>
+    </row>
+    <row r="157" spans="12:34">
+      <c r="L157" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M157" s="41" t="s">
+        <v>998</v>
+      </c>
+      <c r="N157" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O157" s="40"/>
+      <c r="P157" s="40"/>
+      <c r="Q157" s="40"/>
+      <c r="R157" s="40"/>
+      <c r="S157" s="40"/>
+      <c r="T157" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U157" s="40" t="s">
+        <v>901</v>
+      </c>
+      <c r="V157" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W157" s="42" t="s">
+        <v>1028</v>
+      </c>
+      <c r="X157" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y157" s="40"/>
+      <c r="Z157" s="40"/>
+      <c r="AA157" s="40"/>
+      <c r="AB157" s="40"/>
+      <c r="AC157" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD157" s="40" t="s">
+        <v>939</v>
+      </c>
+      <c r="AE157" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF157" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>東風的吐息</v>
+      </c>
+      <c r="AG157" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH157" s="40"/>
+    </row>
+    <row r="158" spans="12:34">
+      <c r="L158" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M158" s="41" t="s">
+        <v>999</v>
+      </c>
+      <c r="N158" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O158" s="40"/>
+      <c r="P158" s="40"/>
+      <c r="Q158" s="40"/>
+      <c r="R158" s="40"/>
+      <c r="S158" s="40"/>
+      <c r="T158" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U158" s="40" t="s">
+        <v>897</v>
+      </c>
+      <c r="V158" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W158" s="42" t="s">
+        <v>1029</v>
+      </c>
+      <c r="X158" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y158" s="40"/>
+      <c r="Z158" s="40"/>
+      <c r="AA158" s="40"/>
+      <c r="AB158" s="40"/>
+      <c r="AC158" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD158" s="40" t="s">
+        <v>938</v>
+      </c>
+      <c r="AE158" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF158" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>東風之翎</v>
+      </c>
+      <c r="AG158" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH158" s="40"/>
+    </row>
+    <row r="159" spans="12:34">
+      <c r="L159" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M159" s="41" t="s">
+        <v>1000</v>
+      </c>
+      <c r="N159" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O159" s="40"/>
+      <c r="P159" s="40"/>
+      <c r="Q159" s="40"/>
+      <c r="R159" s="40"/>
+      <c r="S159" s="40"/>
+      <c r="T159" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U159" s="40" t="s">
+        <v>883</v>
+      </c>
+      <c r="V159" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W159" s="42" t="s">
+        <v>1030</v>
+      </c>
+      <c r="X159" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y159" s="40"/>
+      <c r="Z159" s="40"/>
+      <c r="AA159" s="40"/>
+      <c r="AB159" s="40"/>
+      <c r="AC159" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD159" s="40" t="s">
+        <v>937</v>
+      </c>
+      <c r="AE159" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF159" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>北風的魂匣</v>
+      </c>
+      <c r="AG159" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH159" s="40"/>
+    </row>
+    <row r="160" spans="12:34">
+      <c r="L160" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M160" s="41" t="s">
+        <v>1001</v>
+      </c>
+      <c r="N160" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O160" s="40"/>
+      <c r="P160" s="40"/>
+      <c r="Q160" s="40"/>
+      <c r="R160" s="40"/>
+      <c r="S160" s="40"/>
+      <c r="T160" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U160" s="40" t="s">
+        <v>889</v>
+      </c>
+      <c r="V160" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W160" s="42" t="s">
+        <v>1031</v>
+      </c>
+      <c r="X160" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y160" s="40"/>
+      <c r="Z160" s="40"/>
+      <c r="AA160" s="40"/>
+      <c r="AB160" s="40"/>
+      <c r="AC160" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD160" s="40" t="s">
+        <v>934</v>
+      </c>
+      <c r="AE160" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF160" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>東風之爪</v>
+      </c>
+      <c r="AG160" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH160" s="40"/>
+    </row>
+    <row r="161" spans="12:34">
+      <c r="L161" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M161" s="41" t="s">
+        <v>1002</v>
+      </c>
+      <c r="N161" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O161" s="40"/>
+      <c r="P161" s="40"/>
+      <c r="Q161" s="40"/>
+      <c r="R161" s="40"/>
+      <c r="S161" s="40"/>
+      <c r="T161" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U161" s="40" t="s">
+        <v>877</v>
+      </c>
+      <c r="V161" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W161" s="42" t="s">
+        <v>1032</v>
+      </c>
+      <c r="X161" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y161" s="40"/>
+      <c r="Z161" s="40"/>
+      <c r="AA161" s="40"/>
+      <c r="AB161" s="40"/>
+      <c r="AC161" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD161" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="AE161" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF161" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>北風之尾</v>
+      </c>
+      <c r="AG161" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH161" s="40"/>
+    </row>
+    <row r="162" spans="12:34">
+      <c r="L162" s="40" t="s">
+        <v>994</v>
+      </c>
+      <c r="M162" s="41" t="s">
+        <v>1003</v>
+      </c>
+      <c r="N162" s="40" t="s">
+        <v>993</v>
+      </c>
+      <c r="O162" s="40"/>
+      <c r="P162" s="40"/>
+      <c r="Q162" s="40"/>
+      <c r="R162" s="40"/>
+      <c r="S162" s="40"/>
+      <c r="T162" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U162" s="40" t="s">
+        <v>936</v>
+      </c>
+      <c r="V162" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W162" s="42" t="s">
+        <v>1033</v>
+      </c>
+      <c r="X162" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y162" s="40"/>
+      <c r="Z162" s="40"/>
+      <c r="AA162" s="40"/>
+      <c r="AB162" s="40"/>
+      <c r="AC162" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD162" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="AE162" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF162" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>魔王之刃·殘片</v>
+      </c>
+      <c r="AG162" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH162" s="40"/>
+    </row>
+    <row r="163" spans="12:34">
+      <c r="L163" s="40"/>
+      <c r="M163" s="40"/>
+      <c r="N163" s="40"/>
+      <c r="O163" s="40"/>
+      <c r="P163" s="40"/>
+      <c r="Q163" s="40"/>
+      <c r="R163" s="40"/>
+      <c r="S163" s="40"/>
+      <c r="T163" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U163" s="40" t="s">
+        <v>927</v>
+      </c>
+      <c r="V163" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W163" s="42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="X163" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y163" s="40"/>
+      <c r="Z163" s="40"/>
+      <c r="AA163" s="40"/>
+      <c r="AB163" s="40"/>
+      <c r="AC163" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD163" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="AE163" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF163" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>吞天之鯨·只角</v>
+      </c>
+      <c r="AG163" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH163" s="40"/>
+    </row>
+    <row r="164" spans="12:34">
+      <c r="L164" s="40"/>
+      <c r="M164" s="40"/>
+      <c r="N164" s="40"/>
+      <c r="O164" s="40"/>
+      <c r="P164" s="40"/>
+      <c r="Q164" s="40"/>
+      <c r="R164" s="40"/>
+      <c r="S164" s="40"/>
+      <c r="T164" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U164" s="40" t="s">
+        <v>902</v>
+      </c>
+      <c r="V164" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W164" s="42" t="s">
+        <v>1035</v>
+      </c>
+      <c r="X164" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y164" s="40"/>
+      <c r="Z164" s="40"/>
+      <c r="AA164" s="40"/>
+      <c r="AB164" s="40"/>
+      <c r="AC164" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD164" s="40" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE164" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF164" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>武煉之魂·孤影</v>
+      </c>
+      <c r="AG164" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH164" s="40"/>
+    </row>
+    <row r="165" spans="12:34">
+      <c r="L165" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M165" s="41" t="s">
+        <v>928</v>
+      </c>
+      <c r="N165" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O165" s="40"/>
+      <c r="P165" s="40"/>
+      <c r="Q165" s="40"/>
+      <c r="R165" s="40"/>
+      <c r="S165" s="40"/>
+      <c r="T165" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U165" s="40" t="s">
+        <v>940</v>
+      </c>
+      <c r="V165" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W165" s="42" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X165" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y165" s="40"/>
+      <c r="Z165" s="40"/>
+      <c r="AA165" s="40"/>
+      <c r="AB165" s="40"/>
+      <c r="AC165" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD165" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="AE165" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF165" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>龍王之冕</v>
+      </c>
+      <c r="AG165" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH165" s="40"/>
+    </row>
+    <row r="166" spans="12:34">
+      <c r="L166" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M166" s="41" t="s">
+        <v>939</v>
+      </c>
+      <c r="N166" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O166" s="40"/>
+      <c r="P166" s="40"/>
+      <c r="Q166" s="40"/>
+      <c r="R166" s="40"/>
+      <c r="S166" s="40"/>
+      <c r="T166" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U166" s="40" t="s">
+        <v>918</v>
+      </c>
+      <c r="V166" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W166" s="42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="X166" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y166" s="40"/>
+      <c r="Z166" s="40"/>
+      <c r="AA166" s="40"/>
+      <c r="AB166" s="40"/>
+      <c r="AC166" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD166" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="AE166" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF166" s="40" t="str">
+        <f t="shared" si="22"/>
+        <v>血玉之枝</v>
+      </c>
+      <c r="AG166" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH166" s="40"/>
+    </row>
+    <row r="167" spans="12:34">
+      <c r="L167" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M167" s="41" t="s">
+        <v>938</v>
+      </c>
+      <c r="N167" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O167" s="40"/>
+      <c r="P167" s="40"/>
+      <c r="Q167" s="40"/>
+      <c r="R167" s="40"/>
+      <c r="S167" s="40"/>
+      <c r="T167" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U167" s="40" t="s">
+        <v>898</v>
+      </c>
+      <c r="V167" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W167" s="42" t="s">
+        <v>1038</v>
+      </c>
+      <c r="X167" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y167" s="40"/>
+      <c r="Z167" s="40"/>
+      <c r="AA167" s="40"/>
+      <c r="AB167" s="40"/>
+      <c r="AC167" s="40" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AD167" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="AE167" s="40" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AF167" s="40" t="str">
+        <f t="shared" ref="AF167" si="31">AD167</f>
+        <v>鎏金之鱗</v>
+      </c>
+      <c r="AG167" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH167" s="40"/>
+    </row>
+    <row r="168" spans="12:34">
+      <c r="L168" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M168" s="41" t="s">
+        <v>937</v>
+      </c>
+      <c r="N168" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O168" s="40"/>
+      <c r="P168" s="40"/>
+      <c r="Q168" s="40"/>
+      <c r="R168" s="40"/>
+      <c r="S168" s="40"/>
+      <c r="T168" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U168" s="40" t="s">
+        <v>921</v>
+      </c>
+      <c r="V168" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W168" s="42" t="s">
+        <v>1039</v>
+      </c>
+      <c r="X168" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y168" s="40"/>
+      <c r="Z168" s="40"/>
+      <c r="AA168" s="40"/>
+      <c r="AB168" s="40"/>
+      <c r="AC168" s="40"/>
+      <c r="AD168" s="40"/>
+      <c r="AE168" s="40"/>
+      <c r="AF168" s="40"/>
+      <c r="AG168" s="40"/>
+      <c r="AH168" s="40"/>
+    </row>
+    <row r="169" spans="12:34">
+      <c r="L169" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M169" s="41" t="s">
+        <v>934</v>
+      </c>
+      <c r="N169" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O169" s="40"/>
+      <c r="P169" s="40"/>
+      <c r="Q169" s="40"/>
+      <c r="R169" s="40"/>
+      <c r="S169" s="40"/>
+      <c r="T169" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U169" s="40" t="s">
+        <v>905</v>
+      </c>
+      <c r="V169" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W169" s="42" t="s">
+        <v>1040</v>
+      </c>
+      <c r="X169" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y169" s="40"/>
+      <c r="Z169" s="40"/>
+      <c r="AA169" s="40"/>
+      <c r="AB169" s="40"/>
+      <c r="AC169" s="40"/>
+      <c r="AD169" s="40"/>
+      <c r="AE169" s="40"/>
+      <c r="AF169" s="40"/>
+      <c r="AG169" s="40"/>
+      <c r="AH169" s="40"/>
+    </row>
+    <row r="170" spans="12:34">
+      <c r="L170" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M170" s="41" t="s">
+        <v>930</v>
+      </c>
+      <c r="N170" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O170" s="40"/>
+      <c r="P170" s="40"/>
+      <c r="Q170" s="40"/>
+      <c r="R170" s="40"/>
+      <c r="S170" s="40"/>
+      <c r="T170" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U170" s="40" t="s">
+        <v>941</v>
+      </c>
+      <c r="V170" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W170" s="42" t="s">
+        <v>1042</v>
+      </c>
+      <c r="X170" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y170" s="40"/>
+      <c r="Z170" s="40"/>
+      <c r="AA170" s="40"/>
+      <c r="AB170" s="40"/>
+      <c r="AC170" s="40"/>
+      <c r="AD170" s="40"/>
+      <c r="AE170" s="40"/>
+      <c r="AF170" s="40"/>
+      <c r="AG170" s="40"/>
+      <c r="AH170" s="40"/>
+    </row>
+    <row r="171" spans="12:34">
+      <c r="L171" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M171" s="41" t="s">
+        <v>910</v>
+      </c>
+      <c r="N171" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O171" s="40"/>
+      <c r="P171" s="40"/>
+      <c r="Q171" s="40"/>
+      <c r="R171" s="40"/>
+      <c r="S171" s="40"/>
+      <c r="T171" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U171" s="40" t="s">
+        <v>920</v>
+      </c>
+      <c r="V171" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W171" s="42" t="s">
+        <v>1041</v>
+      </c>
+      <c r="X171" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y171" s="40"/>
+      <c r="Z171" s="40"/>
+      <c r="AA171" s="40"/>
+      <c r="AB171" s="40"/>
+      <c r="AC171" s="40"/>
+      <c r="AD171" s="40"/>
+      <c r="AE171" s="40"/>
+      <c r="AF171" s="40"/>
+      <c r="AG171" s="40"/>
+      <c r="AH171" s="40"/>
+    </row>
+    <row r="172" spans="12:34">
+      <c r="L172" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M172" s="41" t="s">
+        <v>917</v>
+      </c>
+      <c r="N172" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O172" s="40"/>
+      <c r="P172" s="40"/>
+      <c r="Q172" s="40"/>
+      <c r="R172" s="40"/>
+      <c r="S172" s="40"/>
+      <c r="T172" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U172" s="40" t="s">
+        <v>933</v>
+      </c>
+      <c r="V172" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W172" s="42" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X172" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y172" s="40"/>
+      <c r="Z172" s="40"/>
+      <c r="AA172" s="40"/>
+      <c r="AB172" s="40"/>
+      <c r="AC172" s="40"/>
+      <c r="AD172" s="40"/>
+      <c r="AE172" s="40"/>
+      <c r="AF172" s="40"/>
+      <c r="AG172" s="40"/>
+      <c r="AH172" s="40"/>
+    </row>
+    <row r="173" spans="12:34">
+      <c r="L173" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M173" s="41" t="s">
+        <v>908</v>
+      </c>
+      <c r="N173" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O173" s="40"/>
+      <c r="P173" s="40"/>
+      <c r="Q173" s="40"/>
+      <c r="R173" s="40"/>
+      <c r="S173" s="40"/>
+      <c r="T173" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U173" s="40" t="s">
+        <v>916</v>
+      </c>
+      <c r="V173" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W173" s="42" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X173" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y173" s="40"/>
+      <c r="Z173" s="40"/>
+      <c r="AA173" s="40"/>
+      <c r="AB173" s="40"/>
+      <c r="AC173" s="40"/>
+      <c r="AD173" s="40"/>
+      <c r="AE173" s="40"/>
+      <c r="AF173" s="40"/>
+      <c r="AG173" s="40"/>
+      <c r="AH173" s="40"/>
+    </row>
+    <row r="174" spans="12:34">
+      <c r="L174" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M174" s="41" t="s">
+        <v>881</v>
+      </c>
+      <c r="N174" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O174" s="40"/>
+      <c r="P174" s="40"/>
+      <c r="Q174" s="40"/>
+      <c r="R174" s="40"/>
+      <c r="S174" s="40"/>
+      <c r="T174" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U174" s="40" t="s">
+        <v>935</v>
+      </c>
+      <c r="V174" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W174" s="42" t="s">
+        <v>1044</v>
+      </c>
+      <c r="X174" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y174" s="40"/>
+      <c r="Z174" s="40"/>
+      <c r="AA174" s="40"/>
+      <c r="AB174" s="40"/>
+      <c r="AC174" s="40"/>
+      <c r="AD174" s="40"/>
+      <c r="AE174" s="40"/>
+      <c r="AF174" s="40"/>
+      <c r="AG174" s="40"/>
+      <c r="AH174" s="40"/>
+    </row>
+    <row r="175" spans="12:34">
+      <c r="L175" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M175" s="41" t="s">
+        <v>893</v>
+      </c>
+      <c r="N175" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O175" s="40"/>
+      <c r="P175" s="40"/>
+      <c r="Q175" s="40"/>
+      <c r="R175" s="40"/>
+      <c r="S175" s="40"/>
+      <c r="T175" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U175" s="40" t="s">
+        <v>909</v>
+      </c>
+      <c r="V175" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W175" s="42" t="s">
+        <v>1043</v>
+      </c>
+      <c r="X175" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y175" s="40"/>
+      <c r="Z175" s="40"/>
+      <c r="AA175" s="40"/>
+      <c r="AB175" s="40"/>
+      <c r="AC175" s="40"/>
+      <c r="AD175" s="40"/>
+      <c r="AE175" s="40"/>
+      <c r="AF175" s="40"/>
+      <c r="AG175" s="40"/>
+      <c r="AH175" s="40"/>
+    </row>
+    <row r="176" spans="12:34">
+      <c r="L176" s="40" t="s">
+        <v>989</v>
+      </c>
+      <c r="M176" s="41" t="s">
+        <v>1018</v>
+      </c>
+      <c r="N176" s="40" t="s">
+        <v>992</v>
+      </c>
+      <c r="O176" s="40"/>
+      <c r="P176" s="40"/>
+      <c r="Q176" s="40"/>
+      <c r="R176" s="40"/>
+      <c r="S176" s="40"/>
+      <c r="T176" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U176" s="40" t="s">
+        <v>926</v>
+      </c>
+      <c r="V176" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W176" s="42" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X176" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y176" s="40"/>
+      <c r="Z176" s="40"/>
+      <c r="AA176" s="40"/>
+      <c r="AB176" s="40"/>
+      <c r="AC176" s="40"/>
+      <c r="AD176" s="40"/>
+      <c r="AE176" s="40"/>
+      <c r="AF176" s="40"/>
+      <c r="AG176" s="40"/>
+      <c r="AH176" s="40"/>
+    </row>
+    <row r="177" spans="12:34">
+      <c r="L177" s="40"/>
+      <c r="M177" s="40"/>
+      <c r="N177" s="40"/>
+      <c r="O177" s="40"/>
+      <c r="P177" s="40"/>
+      <c r="Q177" s="40"/>
+      <c r="R177" s="40"/>
+      <c r="S177" s="40"/>
+      <c r="T177" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U177" s="40" t="s">
+        <v>911</v>
+      </c>
+      <c r="V177" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W177" s="42" t="s">
+        <v>1048</v>
+      </c>
+      <c r="X177" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y177" s="40"/>
+      <c r="Z177" s="40"/>
+      <c r="AA177" s="40"/>
+      <c r="AB177" s="40"/>
+      <c r="AC177" s="40"/>
+      <c r="AD177" s="40"/>
+      <c r="AE177" s="40"/>
+      <c r="AF177" s="40"/>
+      <c r="AG177" s="40"/>
+      <c r="AH177" s="40"/>
+    </row>
+    <row r="178" spans="12:34">
+      <c r="L178" s="40"/>
+      <c r="M178" s="40"/>
+      <c r="N178" s="40"/>
+      <c r="O178" s="40"/>
+      <c r="P178" s="40"/>
+      <c r="Q178" s="40"/>
+      <c r="R178" s="40"/>
+      <c r="S178" s="40"/>
+      <c r="T178" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U178" s="40" t="s">
+        <v>894</v>
+      </c>
+      <c r="V178" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W178" s="42" t="s">
+        <v>1049</v>
+      </c>
+      <c r="X178" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y178" s="40"/>
+      <c r="Z178" s="40"/>
+      <c r="AA178" s="40"/>
+      <c r="AB178" s="40"/>
+      <c r="AC178" s="40"/>
+      <c r="AD178" s="40"/>
+      <c r="AE178" s="40"/>
+      <c r="AF178" s="40"/>
+      <c r="AG178" s="40"/>
+      <c r="AH178" s="40"/>
+    </row>
+    <row r="179" spans="12:34">
+      <c r="L179" s="40"/>
+      <c r="M179" s="40"/>
+      <c r="N179" s="40"/>
+      <c r="O179" s="40"/>
+      <c r="P179" s="40"/>
+      <c r="Q179" s="40"/>
+      <c r="R179" s="40"/>
+      <c r="S179" s="40"/>
+      <c r="T179" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U179" s="40" t="s">
+        <v>890</v>
+      </c>
+      <c r="V179" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W179" s="42" t="s">
+        <v>1050</v>
+      </c>
+      <c r="X179" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y179" s="40"/>
+      <c r="Z179" s="40"/>
+      <c r="AA179" s="40"/>
+      <c r="AB179" s="40"/>
+      <c r="AC179" s="40"/>
+      <c r="AD179" s="40"/>
+      <c r="AE179" s="40"/>
+      <c r="AF179" s="40"/>
+      <c r="AG179" s="40"/>
+      <c r="AH179" s="40"/>
+    </row>
+    <row r="180" spans="12:34">
+      <c r="L180" s="40"/>
+      <c r="M180" s="40"/>
+      <c r="N180" s="40"/>
+      <c r="O180" s="40"/>
+      <c r="P180" s="40"/>
+      <c r="Q180" s="40"/>
+      <c r="R180" s="40"/>
+      <c r="S180" s="40"/>
+      <c r="T180" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U180" s="40" t="s">
+        <v>878</v>
+      </c>
+      <c r="V180" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W180" s="42" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X180" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y180" s="40"/>
+      <c r="Z180" s="40"/>
+      <c r="AA180" s="40"/>
+      <c r="AB180" s="40"/>
+      <c r="AC180" s="40"/>
+      <c r="AD180" s="40"/>
+      <c r="AE180" s="40"/>
+      <c r="AF180" s="40"/>
+      <c r="AG180" s="40"/>
+      <c r="AH180" s="40"/>
+    </row>
+    <row r="181" spans="12:34">
+      <c r="L181" s="40"/>
+      <c r="M181" s="40"/>
+      <c r="N181" s="40"/>
+      <c r="O181" s="40"/>
+      <c r="P181" s="40"/>
+      <c r="Q181" s="40"/>
+      <c r="R181" s="40"/>
+      <c r="S181" s="40"/>
+      <c r="T181" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U181" s="40" t="s">
+        <v>884</v>
+      </c>
+      <c r="V181" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W181" s="42" t="s">
+        <v>1052</v>
+      </c>
+      <c r="X181" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y181" s="40"/>
+      <c r="Z181" s="40"/>
+      <c r="AA181" s="40"/>
+      <c r="AB181" s="40"/>
+      <c r="AC181" s="40"/>
+      <c r="AD181" s="40"/>
+      <c r="AE181" s="40"/>
+      <c r="AF181" s="40"/>
+      <c r="AG181" s="40"/>
+      <c r="AH181" s="40"/>
+    </row>
+    <row r="182" spans="12:34">
+      <c r="L182" s="40"/>
+      <c r="M182" s="40"/>
+      <c r="N182" s="40"/>
+      <c r="O182" s="40"/>
+      <c r="P182" s="40"/>
+      <c r="Q182" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R182" s="40" t="s">
+        <v>1005</v>
+      </c>
+      <c r="S182" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T182" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U182" s="40" t="s">
+        <v>1053</v>
+      </c>
+      <c r="V182" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W182" s="42" t="s">
+        <v>1054</v>
+      </c>
+      <c r="X182" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y182" s="40"/>
+      <c r="Z182" s="40"/>
+      <c r="AA182" s="40"/>
+      <c r="AB182" s="40"/>
+      <c r="AC182" s="40"/>
+      <c r="AD182" s="40"/>
+      <c r="AE182" s="40"/>
+      <c r="AF182" s="40"/>
+      <c r="AG182" s="40"/>
+      <c r="AH182" s="40"/>
+    </row>
+    <row r="183" spans="12:34">
+      <c r="L183" s="40"/>
+      <c r="M183" s="40"/>
+      <c r="N183" s="40"/>
+      <c r="O183" s="40"/>
+      <c r="P183" s="40"/>
+      <c r="Q183" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R183" s="40" t="s">
+        <v>1072</v>
+      </c>
+      <c r="S183" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T183" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U183" s="40" t="s">
+        <v>939</v>
+      </c>
+      <c r="V183" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W183" s="42" t="s">
+        <v>1055</v>
+      </c>
+      <c r="X183" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y183" s="40"/>
+      <c r="Z183" s="40"/>
+      <c r="AA183" s="40"/>
+      <c r="AB183" s="40"/>
+      <c r="AC183" s="40"/>
+      <c r="AD183" s="40"/>
+      <c r="AE183" s="40"/>
+      <c r="AF183" s="40"/>
+      <c r="AG183" s="40"/>
+      <c r="AH183" s="40"/>
+    </row>
+    <row r="184" spans="12:34">
+      <c r="L184" s="40"/>
+      <c r="M184" s="40"/>
+      <c r="N184" s="40"/>
+      <c r="O184" s="40"/>
+      <c r="P184" s="40"/>
+      <c r="Q184" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R184" s="40" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S184" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T184" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U184" s="40" t="s">
+        <v>1056</v>
+      </c>
+      <c r="V184" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W184" s="42" t="s">
+        <v>1057</v>
+      </c>
+      <c r="X184" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y184" s="40"/>
+      <c r="Z184" s="40"/>
+      <c r="AA184" s="40"/>
+      <c r="AB184" s="40"/>
+      <c r="AC184" s="40"/>
+      <c r="AD184" s="40"/>
+      <c r="AE184" s="40"/>
+      <c r="AF184" s="40"/>
+      <c r="AG184" s="40"/>
+      <c r="AH184" s="40"/>
+    </row>
+    <row r="185" spans="12:34">
+      <c r="L185" s="40"/>
+      <c r="M185" s="40"/>
+      <c r="N185" s="40"/>
+      <c r="O185" s="40"/>
+      <c r="P185" s="40"/>
+      <c r="Q185" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R185" s="40" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S185" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T185" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U185" s="40" t="s">
+        <v>937</v>
+      </c>
+      <c r="V185" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W185" s="42" t="s">
+        <v>1058</v>
+      </c>
+      <c r="X185" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y185" s="40"/>
+      <c r="Z185" s="40"/>
+      <c r="AA185" s="40"/>
+      <c r="AB185" s="40"/>
+      <c r="AC185" s="40"/>
+      <c r="AD185" s="40"/>
+      <c r="AE185" s="40"/>
+      <c r="AF185" s="40"/>
+      <c r="AG185" s="40"/>
+      <c r="AH185" s="40"/>
+    </row>
+    <row r="186" spans="12:34">
+      <c r="L186" s="40"/>
+      <c r="M186" s="40"/>
+      <c r="N186" s="40"/>
+      <c r="O186" s="40"/>
+      <c r="P186" s="40"/>
+      <c r="Q186" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R186" s="40" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S186" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T186" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U186" s="40" t="s">
+        <v>934</v>
+      </c>
+      <c r="V186" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W186" s="42" t="s">
+        <v>1059</v>
+      </c>
+      <c r="X186" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y186" s="40"/>
+      <c r="Z186" s="40"/>
+      <c r="AA186" s="40"/>
+      <c r="AB186" s="40"/>
+      <c r="AC186" s="40"/>
+      <c r="AD186" s="40"/>
+      <c r="AE186" s="40"/>
+      <c r="AF186" s="40"/>
+      <c r="AG186" s="40"/>
+      <c r="AH186" s="40"/>
+    </row>
+    <row r="187" spans="12:34">
+      <c r="L187" s="40"/>
+      <c r="M187" s="40"/>
+      <c r="N187" s="40"/>
+      <c r="O187" s="40"/>
+      <c r="P187" s="40"/>
+      <c r="Q187" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R187" s="40" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S187" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T187" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U187" s="40" t="s">
+        <v>930</v>
+      </c>
+      <c r="V187" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W187" s="42" t="s">
+        <v>1060</v>
+      </c>
+      <c r="X187" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y187" s="40"/>
+      <c r="Z187" s="40"/>
+      <c r="AA187" s="40"/>
+      <c r="AB187" s="40"/>
+      <c r="AC187" s="40"/>
+      <c r="AD187" s="40"/>
+      <c r="AE187" s="40"/>
+      <c r="AF187" s="40"/>
+      <c r="AG187" s="40"/>
+      <c r="AH187" s="40"/>
+    </row>
+    <row r="188" spans="12:34">
+      <c r="L188" s="40"/>
+      <c r="M188" s="40"/>
+      <c r="N188" s="40"/>
+      <c r="O188" s="40"/>
+      <c r="P188" s="40"/>
+      <c r="Q188" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R188" s="40" t="s">
+        <v>1086</v>
+      </c>
+      <c r="S188" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T188" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U188" s="40" t="s">
+        <v>910</v>
+      </c>
+      <c r="V188" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W188" s="42" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X188" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y188" s="40"/>
+      <c r="Z188" s="40"/>
+      <c r="AA188" s="40"/>
+      <c r="AB188" s="40"/>
+      <c r="AC188" s="40"/>
+      <c r="AD188" s="40"/>
+      <c r="AE188" s="40"/>
+      <c r="AF188" s="40"/>
+      <c r="AG188" s="40"/>
+      <c r="AH188" s="40"/>
+    </row>
+    <row r="189" spans="12:34">
+      <c r="L189" s="40"/>
+      <c r="M189" s="40"/>
+      <c r="N189" s="40"/>
+      <c r="O189" s="40"/>
+      <c r="P189" s="40"/>
+      <c r="Q189" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R189" s="40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="S189" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T189" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U189" s="40" t="s">
+        <v>917</v>
+      </c>
+      <c r="V189" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W189" s="42" t="s">
+        <v>1063</v>
+      </c>
+      <c r="X189" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y189" s="40"/>
+      <c r="Z189" s="40"/>
+      <c r="AA189" s="40"/>
+      <c r="AB189" s="40"/>
+      <c r="AC189" s="40"/>
+      <c r="AD189" s="40"/>
+      <c r="AE189" s="40"/>
+      <c r="AF189" s="40"/>
+      <c r="AG189" s="40"/>
+      <c r="AH189" s="40"/>
+    </row>
+    <row r="190" spans="12:34">
+      <c r="L190" s="40"/>
+      <c r="M190" s="40"/>
+      <c r="N190" s="40"/>
+      <c r="O190" s="40"/>
+      <c r="P190" s="40"/>
+      <c r="Q190" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R190" s="40" t="s">
+        <v>1092</v>
+      </c>
+      <c r="S190" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T190" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U190" s="40" t="s">
+        <v>908</v>
+      </c>
+      <c r="V190" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W190" s="42" t="s">
+        <v>1062</v>
+      </c>
+      <c r="X190" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y190" s="40"/>
+      <c r="Z190" s="40"/>
+      <c r="AA190" s="40"/>
+      <c r="AB190" s="40"/>
+      <c r="AC190" s="40"/>
+      <c r="AD190" s="40"/>
+      <c r="AE190" s="40"/>
+      <c r="AF190" s="40"/>
+      <c r="AG190" s="40"/>
+      <c r="AH190" s="40"/>
+    </row>
+    <row r="191" spans="12:34">
+      <c r="L191" s="40"/>
+      <c r="M191" s="40"/>
+      <c r="N191" s="40"/>
+      <c r="O191" s="40"/>
+      <c r="P191" s="40"/>
+      <c r="Q191" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R191" s="40" t="s">
+        <v>996</v>
+      </c>
+      <c r="S191" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T191" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U191" s="40" t="s">
+        <v>881</v>
+      </c>
+      <c r="V191" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W191" s="42" t="s">
+        <v>1065</v>
+      </c>
+      <c r="X191" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y191" s="40"/>
+      <c r="Z191" s="40"/>
+      <c r="AA191" s="40"/>
+      <c r="AB191" s="40"/>
+      <c r="AC191" s="40"/>
+      <c r="AD191" s="40"/>
+      <c r="AE191" s="40"/>
+      <c r="AF191" s="40"/>
+      <c r="AG191" s="40"/>
+      <c r="AH191" s="40"/>
+    </row>
+    <row r="192" spans="12:34">
+      <c r="L192" s="40"/>
+      <c r="M192" s="40"/>
+      <c r="N192" s="40"/>
+      <c r="O192" s="40"/>
+      <c r="P192" s="40"/>
+      <c r="Q192" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R192" s="40" t="s">
+        <v>997</v>
+      </c>
+      <c r="S192" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T192" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U192" s="40" t="s">
+        <v>893</v>
+      </c>
+      <c r="V192" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W192" s="42" t="s">
+        <v>1066</v>
+      </c>
+      <c r="X192" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y192" s="40"/>
+      <c r="Z192" s="40"/>
+      <c r="AA192" s="40"/>
+      <c r="AB192" s="40"/>
+      <c r="AC192" s="40"/>
+      <c r="AD192" s="40"/>
+      <c r="AE192" s="40"/>
+      <c r="AF192" s="40"/>
+      <c r="AG192" s="40"/>
+      <c r="AH192" s="40"/>
+    </row>
+    <row r="193" spans="12:34">
+      <c r="L193" s="40"/>
+      <c r="M193" s="40"/>
+      <c r="N193" s="40"/>
+      <c r="O193" s="40"/>
+      <c r="P193" s="40"/>
+      <c r="Q193" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R193" s="40" t="s">
+        <v>998</v>
+      </c>
+      <c r="S193" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T193" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U193" s="40" t="s">
+        <v>887</v>
+      </c>
+      <c r="V193" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W193" s="42" t="s">
+        <v>1064</v>
+      </c>
+      <c r="X193" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y193" s="40"/>
+      <c r="Z193" s="40"/>
+      <c r="AA193" s="40"/>
+      <c r="AB193" s="40"/>
+      <c r="AC193" s="40"/>
+      <c r="AD193" s="40"/>
+      <c r="AE193" s="40"/>
+      <c r="AF193" s="40"/>
+      <c r="AG193" s="40"/>
+      <c r="AH193" s="40"/>
+    </row>
+    <row r="194" spans="12:34">
+      <c r="L194" s="40"/>
+      <c r="M194" s="40"/>
+      <c r="N194" s="40"/>
+      <c r="O194" s="40"/>
+      <c r="P194" s="40"/>
+      <c r="Q194" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R194" s="40" t="s">
+        <v>999</v>
+      </c>
+      <c r="S194" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T194" s="40"/>
+      <c r="U194" s="40"/>
+      <c r="V194" s="40"/>
+      <c r="W194" s="40"/>
+      <c r="X194" s="40"/>
+      <c r="Y194" s="40"/>
+      <c r="Z194" s="40"/>
+      <c r="AA194" s="40"/>
+      <c r="AB194" s="40"/>
+      <c r="AC194" s="40"/>
+      <c r="AD194" s="40"/>
+      <c r="AE194" s="40"/>
+      <c r="AF194" s="40"/>
+      <c r="AG194" s="40"/>
+      <c r="AH194" s="40"/>
+    </row>
+    <row r="195" spans="12:34">
+      <c r="L195" s="40"/>
+      <c r="M195" s="40"/>
+      <c r="N195" s="40"/>
+      <c r="O195" s="40"/>
+      <c r="P195" s="40"/>
+      <c r="Q195" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R195" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="S195" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T195" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U195" s="40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="V195" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W195" s="42" t="s">
+        <v>1105</v>
+      </c>
+      <c r="X195" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y195" s="40"/>
+      <c r="Z195" s="40"/>
+      <c r="AA195" s="40"/>
+      <c r="AB195" s="40"/>
+      <c r="AC195" s="40"/>
+      <c r="AD195" s="40"/>
+      <c r="AE195" s="40"/>
+      <c r="AF195" s="40"/>
+      <c r="AG195" s="40"/>
+      <c r="AH195" s="40"/>
+    </row>
+    <row r="196" spans="12:34">
+      <c r="L196" s="40"/>
+      <c r="M196" s="40"/>
+      <c r="N196" s="40"/>
+      <c r="O196" s="40"/>
+      <c r="P196" s="40"/>
+      <c r="Q196" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R196" s="40" t="s">
+        <v>1001</v>
+      </c>
+      <c r="S196" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T196" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U196" s="40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="V196" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W196" s="42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="X196" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y196" s="40"/>
+      <c r="Z196" s="40"/>
+      <c r="AA196" s="40"/>
+      <c r="AB196" s="40"/>
+      <c r="AC196" s="40"/>
+      <c r="AD196" s="40"/>
+      <c r="AE196" s="40"/>
+      <c r="AF196" s="40"/>
+      <c r="AG196" s="40"/>
+      <c r="AH196" s="40"/>
+    </row>
+    <row r="197" spans="12:34">
+      <c r="L197" s="40"/>
+      <c r="M197" s="40"/>
+      <c r="N197" s="40"/>
+      <c r="O197" s="40"/>
+      <c r="P197" s="40"/>
+      <c r="Q197" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R197" s="40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="S197" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T197" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U197" s="40" t="s">
+        <v>1005</v>
+      </c>
+      <c r="V197" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W197" s="42" t="s">
+        <v>1107</v>
+      </c>
+      <c r="X197" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y197" s="40"/>
+      <c r="Z197" s="40"/>
+      <c r="AA197" s="40"/>
+      <c r="AB197" s="40"/>
+      <c r="AC197" s="40"/>
+      <c r="AD197" s="40"/>
+      <c r="AE197" s="40"/>
+      <c r="AF197" s="40"/>
+      <c r="AG197" s="40"/>
+      <c r="AH197" s="40"/>
+    </row>
+    <row r="198" spans="12:34">
+      <c r="L198" s="40"/>
+      <c r="M198" s="40"/>
+      <c r="N198" s="40"/>
+      <c r="O198" s="40"/>
+      <c r="P198" s="40"/>
+      <c r="Q198" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="R198" s="40" t="s">
+        <v>1003</v>
+      </c>
+      <c r="S198" s="40" t="s">
+        <v>1021</v>
+      </c>
+      <c r="T198" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U198" s="40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="V198" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W198" s="42" t="s">
+        <v>1108</v>
+      </c>
+      <c r="X198" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y198" s="40"/>
+      <c r="Z198" s="40"/>
+      <c r="AA198" s="40"/>
+      <c r="AB198" s="40"/>
+      <c r="AC198" s="40"/>
+      <c r="AD198" s="40"/>
+      <c r="AE198" s="40"/>
+      <c r="AF198" s="40"/>
+      <c r="AG198" s="40"/>
+      <c r="AH198" s="40"/>
+    </row>
+    <row r="199" spans="12:34">
+      <c r="L199" s="40"/>
+      <c r="M199" s="40"/>
+      <c r="N199" s="40"/>
+      <c r="O199" s="40"/>
+      <c r="P199" s="40"/>
+      <c r="Q199" s="40"/>
+      <c r="R199" s="40"/>
+      <c r="S199" s="40"/>
+      <c r="T199" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U199" s="40" t="s">
+        <v>1074</v>
+      </c>
+      <c r="V199" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W199" s="42" t="s">
+        <v>1109</v>
+      </c>
+      <c r="X199" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y199" s="40"/>
+      <c r="Z199" s="40"/>
+      <c r="AA199" s="40"/>
+      <c r="AB199" s="40"/>
+      <c r="AC199" s="40"/>
+      <c r="AD199" s="40"/>
+      <c r="AE199" s="40"/>
+      <c r="AF199" s="40"/>
+      <c r="AG199" s="40"/>
+      <c r="AH199" s="40"/>
+    </row>
+    <row r="200" spans="12:34">
+      <c r="L200" s="40"/>
+      <c r="M200" s="40"/>
+      <c r="N200" s="40"/>
+      <c r="O200" s="40"/>
+      <c r="P200" s="40"/>
+      <c r="Q200" s="40"/>
+      <c r="R200" s="40"/>
+      <c r="S200" s="40"/>
+      <c r="T200" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U200" s="40" t="s">
+        <v>1072</v>
+      </c>
+      <c r="V200" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W200" s="42" t="s">
+        <v>1110</v>
+      </c>
+      <c r="X200" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y200" s="40"/>
+      <c r="Z200" s="40"/>
+      <c r="AA200" s="40"/>
+      <c r="AB200" s="40"/>
+      <c r="AC200" s="40"/>
+      <c r="AD200" s="40"/>
+      <c r="AE200" s="40"/>
+      <c r="AF200" s="40"/>
+      <c r="AG200" s="40"/>
+      <c r="AH200" s="40"/>
+    </row>
+    <row r="201" spans="12:34">
+      <c r="L201" s="40"/>
+      <c r="M201" s="40"/>
+      <c r="N201" s="40"/>
+      <c r="O201" s="40"/>
+      <c r="P201" s="40"/>
+      <c r="Q201" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R201" s="40" t="s">
+        <v>1070</v>
+      </c>
+      <c r="S201" s="40"/>
+      <c r="T201" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U201" s="40" t="s">
+        <v>1069</v>
+      </c>
+      <c r="V201" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W201" s="42" t="s">
+        <v>1111</v>
+      </c>
+      <c r="X201" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y201" s="40"/>
+      <c r="Z201" s="40"/>
+      <c r="AA201" s="40"/>
+      <c r="AB201" s="40"/>
+      <c r="AC201" s="40"/>
+      <c r="AD201" s="40"/>
+      <c r="AE201" s="40"/>
+      <c r="AF201" s="40"/>
+      <c r="AG201" s="40"/>
+      <c r="AH201" s="40"/>
+    </row>
+    <row r="202" spans="12:34">
+      <c r="L202" s="40"/>
+      <c r="M202" s="40"/>
+      <c r="N202" s="40"/>
+      <c r="O202" s="40"/>
+      <c r="P202" s="40"/>
+      <c r="Q202" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R202" s="40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="S202" s="40"/>
+      <c r="T202" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U202" s="40" t="s">
+        <v>1076</v>
+      </c>
+      <c r="V202" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W202" s="42" t="s">
+        <v>1112</v>
+      </c>
+      <c r="X202" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y202" s="40"/>
+      <c r="Z202" s="40"/>
+      <c r="AA202" s="40"/>
+      <c r="AB202" s="40"/>
+      <c r="AC202" s="40"/>
+      <c r="AD202" s="40"/>
+      <c r="AE202" s="40"/>
+      <c r="AF202" s="40"/>
+      <c r="AG202" s="40"/>
+      <c r="AH202" s="40"/>
+    </row>
+    <row r="203" spans="12:34">
+      <c r="L203" s="40"/>
+      <c r="M203" s="40"/>
+      <c r="N203" s="40"/>
+      <c r="O203" s="40"/>
+      <c r="P203" s="40"/>
+      <c r="Q203" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R203" s="40" t="s">
+        <v>1005</v>
+      </c>
+      <c r="S203" s="40"/>
+      <c r="T203" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U203" s="40" t="s">
+        <v>1075</v>
+      </c>
+      <c r="V203" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W203" s="42" t="s">
+        <v>1113</v>
+      </c>
+      <c r="X203" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y203" s="40"/>
+      <c r="Z203" s="40"/>
+      <c r="AA203" s="40"/>
+      <c r="AB203" s="40"/>
+      <c r="AC203" s="40"/>
+      <c r="AD203" s="40"/>
+      <c r="AE203" s="40"/>
+      <c r="AF203" s="40"/>
+      <c r="AG203" s="40"/>
+      <c r="AH203" s="40"/>
+    </row>
+    <row r="204" spans="12:34">
+      <c r="L204" s="40"/>
+      <c r="M204" s="40"/>
+      <c r="N204" s="40"/>
+      <c r="O204" s="40"/>
+      <c r="P204" s="40"/>
+      <c r="Q204" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R204" s="40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="S204" s="40"/>
+      <c r="T204" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U204" s="40" t="s">
+        <v>1078</v>
+      </c>
+      <c r="V204" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W204" s="42" t="s">
+        <v>1114</v>
+      </c>
+      <c r="X204" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y204" s="40"/>
+      <c r="Z204" s="40"/>
+      <c r="AA204" s="40"/>
+      <c r="AB204" s="40"/>
+      <c r="AC204" s="40"/>
+      <c r="AD204" s="40"/>
+      <c r="AE204" s="40"/>
+      <c r="AF204" s="40"/>
+      <c r="AG204" s="40"/>
+      <c r="AH204" s="40"/>
+    </row>
+    <row r="205" spans="12:34">
+      <c r="L205" s="40"/>
+      <c r="M205" s="40"/>
+      <c r="N205" s="40"/>
+      <c r="O205" s="40"/>
+      <c r="P205" s="40"/>
+      <c r="Q205" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R205" s="40" t="s">
+        <v>1074</v>
+      </c>
+      <c r="S205" s="40"/>
+      <c r="T205" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U205" s="40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="V205" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W205" s="42" t="s">
+        <v>1115</v>
+      </c>
+      <c r="X205" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y205" s="40"/>
+      <c r="Z205" s="40"/>
+      <c r="AA205" s="40"/>
+      <c r="AB205" s="40"/>
+      <c r="AC205" s="40"/>
+      <c r="AD205" s="40"/>
+      <c r="AE205" s="40"/>
+      <c r="AF205" s="40"/>
+      <c r="AG205" s="40"/>
+      <c r="AH205" s="40"/>
+    </row>
+    <row r="206" spans="12:34">
+      <c r="L206" s="40"/>
+      <c r="M206" s="40"/>
+      <c r="N206" s="40"/>
+      <c r="O206" s="40"/>
+      <c r="P206" s="40"/>
+      <c r="Q206" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R206" s="40" t="s">
+        <v>1072</v>
+      </c>
+      <c r="S206" s="40"/>
+      <c r="T206" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U206" s="40" t="s">
+        <v>1077</v>
+      </c>
+      <c r="V206" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W206" s="42" t="s">
+        <v>1116</v>
+      </c>
+      <c r="X206" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y206" s="40"/>
+      <c r="Z206" s="40"/>
+      <c r="AA206" s="40"/>
+      <c r="AB206" s="40"/>
+      <c r="AC206" s="40"/>
+      <c r="AD206" s="40"/>
+      <c r="AE206" s="40"/>
+      <c r="AF206" s="40"/>
+      <c r="AG206" s="40"/>
+      <c r="AH206" s="40"/>
+    </row>
+    <row r="207" spans="12:34">
+      <c r="L207" s="40"/>
+      <c r="M207" s="40"/>
+      <c r="N207" s="40"/>
+      <c r="O207" s="40"/>
+      <c r="P207" s="40"/>
+      <c r="Q207" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R207" s="40" t="s">
+        <v>1069</v>
+      </c>
+      <c r="S207" s="40"/>
+      <c r="T207" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U207" s="40" t="s">
+        <v>1081</v>
+      </c>
+      <c r="V207" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W207" s="42" t="s">
+        <v>1117</v>
+      </c>
+      <c r="X207" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y207" s="40"/>
+      <c r="Z207" s="40"/>
+      <c r="AA207" s="40"/>
+      <c r="AB207" s="40"/>
+      <c r="AC207" s="40"/>
+      <c r="AD207" s="40"/>
+      <c r="AE207" s="40"/>
+      <c r="AF207" s="40"/>
+      <c r="AG207" s="40"/>
+      <c r="AH207" s="40"/>
+    </row>
+    <row r="208" spans="12:34">
+      <c r="L208" s="40"/>
+      <c r="M208" s="40"/>
+      <c r="N208" s="40"/>
+      <c r="O208" s="40"/>
+      <c r="P208" s="40"/>
+      <c r="Q208" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R208" s="40" t="s">
+        <v>1076</v>
+      </c>
+      <c r="S208" s="40"/>
+      <c r="T208" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U208" s="40" t="s">
+        <v>1082</v>
+      </c>
+      <c r="V208" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W208" s="42" t="s">
+        <v>1118</v>
+      </c>
+      <c r="X208" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y208" s="40"/>
+      <c r="Z208" s="40"/>
+      <c r="AA208" s="40"/>
+      <c r="AB208" s="40"/>
+      <c r="AC208" s="40"/>
+      <c r="AD208" s="40"/>
+      <c r="AE208" s="40"/>
+      <c r="AF208" s="40"/>
+      <c r="AG208" s="40"/>
+      <c r="AH208" s="40"/>
+    </row>
+    <row r="209" spans="12:34">
+      <c r="L209" s="40"/>
+      <c r="M209" s="40"/>
+      <c r="N209" s="40"/>
+      <c r="O209" s="40"/>
+      <c r="P209" s="40"/>
+      <c r="Q209" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R209" s="40" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S209" s="40"/>
+      <c r="T209" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U209" s="40" t="s">
+        <v>1080</v>
+      </c>
+      <c r="V209" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W209" s="42" t="s">
+        <v>1119</v>
+      </c>
+      <c r="X209" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y209" s="40"/>
+      <c r="Z209" s="40"/>
+      <c r="AA209" s="40"/>
+      <c r="AB209" s="40"/>
+      <c r="AC209" s="40"/>
+      <c r="AD209" s="40"/>
+      <c r="AE209" s="40"/>
+      <c r="AF209" s="40"/>
+      <c r="AG209" s="40"/>
+      <c r="AH209" s="40"/>
+    </row>
+    <row r="210" spans="12:34">
+      <c r="L210" s="40"/>
+      <c r="M210" s="40"/>
+      <c r="N210" s="40"/>
+      <c r="O210" s="40"/>
+      <c r="P210" s="40"/>
+      <c r="Q210" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R210" s="40" t="s">
+        <v>1078</v>
+      </c>
+      <c r="S210" s="40"/>
+      <c r="T210" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U210" s="40" t="s">
+        <v>1085</v>
+      </c>
+      <c r="V210" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W210" s="42" t="s">
+        <v>1120</v>
+      </c>
+      <c r="X210" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y210" s="40"/>
+      <c r="Z210" s="40"/>
+      <c r="AA210" s="40"/>
+      <c r="AB210" s="40"/>
+      <c r="AC210" s="40"/>
+      <c r="AD210" s="40"/>
+      <c r="AE210" s="40"/>
+      <c r="AF210" s="40"/>
+      <c r="AG210" s="40"/>
+      <c r="AH210" s="40"/>
+    </row>
+    <row r="211" spans="12:34">
+      <c r="L211" s="40"/>
+      <c r="M211" s="40"/>
+      <c r="N211" s="40"/>
+      <c r="O211" s="40"/>
+      <c r="P211" s="40"/>
+      <c r="Q211" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R211" s="40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="S211" s="40"/>
+      <c r="T211" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U211" s="40" t="s">
+        <v>1084</v>
+      </c>
+      <c r="V211" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W211" s="42" t="s">
+        <v>1121</v>
+      </c>
+      <c r="X211" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y211" s="40"/>
+      <c r="Z211" s="40"/>
+      <c r="AA211" s="40"/>
+      <c r="AB211" s="40"/>
+      <c r="AC211" s="40"/>
+      <c r="AD211" s="40"/>
+      <c r="AE211" s="40"/>
+      <c r="AF211" s="40"/>
+      <c r="AG211" s="40"/>
+      <c r="AH211" s="40"/>
+    </row>
+    <row r="212" spans="12:34">
+      <c r="L212" s="40"/>
+      <c r="M212" s="40"/>
+      <c r="N212" s="40"/>
+      <c r="O212" s="40"/>
+      <c r="P212" s="40"/>
+      <c r="Q212" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R212" s="40" t="s">
+        <v>1077</v>
+      </c>
+      <c r="S212" s="40"/>
+      <c r="T212" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U212" s="40" t="s">
+        <v>1083</v>
+      </c>
+      <c r="V212" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W212" s="42" t="s">
+        <v>1122</v>
+      </c>
+      <c r="X212" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y212" s="40"/>
+      <c r="Z212" s="40"/>
+      <c r="AA212" s="40"/>
+      <c r="AB212" s="40"/>
+      <c r="AC212" s="40"/>
+      <c r="AD212" s="40"/>
+      <c r="AE212" s="40"/>
+      <c r="AF212" s="40"/>
+      <c r="AG212" s="40"/>
+      <c r="AH212" s="40"/>
+    </row>
+    <row r="213" spans="12:34">
+      <c r="L213" s="40"/>
+      <c r="M213" s="40"/>
+      <c r="N213" s="40"/>
+      <c r="O213" s="40"/>
+      <c r="P213" s="40"/>
+      <c r="Q213" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R213" s="40" t="s">
+        <v>1081</v>
+      </c>
+      <c r="S213" s="40"/>
+      <c r="T213" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U213" s="40" t="s">
+        <v>1087</v>
+      </c>
+      <c r="V213" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W213" s="42" t="s">
+        <v>1123</v>
+      </c>
+      <c r="X213" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y213" s="40"/>
+      <c r="Z213" s="40"/>
+      <c r="AA213" s="40"/>
+      <c r="AB213" s="40"/>
+      <c r="AC213" s="40"/>
+      <c r="AD213" s="40"/>
+      <c r="AE213" s="40"/>
+      <c r="AF213" s="40"/>
+      <c r="AG213" s="40"/>
+      <c r="AH213" s="40"/>
+    </row>
+    <row r="214" spans="12:34">
+      <c r="L214" s="40"/>
+      <c r="M214" s="40"/>
+      <c r="N214" s="40"/>
+      <c r="O214" s="40"/>
+      <c r="P214" s="40"/>
+      <c r="Q214" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R214" s="40" t="s">
+        <v>1082</v>
+      </c>
+      <c r="S214" s="40"/>
+      <c r="T214" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U214" s="40" t="s">
+        <v>1088</v>
+      </c>
+      <c r="V214" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W214" s="42" t="s">
+        <v>1124</v>
+      </c>
+      <c r="X214" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y214" s="40"/>
+      <c r="Z214" s="40"/>
+      <c r="AA214" s="40"/>
+      <c r="AB214" s="40"/>
+      <c r="AC214" s="40"/>
+      <c r="AD214" s="40"/>
+      <c r="AE214" s="40"/>
+      <c r="AF214" s="40"/>
+      <c r="AG214" s="40"/>
+      <c r="AH214" s="40"/>
+    </row>
+    <row r="215" spans="12:34">
+      <c r="L215" s="40"/>
+      <c r="M215" s="40"/>
+      <c r="N215" s="40"/>
+      <c r="O215" s="40"/>
+      <c r="P215" s="40"/>
+      <c r="Q215" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R215" s="40" t="s">
+        <v>1080</v>
+      </c>
+      <c r="S215" s="40"/>
+      <c r="T215" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U215" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="V215" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W215" s="42" t="s">
+        <v>1125</v>
+      </c>
+      <c r="X215" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y215" s="40"/>
+      <c r="Z215" s="40"/>
+      <c r="AA215" s="40"/>
+      <c r="AB215" s="40"/>
+      <c r="AC215" s="40"/>
+      <c r="AD215" s="40"/>
+      <c r="AE215" s="40"/>
+      <c r="AF215" s="40"/>
+      <c r="AG215" s="40"/>
+      <c r="AH215" s="40"/>
+    </row>
+    <row r="216" spans="12:34">
+      <c r="L216" s="40"/>
+      <c r="M216" s="40"/>
+      <c r="N216" s="40"/>
+      <c r="O216" s="40"/>
+      <c r="P216" s="40"/>
+      <c r="Q216" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R216" s="40" t="s">
+        <v>1085</v>
+      </c>
+      <c r="S216" s="40"/>
+      <c r="T216" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U216" s="40" t="s">
+        <v>1091</v>
+      </c>
+      <c r="V216" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W216" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="X216" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y216" s="40"/>
+      <c r="Z216" s="40"/>
+      <c r="AA216" s="40"/>
+      <c r="AB216" s="40"/>
+      <c r="AC216" s="40"/>
+      <c r="AD216" s="40"/>
+      <c r="AE216" s="40"/>
+      <c r="AF216" s="40"/>
+      <c r="AG216" s="40"/>
+      <c r="AH216" s="40"/>
+    </row>
+    <row r="217" spans="12:34">
+      <c r="L217" s="40"/>
+      <c r="M217" s="40"/>
+      <c r="N217" s="40"/>
+      <c r="O217" s="40"/>
+      <c r="P217" s="40"/>
+      <c r="Q217" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R217" s="40" t="s">
+        <v>1084</v>
+      </c>
+      <c r="S217" s="40"/>
+      <c r="T217" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U217" s="40" t="s">
+        <v>1090</v>
+      </c>
+      <c r="V217" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W217" s="42" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X217" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y217" s="40"/>
+      <c r="Z217" s="40"/>
+      <c r="AA217" s="40"/>
+      <c r="AB217" s="40"/>
+      <c r="AC217" s="40"/>
+      <c r="AD217" s="40"/>
+      <c r="AE217" s="40"/>
+      <c r="AF217" s="40"/>
+      <c r="AG217" s="40"/>
+      <c r="AH217" s="40"/>
+    </row>
+    <row r="218" spans="12:34">
+      <c r="L218" s="40"/>
+      <c r="M218" s="40"/>
+      <c r="N218" s="40"/>
+      <c r="O218" s="40"/>
+      <c r="P218" s="40"/>
+      <c r="Q218" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R218" s="40" t="s">
+        <v>1083</v>
+      </c>
+      <c r="S218" s="40"/>
+      <c r="T218" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U218" s="40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="V218" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W218" s="42" t="s">
+        <v>1128</v>
+      </c>
+      <c r="X218" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y218" s="40"/>
+      <c r="Z218" s="40"/>
+      <c r="AA218" s="40"/>
+      <c r="AB218" s="40"/>
+      <c r="AC218" s="40"/>
+      <c r="AD218" s="40"/>
+      <c r="AE218" s="40"/>
+      <c r="AF218" s="40"/>
+      <c r="AG218" s="40"/>
+      <c r="AH218" s="40"/>
+    </row>
+    <row r="219" spans="12:34">
+      <c r="L219" s="40"/>
+      <c r="M219" s="40"/>
+      <c r="N219" s="40"/>
+      <c r="O219" s="40"/>
+      <c r="P219" s="40"/>
+      <c r="Q219" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R219" s="40" t="s">
+        <v>1087</v>
+      </c>
+      <c r="S219" s="40"/>
+      <c r="T219" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U219" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="V219" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W219" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="X219" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y219" s="40"/>
+      <c r="Z219" s="40"/>
+      <c r="AA219" s="40"/>
+      <c r="AB219" s="40"/>
+      <c r="AC219" s="40"/>
+      <c r="AD219" s="40"/>
+      <c r="AE219" s="40"/>
+      <c r="AF219" s="40"/>
+      <c r="AG219" s="40"/>
+      <c r="AH219" s="40"/>
+    </row>
+    <row r="220" spans="12:34">
+      <c r="L220" s="40"/>
+      <c r="M220" s="40"/>
+      <c r="N220" s="40"/>
+      <c r="O220" s="40"/>
+      <c r="P220" s="40"/>
+      <c r="Q220" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R220" s="40" t="s">
+        <v>1088</v>
+      </c>
+      <c r="S220" s="40"/>
+      <c r="T220" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U220" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="V220" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W220" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="X220" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y220" s="40"/>
+      <c r="Z220" s="40"/>
+      <c r="AA220" s="40"/>
+      <c r="AB220" s="40"/>
+      <c r="AC220" s="40"/>
+      <c r="AD220" s="40"/>
+      <c r="AE220" s="40"/>
+      <c r="AF220" s="40"/>
+      <c r="AG220" s="40"/>
+      <c r="AH220" s="40"/>
+    </row>
+    <row r="221" spans="12:34">
+      <c r="L221" s="40"/>
+      <c r="M221" s="40"/>
+      <c r="N221" s="40"/>
+      <c r="O221" s="40"/>
+      <c r="P221" s="40"/>
+      <c r="Q221" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R221" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="S221" s="40"/>
+      <c r="T221" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U221" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="V221" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W221" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="X221" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y221" s="40"/>
+      <c r="Z221" s="40"/>
+      <c r="AA221" s="40"/>
+      <c r="AB221" s="40"/>
+      <c r="AC221" s="40"/>
+      <c r="AD221" s="40"/>
+      <c r="AE221" s="40"/>
+      <c r="AF221" s="40"/>
+      <c r="AG221" s="40"/>
+      <c r="AH221" s="40"/>
+    </row>
+    <row r="222" spans="12:34">
+      <c r="L222" s="40"/>
+      <c r="M222" s="40"/>
+      <c r="N222" s="40"/>
+      <c r="O222" s="40"/>
+      <c r="P222" s="40"/>
+      <c r="Q222" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R222" s="40" t="s">
+        <v>1091</v>
+      </c>
+      <c r="S222" s="40"/>
+      <c r="T222" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U222" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="V222" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W222" s="42" t="s">
+        <v>1130</v>
+      </c>
+      <c r="X222" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y222" s="40"/>
+      <c r="Z222" s="40"/>
+      <c r="AA222" s="40"/>
+      <c r="AB222" s="40"/>
+      <c r="AC222" s="40"/>
+      <c r="AD222" s="40"/>
+      <c r="AE222" s="40"/>
+      <c r="AF222" s="40"/>
+      <c r="AG222" s="40"/>
+      <c r="AH222" s="40"/>
+    </row>
+    <row r="223" spans="12:34">
+      <c r="L223" s="40"/>
+      <c r="M223" s="40"/>
+      <c r="N223" s="40"/>
+      <c r="O223" s="40"/>
+      <c r="P223" s="40"/>
+      <c r="Q223" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R223" s="40" t="s">
+        <v>1090</v>
+      </c>
+      <c r="S223" s="40"/>
+      <c r="T223" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U223" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="V223" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W223" s="42" t="s">
+        <v>1129</v>
+      </c>
+      <c r="X223" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y223" s="40"/>
+      <c r="Z223" s="40"/>
+      <c r="AA223" s="40"/>
+      <c r="AB223" s="40"/>
+      <c r="AC223" s="40"/>
+      <c r="AD223" s="40"/>
+      <c r="AE223" s="40"/>
+      <c r="AF223" s="40"/>
+      <c r="AG223" s="40"/>
+      <c r="AH223" s="40"/>
+    </row>
+    <row r="224" spans="12:34">
+      <c r="L224" s="40"/>
+      <c r="M224" s="40"/>
+      <c r="N224" s="40"/>
+      <c r="O224" s="40"/>
+      <c r="P224" s="40"/>
+      <c r="Q224" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="R224" s="40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="S224" s="40"/>
+      <c r="T224" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U224" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="V224" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W224" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="X224" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y224" s="40"/>
+      <c r="Z224" s="40"/>
+      <c r="AA224" s="40"/>
+      <c r="AB224" s="40"/>
+      <c r="AC224" s="40"/>
+      <c r="AD224" s="40"/>
+      <c r="AE224" s="40"/>
+      <c r="AF224" s="40"/>
+      <c r="AG224" s="40"/>
+      <c r="AH224" s="40"/>
+    </row>
+    <row r="225" spans="12:34">
+      <c r="L225" s="40"/>
+      <c r="M225" s="40"/>
+      <c r="N225" s="40"/>
+      <c r="O225" s="40"/>
+      <c r="P225" s="40"/>
+      <c r="Q225" s="40"/>
+      <c r="R225" s="40"/>
+      <c r="S225" s="40"/>
+      <c r="T225" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U225" s="40" t="s">
+        <v>1093</v>
+      </c>
+      <c r="V225" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W225" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="X225" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y225" s="40"/>
+      <c r="Z225" s="40"/>
+      <c r="AA225" s="40"/>
+      <c r="AB225" s="40"/>
+      <c r="AC225" s="40"/>
+      <c r="AD225" s="40"/>
+      <c r="AE225" s="40"/>
+      <c r="AF225" s="40"/>
+      <c r="AG225" s="40"/>
+      <c r="AH225" s="40"/>
+    </row>
+    <row r="226" spans="12:34">
+      <c r="L226" s="40"/>
+      <c r="M226" s="40"/>
+      <c r="N226" s="40" t="s">
+        <v>1016</v>
+      </c>
+      <c r="O226" s="40" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P226" s="40" t="s">
+        <v>1186</v>
+      </c>
+      <c r="Q226" s="40"/>
+      <c r="R226" s="40"/>
+      <c r="S226" s="40"/>
+      <c r="T226" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U226" s="40" t="s">
+        <v>1094</v>
+      </c>
+      <c r="V226" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W226" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="X226" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y226" s="40"/>
+      <c r="Z226" s="40"/>
+      <c r="AA226" s="40"/>
+      <c r="AB226" s="40"/>
+      <c r="AC226" s="40"/>
+      <c r="AD226" s="40"/>
+      <c r="AE226" s="40"/>
+      <c r="AF226" s="40"/>
+      <c r="AG226" s="40"/>
+      <c r="AH226" s="40"/>
+    </row>
+    <row r="227" spans="12:34">
+      <c r="L227" s="40"/>
+      <c r="M227" s="40"/>
+      <c r="N227" s="40" t="s">
+        <v>1183</v>
+      </c>
+      <c r="O227" s="40" t="s">
+        <v>1185</v>
+      </c>
+      <c r="P227" s="40" t="s">
+        <v>1187</v>
+      </c>
+      <c r="Q227" s="40"/>
+      <c r="R227" s="40"/>
+      <c r="S227" s="40"/>
+      <c r="T227" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U227" s="40" t="s">
+        <v>1095</v>
+      </c>
+      <c r="V227" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W227" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="X227" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y227" s="40"/>
+      <c r="Z227" s="40"/>
+      <c r="AA227" s="40"/>
+      <c r="AB227" s="40"/>
+      <c r="AC227" s="40"/>
+      <c r="AD227" s="40"/>
+      <c r="AE227" s="40"/>
+      <c r="AF227" s="40"/>
+      <c r="AG227" s="40"/>
+      <c r="AH227" s="40"/>
+    </row>
+    <row r="228" spans="12:34">
+      <c r="L228" s="40"/>
+      <c r="M228" s="40"/>
+      <c r="N228" s="40" t="s">
+        <v>1188</v>
+      </c>
+      <c r="O228" s="40" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P228" s="40" t="s">
+        <v>1190</v>
+      </c>
+      <c r="Q228" s="40"/>
+      <c r="R228" s="40"/>
+      <c r="S228" s="40"/>
+      <c r="T228" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U228" s="40" t="s">
+        <v>1096</v>
+      </c>
+      <c r="V228" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W228" s="42" t="s">
+        <v>1131</v>
+      </c>
+      <c r="X228" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y228" s="40"/>
+      <c r="Z228" s="40"/>
+      <c r="AA228" s="40"/>
+      <c r="AB228" s="40"/>
+      <c r="AC228" s="40"/>
+      <c r="AD228" s="40"/>
+      <c r="AE228" s="40"/>
+      <c r="AF228" s="40"/>
+      <c r="AG228" s="40"/>
+      <c r="AH228" s="40"/>
+    </row>
+    <row r="229" spans="12:34">
+      <c r="L229" s="40"/>
+      <c r="M229" s="40"/>
+      <c r="N229" s="40"/>
+      <c r="O229" s="40"/>
+      <c r="P229" s="40"/>
+      <c r="Q229" s="40"/>
+      <c r="R229" s="40"/>
+      <c r="S229" s="40"/>
+      <c r="T229" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U229" s="40" t="s">
+        <v>1097</v>
+      </c>
+      <c r="V229" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W229" s="42" t="s">
+        <v>1132</v>
+      </c>
+      <c r="X229" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y229" s="40"/>
+      <c r="Z229" s="40"/>
+      <c r="AA229" s="40"/>
+      <c r="AB229" s="40"/>
+      <c r="AC229" s="40"/>
+      <c r="AD229" s="40"/>
+      <c r="AE229" s="40"/>
+      <c r="AF229" s="40"/>
+      <c r="AG229" s="40"/>
+      <c r="AH229" s="40"/>
+    </row>
+    <row r="230" spans="12:34">
+      <c r="L230" s="40"/>
+      <c r="M230" s="40"/>
+      <c r="N230" s="40"/>
+      <c r="O230" s="40"/>
+      <c r="P230" s="40"/>
+      <c r="Q230" s="40"/>
+      <c r="R230" s="40"/>
+      <c r="S230" s="40"/>
+      <c r="T230" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U230" s="40" t="s">
+        <v>1098</v>
+      </c>
+      <c r="V230" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W230" s="42" t="s">
+        <v>1133</v>
+      </c>
+      <c r="X230" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y230" s="40"/>
+      <c r="Z230" s="40"/>
+      <c r="AA230" s="40"/>
+      <c r="AB230" s="40"/>
+      <c r="AC230" s="40"/>
+      <c r="AD230" s="40"/>
+      <c r="AE230" s="40"/>
+      <c r="AF230" s="40"/>
+      <c r="AG230" s="40"/>
+      <c r="AH230" s="40"/>
+    </row>
+    <row r="231" spans="12:34">
+      <c r="L231" s="40"/>
+      <c r="M231" s="40"/>
+      <c r="N231" s="40"/>
+      <c r="O231" s="40"/>
+      <c r="P231" s="40"/>
+      <c r="Q231" s="40"/>
+      <c r="R231" s="40"/>
+      <c r="S231" s="40"/>
+      <c r="T231" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U231" s="40" t="s">
+        <v>1099</v>
+      </c>
+      <c r="V231" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W231" s="42" t="s">
+        <v>1134</v>
+      </c>
+      <c r="X231" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y231" s="40"/>
+      <c r="Z231" s="40"/>
+      <c r="AA231" s="40"/>
+      <c r="AB231" s="40"/>
+      <c r="AC231" s="40"/>
+      <c r="AD231" s="40"/>
+      <c r="AE231" s="40"/>
+      <c r="AF231" s="40"/>
+      <c r="AG231" s="40"/>
+      <c r="AH231" s="40"/>
+    </row>
+    <row r="232" spans="12:34">
+      <c r="L232" s="40"/>
+      <c r="M232" s="40"/>
+      <c r="N232" s="40"/>
+      <c r="O232" s="40"/>
+      <c r="P232" s="40"/>
+      <c r="Q232" s="40"/>
+      <c r="R232" s="40"/>
+      <c r="S232" s="40"/>
+      <c r="T232" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U232" s="40" t="s">
+        <v>1100</v>
+      </c>
+      <c r="V232" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W232" s="42" t="s">
+        <v>1135</v>
+      </c>
+      <c r="X232" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y232" s="40"/>
+      <c r="Z232" s="40"/>
+      <c r="AA232" s="40"/>
+      <c r="AB232" s="40"/>
+      <c r="AC232" s="40"/>
+      <c r="AD232" s="40"/>
+      <c r="AE232" s="40"/>
+      <c r="AF232" s="40"/>
+      <c r="AG232" s="40"/>
+      <c r="AH232" s="40"/>
+    </row>
+    <row r="233" spans="12:34">
+      <c r="L233" s="40"/>
+      <c r="M233" s="40"/>
+      <c r="N233" s="40"/>
+      <c r="O233" s="40"/>
+      <c r="P233" s="40"/>
+      <c r="Q233" s="40"/>
+      <c r="R233" s="40"/>
+      <c r="S233" s="40"/>
+      <c r="T233" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U233" s="40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="V233" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W233" s="42" t="s">
+        <v>1136</v>
+      </c>
+      <c r="X233" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y233" s="40"/>
+      <c r="Z233" s="40"/>
+      <c r="AA233" s="40"/>
+      <c r="AB233" s="40"/>
+      <c r="AC233" s="40"/>
+      <c r="AD233" s="40"/>
+      <c r="AE233" s="40"/>
+      <c r="AF233" s="40"/>
+      <c r="AG233" s="40"/>
+      <c r="AH233" s="40"/>
+    </row>
+    <row r="234" spans="12:34">
+      <c r="L234" s="40"/>
+      <c r="M234" s="40"/>
+      <c r="N234" s="40"/>
+      <c r="O234" s="40"/>
+      <c r="P234" s="40"/>
+      <c r="Q234" s="40"/>
+      <c r="R234" s="40"/>
+      <c r="S234" s="40"/>
+      <c r="T234" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U234" s="40" t="s">
+        <v>1102</v>
+      </c>
+      <c r="V234" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W234" s="42" t="s">
+        <v>1137</v>
+      </c>
+      <c r="X234" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y234" s="40"/>
+      <c r="Z234" s="40"/>
+      <c r="AA234" s="40"/>
+      <c r="AB234" s="40"/>
+      <c r="AC234" s="40"/>
+      <c r="AD234" s="40"/>
+      <c r="AE234" s="40"/>
+      <c r="AF234" s="40"/>
+      <c r="AG234" s="40"/>
+      <c r="AH234" s="40"/>
+    </row>
+    <row r="235" spans="12:34">
+      <c r="L235" s="40"/>
+      <c r="M235" s="40"/>
+      <c r="N235" s="40"/>
+      <c r="O235" s="40"/>
+      <c r="P235" s="40"/>
+      <c r="Q235" s="40"/>
+      <c r="R235" s="40"/>
+      <c r="S235" s="40"/>
+      <c r="T235" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U235" s="40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="V235" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W235" s="42" t="s">
+        <v>1138</v>
+      </c>
+      <c r="X235" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y235" s="40"/>
+      <c r="Z235" s="40"/>
+      <c r="AA235" s="40"/>
+      <c r="AB235" s="40"/>
+      <c r="AC235" s="40"/>
+      <c r="AD235" s="40"/>
+      <c r="AE235" s="40"/>
+      <c r="AF235" s="40"/>
+      <c r="AG235" s="40"/>
+      <c r="AH235" s="40"/>
+    </row>
+    <row r="236" spans="12:34">
+      <c r="L236" s="40"/>
+      <c r="M236" s="40"/>
+      <c r="N236" s="40"/>
+      <c r="O236" s="40"/>
+      <c r="P236" s="40"/>
+      <c r="Q236" s="40"/>
+      <c r="R236" s="40"/>
+      <c r="S236" s="40"/>
+      <c r="T236" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U236" s="40" t="s">
+        <v>1104</v>
+      </c>
+      <c r="V236" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W236" s="42" t="s">
+        <v>1139</v>
+      </c>
+      <c r="X236" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y236" s="40"/>
+      <c r="Z236" s="40"/>
+      <c r="AA236" s="40"/>
+      <c r="AB236" s="40"/>
+      <c r="AC236" s="40"/>
+      <c r="AD236" s="40"/>
+      <c r="AE236" s="40"/>
+      <c r="AF236" s="40"/>
+      <c r="AG236" s="40"/>
+      <c r="AH236" s="40"/>
+    </row>
+    <row r="237" spans="12:34">
+      <c r="L237" s="40"/>
+      <c r="M237" s="40"/>
+      <c r="N237" s="40"/>
+      <c r="O237" s="40"/>
+      <c r="P237" s="40"/>
+      <c r="Q237" s="40"/>
+      <c r="R237" s="40"/>
+      <c r="S237" s="40"/>
+      <c r="T237" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U237" s="40" t="s">
+        <v>923</v>
+      </c>
+      <c r="V237" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W237" s="42" t="s">
+        <v>1140</v>
+      </c>
+      <c r="X237" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y237" s="40"/>
+      <c r="Z237" s="40"/>
+      <c r="AA237" s="40"/>
+      <c r="AB237" s="40"/>
+      <c r="AC237" s="40"/>
+      <c r="AD237" s="40"/>
+      <c r="AE237" s="40"/>
+      <c r="AF237" s="40"/>
+      <c r="AG237" s="40"/>
+      <c r="AH237" s="40"/>
+    </row>
+    <row r="238" spans="12:34">
+      <c r="L238" s="40"/>
+      <c r="M238" s="40"/>
+      <c r="N238" s="40"/>
+      <c r="O238" s="40"/>
+      <c r="P238" s="40"/>
+      <c r="Q238" s="40"/>
+      <c r="R238" s="40"/>
+      <c r="S238" s="40"/>
+      <c r="T238" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U238" s="40" t="s">
+        <v>903</v>
+      </c>
+      <c r="V238" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W238" s="42" t="s">
+        <v>1141</v>
+      </c>
+      <c r="X238" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y238" s="40"/>
+      <c r="Z238" s="40"/>
+      <c r="AA238" s="40"/>
+      <c r="AB238" s="40"/>
+      <c r="AC238" s="40"/>
+      <c r="AD238" s="40"/>
+      <c r="AE238" s="40"/>
+      <c r="AF238" s="40"/>
+      <c r="AG238" s="40"/>
+      <c r="AH238" s="40"/>
+    </row>
+    <row r="239" spans="12:34">
+      <c r="L239" s="40"/>
+      <c r="M239" s="40"/>
+      <c r="N239" s="40"/>
+      <c r="O239" s="40"/>
+      <c r="P239" s="40"/>
+      <c r="Q239" s="40"/>
+      <c r="R239" s="40"/>
+      <c r="S239" s="40"/>
+      <c r="T239" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U239" s="40" t="s">
+        <v>900</v>
+      </c>
+      <c r="V239" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W239" s="42" t="s">
+        <v>1142</v>
+      </c>
+      <c r="X239" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y239" s="40"/>
+      <c r="Z239" s="40"/>
+      <c r="AA239" s="40"/>
+      <c r="AB239" s="40"/>
+      <c r="AC239" s="40"/>
+      <c r="AD239" s="40"/>
+      <c r="AE239" s="40"/>
+      <c r="AF239" s="40"/>
+      <c r="AG239" s="40"/>
+      <c r="AH239" s="40"/>
+    </row>
+    <row r="240" spans="12:34">
+      <c r="L240" s="40"/>
+      <c r="M240" s="40"/>
+      <c r="N240" s="40"/>
+      <c r="O240" s="40"/>
+      <c r="P240" s="40"/>
+      <c r="Q240" s="40"/>
+      <c r="R240" s="40"/>
+      <c r="S240" s="40"/>
+      <c r="T240" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U240" s="40" t="s">
+        <v>896</v>
+      </c>
+      <c r="V240" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W240" s="42" t="s">
+        <v>1143</v>
+      </c>
+      <c r="X240" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y240" s="40"/>
+      <c r="Z240" s="40"/>
+      <c r="AA240" s="40"/>
+      <c r="AB240" s="40"/>
+      <c r="AC240" s="40"/>
+      <c r="AD240" s="40"/>
+      <c r="AE240" s="40"/>
+      <c r="AF240" s="40"/>
+      <c r="AG240" s="40"/>
+      <c r="AH240" s="40"/>
+    </row>
+    <row r="241" spans="12:34">
+      <c r="L241" s="40"/>
+      <c r="M241" s="40"/>
+      <c r="N241" s="40"/>
+      <c r="O241" s="40"/>
+      <c r="P241" s="40"/>
+      <c r="Q241" s="40"/>
+      <c r="R241" s="40"/>
+      <c r="S241" s="40"/>
+      <c r="T241" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U241" s="40" t="s">
+        <v>907</v>
+      </c>
+      <c r="V241" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W241" s="42" t="s">
+        <v>1144</v>
+      </c>
+      <c r="X241" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y241" s="40"/>
+      <c r="Z241" s="40"/>
+      <c r="AA241" s="40"/>
+      <c r="AB241" s="40"/>
+      <c r="AC241" s="40"/>
+      <c r="AD241" s="40"/>
+      <c r="AE241" s="40"/>
+      <c r="AF241" s="40"/>
+      <c r="AG241" s="40"/>
+      <c r="AH241" s="40"/>
+    </row>
+    <row r="242" spans="12:34">
+      <c r="L242" s="40"/>
+      <c r="M242" s="40"/>
+      <c r="N242" s="40"/>
+      <c r="O242" s="40"/>
+      <c r="P242" s="40"/>
+      <c r="Q242" s="40"/>
+      <c r="R242" s="40"/>
+      <c r="S242" s="40"/>
+      <c r="T242" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U242" s="40" t="s">
+        <v>913</v>
+      </c>
+      <c r="V242" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W242" s="42" t="s">
+        <v>1145</v>
+      </c>
+      <c r="X242" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y242" s="40"/>
+      <c r="Z242" s="40"/>
+      <c r="AA242" s="40"/>
+      <c r="AB242" s="40"/>
+      <c r="AC242" s="40"/>
+      <c r="AD242" s="40"/>
+      <c r="AE242" s="40"/>
+      <c r="AF242" s="40"/>
+      <c r="AG242" s="40"/>
+      <c r="AH242" s="40"/>
+    </row>
+    <row r="243" spans="12:34">
+      <c r="L243" s="40"/>
+      <c r="M243" s="40"/>
+      <c r="N243" s="40"/>
+      <c r="O243" s="40"/>
+      <c r="P243" s="40"/>
+      <c r="Q243" s="40"/>
+      <c r="R243" s="40"/>
+      <c r="S243" s="40"/>
+      <c r="T243" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U243" s="40" t="s">
+        <v>892</v>
+      </c>
+      <c r="V243" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W243" s="42" t="s">
+        <v>1146</v>
+      </c>
+      <c r="X243" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y243" s="40"/>
+      <c r="Z243" s="40"/>
+      <c r="AA243" s="40"/>
+      <c r="AB243" s="40"/>
+      <c r="AC243" s="40"/>
+      <c r="AD243" s="40"/>
+      <c r="AE243" s="40"/>
+      <c r="AF243" s="40"/>
+      <c r="AG243" s="40"/>
+      <c r="AH243" s="40"/>
+    </row>
+    <row r="244" spans="12:34">
+      <c r="L244" s="40"/>
+      <c r="M244" s="40"/>
+      <c r="N244" s="40"/>
+      <c r="O244" s="40"/>
+      <c r="P244" s="40"/>
+      <c r="Q244" s="40"/>
+      <c r="R244" s="40"/>
+      <c r="S244" s="40"/>
+      <c r="T244" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U244" s="40" t="s">
+        <v>880</v>
+      </c>
+      <c r="V244" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W244" s="42" t="s">
+        <v>1147</v>
+      </c>
+      <c r="X244" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y244" s="40"/>
+      <c r="Z244" s="40"/>
+      <c r="AA244" s="40"/>
+      <c r="AB244" s="40"/>
+      <c r="AC244" s="40"/>
+      <c r="AD244" s="40"/>
+      <c r="AE244" s="40"/>
+      <c r="AF244" s="40"/>
+      <c r="AG244" s="40"/>
+      <c r="AH244" s="40"/>
+    </row>
+    <row r="245" spans="12:34">
+      <c r="L245" s="40"/>
+      <c r="M245" s="40"/>
+      <c r="N245" s="40"/>
+      <c r="O245" s="40"/>
+      <c r="P245" s="40"/>
+      <c r="Q245" s="40"/>
+      <c r="R245" s="40"/>
+      <c r="S245" s="40"/>
+      <c r="T245" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U245" s="40" t="s">
+        <v>886</v>
+      </c>
+      <c r="V245" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W245" s="42" t="s">
+        <v>1148</v>
+      </c>
+      <c r="X245" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y245" s="40"/>
+      <c r="Z245" s="40"/>
+      <c r="AA245" s="40"/>
+      <c r="AB245" s="40"/>
+      <c r="AC245" s="40"/>
+      <c r="AD245" s="40"/>
+      <c r="AE245" s="40"/>
+      <c r="AF245" s="40"/>
+      <c r="AG245" s="40"/>
+      <c r="AH245" s="40"/>
+    </row>
+    <row r="246" spans="12:34">
+      <c r="L246" s="40">
+        <v>0</v>
+      </c>
+      <c r="M246" s="40">
+        <v>1</v>
+      </c>
+      <c r="N246" s="40">
+        <v>2</v>
+      </c>
+      <c r="O246" s="40">
+        <v>3</v>
+      </c>
+      <c r="P246" s="40"/>
+      <c r="Q246" s="40"/>
+      <c r="R246" s="40" t="s">
+        <v>1007</v>
+      </c>
+      <c r="S246" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T246" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U246" s="40" t="str">
+        <f>R246&amp;S246</f>
+        <v>燃願瑪瑙碎屑</v>
+      </c>
+      <c r="V246" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W246" s="40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="X246" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y246" s="40"/>
+      <c r="Z246" s="40"/>
+      <c r="AA246" s="40"/>
+      <c r="AB246" s="40"/>
+      <c r="AC246" s="40"/>
+      <c r="AD246" s="40"/>
+      <c r="AE246" s="40"/>
+      <c r="AF246" s="40"/>
+      <c r="AG246" s="40"/>
+      <c r="AH246" s="40"/>
+    </row>
+    <row r="247" spans="12:34">
+      <c r="L247" s="43" t="s">
+        <v>1179</v>
+      </c>
+      <c r="M247" s="43" t="s">
+        <v>1180</v>
+      </c>
+      <c r="N247" s="43" t="s">
+        <v>1181</v>
+      </c>
+      <c r="O247" s="43" t="s">
+        <v>1182</v>
+      </c>
+      <c r="Q247" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="R247" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="S247" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T247" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U247" s="40" t="str">
+        <f t="shared" ref="U247:U265" si="32">R247&amp;S247</f>
+        <v>燃願瑪瑙斷片</v>
+      </c>
+      <c r="V247" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W247" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="X247" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y247" s="40"/>
+      <c r="Z247" s="40"/>
+      <c r="AA247" s="40"/>
+      <c r="AB247" s="40"/>
+      <c r="AC247" s="40"/>
+      <c r="AD247" s="40"/>
+      <c r="AE247" s="40"/>
+      <c r="AF247" s="40"/>
+      <c r="AG247" s="40"/>
+      <c r="AH247" s="40"/>
+    </row>
+    <row r="248" spans="12:34">
+      <c r="L248" s="40" t="str">
+        <f>$Q248&amp;".get("&amp;L$246&amp;"),"</f>
+        <v>滌淨青金.get(0),</v>
+      </c>
+      <c r="M248" s="40" t="str">
+        <f>$Q248&amp;".get("&amp;M$246&amp;"),"</f>
+        <v>滌淨青金.get(1),</v>
+      </c>
+      <c r="N248" s="40" t="str">
+        <f>$Q248&amp;".get("&amp;N$246&amp;"),"</f>
+        <v>滌淨青金.get(2),</v>
+      </c>
+      <c r="O248" s="40" t="str">
+        <f>$Q248&amp;".get("&amp;O$246&amp;"),"</f>
+        <v>滌淨青金.get(3),</v>
+      </c>
+      <c r="P248" s="40"/>
+      <c r="Q248" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="R248" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="S248" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="T248" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U248" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>燃願瑪瑙塊</v>
+      </c>
+      <c r="V248" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W248" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="X248" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y248" s="40"/>
+      <c r="Z248" s="40"/>
+      <c r="AA248" s="40"/>
+      <c r="AB248" s="40"/>
+      <c r="AC248" s="40"/>
+      <c r="AD248" s="40"/>
+      <c r="AE248" s="40"/>
+      <c r="AF248" s="40"/>
+      <c r="AG248" s="40"/>
+      <c r="AH248" s="40"/>
+    </row>
+    <row r="249" spans="12:34">
+      <c r="L249" s="40" t="str">
+        <f t="shared" ref="L249:O264" si="33">$Q249&amp;".get("&amp;L$246&amp;"),"</f>
+        <v>最勝紫晶.get(0),</v>
+      </c>
+      <c r="M249" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>最勝紫晶.get(1),</v>
+      </c>
+      <c r="N249" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>最勝紫晶.get(2),</v>
+      </c>
+      <c r="O249" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>最勝紫晶.get(3),</v>
+      </c>
+      <c r="P249" s="40"/>
+      <c r="Q249" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="R249" s="40" t="s">
+        <v>876</v>
+      </c>
+      <c r="S249" s="40"/>
+      <c r="T249" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U249" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>燃願瑪瑙</v>
+      </c>
+      <c r="V249" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W249" s="40" t="s">
+        <v>1155</v>
+      </c>
+      <c r="X249" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y249" s="40"/>
+      <c r="Z249" s="40"/>
+      <c r="AA249" s="40"/>
+      <c r="AB249" s="40"/>
+      <c r="AC249" s="40"/>
+      <c r="AD249" s="40"/>
+      <c r="AE249" s="40"/>
+      <c r="AF249" s="40"/>
+      <c r="AG249" s="40"/>
+      <c r="AH249" s="40"/>
+    </row>
+    <row r="250" spans="12:34">
+      <c r="L250" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>哀敘冰玉.get(0),</v>
+      </c>
+      <c r="M250" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>哀敘冰玉.get(1),</v>
+      </c>
+      <c r="N250" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>哀敘冰玉.get(2),</v>
+      </c>
+      <c r="O250" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>哀敘冰玉.get(3),</v>
+      </c>
+      <c r="P250" s="40"/>
+      <c r="Q250" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="R250" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="S250" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T250" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U250" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>滌淨青金碎屑</v>
+      </c>
+      <c r="V250" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W250" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="X250" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y250" s="40"/>
+      <c r="Z250" s="40"/>
+      <c r="AA250" s="40"/>
+      <c r="AB250" s="40"/>
+      <c r="AC250" s="40"/>
+      <c r="AD250" s="40"/>
+      <c r="AE250" s="40"/>
+      <c r="AF250" s="40"/>
+      <c r="AG250" s="40"/>
+      <c r="AH250" s="40"/>
+    </row>
+    <row r="251" spans="12:34">
+      <c r="L251" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>自在松石.get(0),</v>
+      </c>
+      <c r="M251" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>自在松石.get(1),</v>
+      </c>
+      <c r="N251" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>自在松石.get(2),</v>
+      </c>
+      <c r="O251" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>自在松石.get(3),</v>
+      </c>
+      <c r="P251" s="40"/>
+      <c r="Q251" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="R251" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="S251" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T251" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U251" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>滌淨青金斷片</v>
+      </c>
+      <c r="V251" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W251" s="40" t="s">
+        <v>1158</v>
+      </c>
+      <c r="X251" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y251" s="40"/>
+      <c r="Z251" s="40"/>
+      <c r="AA251" s="40"/>
+      <c r="AB251" s="40"/>
+      <c r="AC251" s="40"/>
+      <c r="AD251" s="40"/>
+      <c r="AE251" s="40"/>
+      <c r="AF251" s="40"/>
+      <c r="AG251" s="40"/>
+      <c r="AH251" s="40"/>
+    </row>
+    <row r="252" spans="12:34">
+      <c r="L252" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>堅牢黃玉.get(0),</v>
+      </c>
+      <c r="M252" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>堅牢黃玉.get(1),</v>
+      </c>
+      <c r="N252" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>堅牢黃玉.get(2),</v>
+      </c>
+      <c r="O252" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>堅牢黃玉.get(3),</v>
+      </c>
+      <c r="P252" s="40"/>
+      <c r="Q252" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="R252" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="S252" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="T252" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U252" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>滌淨青金塊</v>
+      </c>
+      <c r="V252" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W252" s="40" t="s">
+        <v>1159</v>
+      </c>
+      <c r="X252" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y252" s="40"/>
+      <c r="Z252" s="40"/>
+      <c r="AA252" s="40"/>
+      <c r="AB252" s="40"/>
+      <c r="AC252" s="40"/>
+      <c r="AD252" s="40"/>
+      <c r="AE252" s="40"/>
+      <c r="AF252" s="40"/>
+      <c r="AG252" s="40"/>
+      <c r="AH252" s="40"/>
+    </row>
+    <row r="253" spans="12:34">
+      <c r="L253" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>歷戰的箭簇.get(0),</v>
+      </c>
+      <c r="M253" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>歷戰的箭簇.get(1),</v>
+      </c>
+      <c r="N253" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>歷戰的箭簇.get(2),</v>
+      </c>
+      <c r="O253" s="40"/>
+      <c r="P253" s="40"/>
+      <c r="Q253" s="40" t="s">
+        <v>1004</v>
+      </c>
+      <c r="R253" s="40" t="s">
+        <v>924</v>
+      </c>
+      <c r="S253" s="40"/>
+      <c r="T253" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U253" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>滌淨青金</v>
+      </c>
+      <c r="V253" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W253" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="X253" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y253" s="40"/>
+      <c r="Z253" s="40"/>
+      <c r="AA253" s="40"/>
+      <c r="AB253" s="40"/>
+      <c r="AC253" s="40"/>
+      <c r="AD253" s="40"/>
+      <c r="AE253" s="40"/>
+      <c r="AF253" s="40"/>
+      <c r="AG253" s="40"/>
+      <c r="AH253" s="40"/>
+    </row>
+    <row r="254" spans="12:34">
+      <c r="L254" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>禁咒繪卷.get(0),</v>
+      </c>
+      <c r="M254" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>禁咒繪卷.get(1),</v>
+      </c>
+      <c r="N254" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>禁咒繪卷.get(2),</v>
+      </c>
+      <c r="O254" s="40"/>
+      <c r="P254" s="40"/>
+      <c r="Q254" s="40" t="s">
+        <v>879</v>
+      </c>
+      <c r="R254" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="S254" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T254" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U254" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>最勝紫晶碎屑</v>
+      </c>
+      <c r="V254" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W254" s="40" t="s">
+        <v>1160</v>
+      </c>
+      <c r="X254" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y254" s="40"/>
+      <c r="Z254" s="40"/>
+      <c r="AA254" s="40"/>
+      <c r="AB254" s="40"/>
+      <c r="AC254" s="40"/>
+      <c r="AD254" s="40"/>
+      <c r="AE254" s="40"/>
+      <c r="AF254" s="40"/>
+      <c r="AG254" s="40"/>
+      <c r="AH254" s="40"/>
+    </row>
+    <row r="255" spans="12:34">
+      <c r="L255" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>攫金鴉印.get(0),</v>
+      </c>
+      <c r="M255" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>攫金鴉印.get(1),</v>
+      </c>
+      <c r="N255" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>攫金鴉印.get(2),</v>
+      </c>
+      <c r="O255" s="40"/>
+      <c r="P255" s="40"/>
+      <c r="Q255" s="40" t="s">
+        <v>895</v>
+      </c>
+      <c r="R255" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="S255" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T255" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U255" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>最勝紫晶斷片</v>
+      </c>
+      <c r="V255" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W255" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="X255" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y255" s="40"/>
+      <c r="Z255" s="40"/>
+      <c r="AA255" s="40"/>
+      <c r="AB255" s="40"/>
+      <c r="AC255" s="40"/>
+      <c r="AD255" s="40"/>
+      <c r="AE255" s="40"/>
+      <c r="AF255" s="40"/>
+      <c r="AG255" s="40"/>
+      <c r="AH255" s="40"/>
+    </row>
+    <row r="256" spans="12:34">
+      <c r="L256" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>不祥的面具.get(0),</v>
+      </c>
+      <c r="M256" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>不祥的面具.get(1),</v>
+      </c>
+      <c r="N256" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>不祥的面具.get(2),</v>
+      </c>
+      <c r="O256" s="40"/>
+      <c r="P256" s="40"/>
+      <c r="Q256" s="40" t="s">
+        <v>899</v>
+      </c>
+      <c r="R256" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="S256" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="T256" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U256" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>最勝紫晶塊</v>
+      </c>
+      <c r="V256" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W256" s="40" t="s">
+        <v>1163</v>
+      </c>
+      <c r="X256" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y256" s="40"/>
+      <c r="Z256" s="40"/>
+      <c r="AA256" s="40"/>
+      <c r="AB256" s="40"/>
+      <c r="AC256" s="40"/>
+      <c r="AD256" s="40"/>
+      <c r="AE256" s="40"/>
+      <c r="AF256" s="40"/>
+      <c r="AG256" s="40"/>
+      <c r="AH256" s="40"/>
+    </row>
+    <row r="257" spans="12:34">
+      <c r="L257" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>尉官的徽記.get(0),</v>
+      </c>
+      <c r="M257" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>尉官的徽記.get(1),</v>
+      </c>
+      <c r="N257" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>尉官的徽記.get(2),</v>
+      </c>
+      <c r="O257" s="40"/>
+      <c r="P257" s="40"/>
+      <c r="Q257" s="40" t="s">
+        <v>906</v>
+      </c>
+      <c r="R257" s="40" t="s">
+        <v>931</v>
+      </c>
+      <c r="S257" s="40"/>
+      <c r="T257" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U257" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>最勝紫晶</v>
+      </c>
+      <c r="V257" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W257" s="40" t="s">
+        <v>1161</v>
+      </c>
+      <c r="X257" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y257" s="40"/>
+      <c r="Z257" s="40"/>
+      <c r="AA257" s="40"/>
+      <c r="AB257" s="40"/>
+      <c r="AC257" s="40"/>
+      <c r="AD257" s="40"/>
+      <c r="AE257" s="40"/>
+      <c r="AF257" s="40"/>
+      <c r="AG257" s="40"/>
+      <c r="AH257" s="40"/>
+    </row>
+    <row r="258" spans="12:34">
+      <c r="L258" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>原素花蜜.get(0),</v>
+      </c>
+      <c r="M258" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>原素花蜜.get(1),</v>
+      </c>
+      <c r="N258" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>原素花蜜.get(2),</v>
+      </c>
+      <c r="O258" s="40"/>
+      <c r="P258" s="40"/>
+      <c r="Q258" s="40" t="s">
+        <v>885</v>
+      </c>
+      <c r="R258" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="S258" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T258" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U258" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>哀敘冰玉碎屑</v>
+      </c>
+      <c r="V258" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W258" s="40" t="s">
+        <v>1164</v>
+      </c>
+      <c r="X258" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y258" s="40"/>
+      <c r="Z258" s="40"/>
+      <c r="AA258" s="40"/>
+      <c r="AB258" s="40"/>
+      <c r="AC258" s="40"/>
+      <c r="AD258" s="40"/>
+      <c r="AE258" s="40"/>
+      <c r="AF258" s="40"/>
+      <c r="AG258" s="40"/>
+      <c r="AH258" s="40"/>
+    </row>
+    <row r="259" spans="12:34">
+      <c r="L259" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>史萊姆原漿.get(0),</v>
+      </c>
+      <c r="M259" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>史萊姆原漿.get(1),</v>
+      </c>
+      <c r="N259" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>史萊姆原漿.get(2),</v>
+      </c>
+      <c r="O259" s="40"/>
+      <c r="P259" s="40"/>
+      <c r="Q259" s="40" t="s">
+        <v>912</v>
+      </c>
+      <c r="R259" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="S259" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T259" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U259" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>哀敘冰玉斷片</v>
+      </c>
+      <c r="V259" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W259" s="40" t="s">
+        <v>1165</v>
+      </c>
+      <c r="X259" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y259" s="40"/>
+      <c r="Z259" s="40"/>
+      <c r="AA259" s="40"/>
+      <c r="AB259" s="40"/>
+      <c r="AC259" s="40"/>
+      <c r="AD259" s="40"/>
+      <c r="AE259" s="40"/>
+      <c r="AF259" s="40"/>
+      <c r="AG259" s="40"/>
+      <c r="AH259" s="40"/>
+    </row>
+    <row r="260" spans="12:34">
+      <c r="L260" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>名刀鐔.get(0),</v>
+      </c>
+      <c r="M260" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>名刀鐔.get(1),</v>
+      </c>
+      <c r="N260" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>名刀鐔.get(2),</v>
+      </c>
+      <c r="O260" s="40"/>
+      <c r="P260" s="40"/>
+      <c r="Q260" s="40" t="s">
+        <v>891</v>
+      </c>
+      <c r="R260" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="S260" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="T260" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U260" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>哀敘冰玉塊</v>
+      </c>
+      <c r="V260" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W260" s="40" t="s">
+        <v>1166</v>
+      </c>
+      <c r="X260" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y260" s="40"/>
+      <c r="Z260" s="40"/>
+      <c r="AA260" s="40"/>
+      <c r="AB260" s="40"/>
+      <c r="AC260" s="40"/>
+      <c r="AD260" s="40"/>
+      <c r="AE260" s="40"/>
+      <c r="AF260" s="40"/>
+      <c r="AG260" s="40"/>
+      <c r="AH260" s="40"/>
+    </row>
+    <row r="261" spans="12:34">
+      <c r="L261" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>自由_的哲學.get(0),</v>
+      </c>
+      <c r="M261" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>自由_的哲學.get(1),</v>
+      </c>
+      <c r="N261" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>自由_的哲學.get(2),</v>
+      </c>
+      <c r="O261" s="40"/>
+      <c r="P261" s="40"/>
+      <c r="Q261" s="40" t="s">
+        <v>995</v>
+      </c>
+      <c r="R261" s="40" t="s">
+        <v>888</v>
+      </c>
+      <c r="S261" s="40"/>
+      <c r="T261" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U261" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>哀敘冰玉</v>
+      </c>
+      <c r="V261" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W261" s="40" t="s">
+        <v>1167</v>
+      </c>
+      <c r="X261" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y261" s="40"/>
+      <c r="Z261" s="40"/>
+      <c r="AA261" s="40"/>
+      <c r="AB261" s="40"/>
+      <c r="AC261" s="40"/>
+      <c r="AD261" s="40"/>
+      <c r="AE261" s="40"/>
+      <c r="AF261" s="40"/>
+      <c r="AG261" s="40"/>
+      <c r="AH261" s="40"/>
+    </row>
+    <row r="262" spans="12:34">
+      <c r="L262" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>繁榮_的哲學.get(0),</v>
+      </c>
+      <c r="M262" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>繁榮_的哲學.get(1),</v>
+      </c>
+      <c r="N262" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>繁榮_的哲學.get(2),</v>
+      </c>
+      <c r="O262" s="40"/>
+      <c r="P262" s="40"/>
+      <c r="Q262" s="40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R262" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="S262" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T262" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U262" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>自在松石碎屑</v>
+      </c>
+      <c r="V262" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W262" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="X262" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y262" s="40"/>
+      <c r="Z262" s="40"/>
+      <c r="AA262" s="40"/>
+      <c r="AB262" s="40"/>
+      <c r="AC262" s="40"/>
+      <c r="AD262" s="40"/>
+      <c r="AE262" s="40"/>
+      <c r="AF262" s="40"/>
+      <c r="AG262" s="40"/>
+      <c r="AH262" s="40"/>
+    </row>
+    <row r="263" spans="12:34">
+      <c r="L263" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>浮世_的哲學.get(0),</v>
+      </c>
+      <c r="M263" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>浮世_的哲學.get(1),</v>
+      </c>
+      <c r="N263" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>浮世_的哲學.get(2),</v>
+      </c>
+      <c r="O263" s="40"/>
+      <c r="P263" s="40"/>
+      <c r="Q263" s="40" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R263" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="S263" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T263" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U263" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>自在松石斷片</v>
+      </c>
+      <c r="V263" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W263" s="40" t="s">
+        <v>1158</v>
+      </c>
+      <c r="X263" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y263" s="40"/>
+      <c r="Z263" s="40"/>
+      <c r="AA263" s="40"/>
+      <c r="AB263" s="40"/>
+      <c r="AC263" s="40"/>
+      <c r="AD263" s="40"/>
+      <c r="AE263" s="40"/>
+      <c r="AF263" s="40"/>
+      <c r="AG263" s="40"/>
+      <c r="AH263" s="40"/>
+    </row>
+    <row r="264" spans="12:34">
+      <c r="L264" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>抗爭_的哲學.get(0),</v>
+      </c>
+      <c r="M264" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>抗爭_的哲學.get(1),</v>
+      </c>
+      <c r="N264" s="40" t="str">
+        <f t="shared" si="33"/>
+        <v>抗爭_的哲學.get(2),</v>
+      </c>
+      <c r="O264" s="40"/>
+      <c r="P264" s="40"/>
+      <c r="Q264" s="40" t="s">
+        <v>997</v>
+      </c>
+      <c r="R264" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="S264" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="T264" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U264" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>自在松石塊</v>
+      </c>
+      <c r="V264" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W264" s="40" t="s">
+        <v>1159</v>
+      </c>
+      <c r="X264" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y264" s="40"/>
+      <c r="Z264" s="40"/>
+      <c r="AA264" s="40"/>
+      <c r="AB264" s="40"/>
+      <c r="AC264" s="40"/>
+      <c r="AD264" s="40"/>
+      <c r="AE264" s="40"/>
+      <c r="AF264" s="40"/>
+      <c r="AG264" s="40"/>
+      <c r="AH264" s="40"/>
+    </row>
+    <row r="265" spans="12:34">
+      <c r="L265" s="40" t="str">
+        <f t="shared" ref="L265:N269" si="34">$Q265&amp;".get("&amp;L$246&amp;"),"</f>
+        <v>勤勞_的哲學.get(0),</v>
+      </c>
+      <c r="M265" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>勤勞_的哲學.get(1),</v>
+      </c>
+      <c r="N265" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>勤勞_的哲學.get(2),</v>
+      </c>
+      <c r="O265" s="40"/>
+      <c r="P265" s="40"/>
+      <c r="Q265" s="40" t="s">
+        <v>998</v>
+      </c>
+      <c r="R265" s="40" t="s">
+        <v>882</v>
+      </c>
+      <c r="S265" s="40"/>
+      <c r="T265" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U265" s="40" t="str">
+        <f t="shared" si="32"/>
+        <v>自在松石</v>
+      </c>
+      <c r="V265" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W265" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="X265" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y265" s="40"/>
+      <c r="Z265" s="40"/>
+      <c r="AA265" s="40"/>
+      <c r="AB265" s="40"/>
+      <c r="AC265" s="40"/>
+      <c r="AD265" s="40"/>
+      <c r="AE265" s="40"/>
+      <c r="AF265" s="40"/>
+      <c r="AG265" s="40"/>
+      <c r="AH265" s="40"/>
+    </row>
+    <row r="266" spans="12:34">
+      <c r="L266" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>風雅_的哲學.get(0),</v>
+      </c>
+      <c r="M266" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>風雅_的哲學.get(1),</v>
+      </c>
+      <c r="N266" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>風雅_的哲學.get(2),</v>
+      </c>
+      <c r="O266" s="40"/>
+      <c r="P266" s="40"/>
+      <c r="Q266" s="40" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R266" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="S266" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T266" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U266" s="40" t="str">
+        <f t="shared" ref="U266:U269" si="35">R266&amp;S266</f>
+        <v>堅牢黃玉碎屑</v>
+      </c>
+      <c r="V266" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W266" s="40" t="s">
+        <v>1175</v>
+      </c>
+      <c r="X266" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y266" s="40"/>
+      <c r="Z266" s="40"/>
+      <c r="AA266" s="40"/>
+      <c r="AB266" s="40"/>
+      <c r="AC266" s="40"/>
+      <c r="AD266" s="40"/>
+      <c r="AE266" s="40"/>
+      <c r="AF266" s="40"/>
+      <c r="AG266" s="40"/>
+      <c r="AH266" s="40"/>
+    </row>
+    <row r="267" spans="12:34">
+      <c r="L267" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>黃金_的哲學.get(0),</v>
+      </c>
+      <c r="M267" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>黃金_的哲學.get(1),</v>
+      </c>
+      <c r="N267" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>黃金_的哲學.get(2),</v>
+      </c>
+      <c r="O267" s="40"/>
+      <c r="P267" s="40"/>
+      <c r="Q267" s="40" t="s">
+        <v>996</v>
+      </c>
+      <c r="R267" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="S267" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T267" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U267" s="40" t="str">
+        <f t="shared" si="35"/>
+        <v>堅牢黃玉斷片</v>
+      </c>
+      <c r="V267" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W267" s="40" t="s">
+        <v>1176</v>
+      </c>
+      <c r="X267" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y267" s="40"/>
+      <c r="Z267" s="40"/>
+      <c r="AA267" s="40"/>
+      <c r="AB267" s="40"/>
+      <c r="AC267" s="40"/>
+      <c r="AD267" s="40"/>
+      <c r="AE267" s="40"/>
+      <c r="AF267" s="40"/>
+      <c r="AG267" s="40"/>
+      <c r="AH267" s="40"/>
+    </row>
+    <row r="268" spans="12:34">
+      <c r="L268" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>詩文_的哲學.get(0),</v>
+      </c>
+      <c r="M268" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>詩文_的哲學.get(1),</v>
+      </c>
+      <c r="N268" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>詩文_的哲學.get(2),</v>
+      </c>
+      <c r="O268" s="40"/>
+      <c r="P268" s="40"/>
+      <c r="Q268" s="40" t="s">
+        <v>999</v>
+      </c>
+      <c r="R268" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="S268" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="T268" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U268" s="40" t="str">
+        <f t="shared" si="35"/>
+        <v>堅牢黃玉塊</v>
+      </c>
+      <c r="V268" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W268" s="40" t="s">
+        <v>1177</v>
+      </c>
+      <c r="X268" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y268" s="40"/>
+      <c r="Z268" s="40"/>
+      <c r="AA268" s="40"/>
+      <c r="AB268" s="40"/>
+      <c r="AC268" s="40"/>
+      <c r="AD268" s="40"/>
+      <c r="AE268" s="40"/>
+      <c r="AF268" s="40"/>
+      <c r="AG268" s="40"/>
+      <c r="AH268" s="40"/>
+    </row>
+    <row r="269" spans="12:34">
+      <c r="L269" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>天光_的哲學.get(0),</v>
+      </c>
+      <c r="M269" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>天光_的哲學.get(1),</v>
+      </c>
+      <c r="N269" s="40" t="str">
+        <f t="shared" si="34"/>
+        <v>天光_的哲學.get(2),</v>
+      </c>
+      <c r="O269" s="40"/>
+      <c r="P269" s="40"/>
+      <c r="Q269" s="40" t="s">
+        <v>1003</v>
+      </c>
+      <c r="R269" s="40" t="s">
+        <v>914</v>
+      </c>
+      <c r="S269" s="40"/>
+      <c r="T269" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U269" s="40" t="str">
+        <f t="shared" si="35"/>
+        <v>堅牢黃玉</v>
+      </c>
+      <c r="V269" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W269" s="40" t="s">
+        <v>1178</v>
+      </c>
+      <c r="X269" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y269" s="40"/>
+      <c r="Z269" s="40"/>
+      <c r="AA269" s="40"/>
+      <c r="AB269" s="40"/>
+      <c r="AC269" s="40"/>
+      <c r="AD269" s="40"/>
+      <c r="AE269" s="40"/>
+      <c r="AF269" s="40"/>
+      <c r="AG269" s="40"/>
+      <c r="AH269" s="40"/>
+    </row>
+    <row r="270" spans="12:34">
+      <c r="L270" s="40"/>
+      <c r="M270" s="40"/>
+      <c r="N270" s="40"/>
+      <c r="O270" s="40"/>
+      <c r="P270" s="40"/>
+      <c r="Q270" s="40"/>
+      <c r="R270" s="40"/>
+      <c r="S270" s="40"/>
+      <c r="T270" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U270" s="40" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V270" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W270" s="40" t="str">
+        <f>U270</f>
+        <v>brilliant_diamond_sliver</v>
+      </c>
+      <c r="X270" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y270" s="40"/>
+      <c r="Z270" s="40"/>
+      <c r="AA270" s="40"/>
+      <c r="AB270" s="40"/>
+      <c r="AC270" s="40"/>
+      <c r="AD270" s="40"/>
+      <c r="AE270" s="40"/>
+      <c r="AF270" s="40"/>
+      <c r="AG270" s="40"/>
+      <c r="AH270" s="40"/>
+    </row>
+    <row r="271" spans="12:34">
+      <c r="L271" s="40"/>
+      <c r="M271" s="40"/>
+      <c r="N271" s="40"/>
+      <c r="O271" s="40"/>
+      <c r="P271" s="40"/>
+      <c r="Q271" s="40"/>
+      <c r="R271" s="40"/>
+      <c r="S271" s="40"/>
+      <c r="T271" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U271" s="40" t="s">
+        <v>1170</v>
+      </c>
+      <c r="V271" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W271" s="40" t="str">
+        <f>U271</f>
+        <v>brilliant_diamond_fragment</v>
+      </c>
+      <c r="X271" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y271" s="40"/>
+      <c r="Z271" s="40"/>
+      <c r="AA271" s="40"/>
+      <c r="AB271" s="40"/>
+      <c r="AC271" s="40"/>
+      <c r="AD271" s="40"/>
+      <c r="AE271" s="40"/>
+      <c r="AF271" s="40"/>
+      <c r="AG271" s="40"/>
+      <c r="AH271" s="40"/>
+    </row>
+    <row r="272" spans="12:34">
+      <c r="L272" s="40"/>
+      <c r="M272" s="40"/>
+      <c r="N272" s="40"/>
+      <c r="O272" s="40"/>
+      <c r="P272" s="40"/>
+      <c r="Q272" s="40"/>
+      <c r="R272" s="40"/>
+      <c r="S272" s="40"/>
+      <c r="T272" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U272" s="40" t="s">
+        <v>1168</v>
+      </c>
+      <c r="V272" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W272" s="40" t="str">
+        <f>U272</f>
+        <v>brilliant_diamond_chunk</v>
+      </c>
+      <c r="X272" s="40" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y272" s="40"/>
+      <c r="Z272" s="40"/>
+      <c r="AA272" s="40"/>
+      <c r="AB272" s="40"/>
+      <c r="AC272" s="40"/>
+      <c r="AD272" s="40"/>
+      <c r="AE272" s="40"/>
+      <c r="AF272" s="40"/>
+      <c r="AG272" s="40"/>
+      <c r="AH272" s="40"/>
+    </row>
+    <row r="273" spans="20:24">
+      <c r="T273" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U273" s="40" t="s">
+        <v>1171</v>
+      </c>
+      <c r="V273" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W273" s="40" t="str">
+        <f>U273</f>
+        <v>brilliant_diamond_gemstone</v>
+      </c>
+      <c r="X273" s="40" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="274" spans="20:24">
+      <c r="T274" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U274" s="40" t="s">
+        <v>1172</v>
+      </c>
+      <c r="V274" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W274" s="40" t="str">
+        <f>U274</f>
+        <v>nagadus_emerald_sliver</v>
+      </c>
+      <c r="X274" s="40" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="275" spans="20:24">
+      <c r="T275" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U275" s="40" t="s">
+        <v>1173</v>
+      </c>
+      <c r="V275" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W275" s="40" t="str">
+        <f>U275</f>
+        <v>nagadus_emerald_fragment</v>
+      </c>
+      <c r="X275" s="40" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="276" spans="20:24">
+      <c r="T276" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="U276" s="40" t="s">
+        <v>1174</v>
+      </c>
+      <c r="V276" s="40" t="s">
+        <v>1068</v>
+      </c>
+      <c r="W276" s="40" t="str">
+        <f>U276</f>
+        <v>nagadus_emerald_chunk</v>
+      </c>
+      <c r="X276" s="40" t="s">
+        <v>1067</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="L49:AJ49"/>
@@ -26883,11 +35737,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vocaloid2048\Desktop\File\App\GenshinHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75423AA1-DFDE-45CC-A3BF-85FC4EE715FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74B4381-647E-4A7C-B6F4-7757964BDCA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="3" activeTab="6" xr2:uid="{DB4DA38A-4327-40F6-9D21-54F6AE12F3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Home_List" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="工作表1" sheetId="5" r:id="rId4"/>
     <sheet name="klee_CharStatus" sheetId="4" r:id="rId5"/>
     <sheet name="CharEXP" sheetId="6" r:id="rId6"/>
+    <sheet name="WeaponList" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CharEXP!$S$51:$S$91</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6308" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6719" uniqueCount="1541">
   <si>
     <t>"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4726,12 +4727,1091 @@
     <t>")){return context.getString(R.string.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>ATK%</t>
+  </si>
+  <si>
+    <t>CritDMG%</t>
+  </si>
+  <si>
+    <t>PhyDMG%</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>屬性對照表</t>
+  </si>
+  <si>
+    <t>Meaning'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素充能效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻擊力%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴擊率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴擊傷害%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴擊傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnRech%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素充能效率%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleMas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷刃</t>
+  </si>
+  <si>
+    <t>天目影打刀</t>
+  </si>
+  <si>
+    <t>天空之刃</t>
+  </si>
+  <si>
+    <t>斫峰之刃</t>
+  </si>
+  <si>
+    <t>Sword List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stat_2</t>
+  </si>
+  <si>
+    <t>zh_hk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru_ru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ja_jp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritRate</t>
+  </si>
+  <si>
+    <t>暴擊率%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防禦力%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en_us</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amenoma_kageuchi</t>
+  </si>
+  <si>
+    <t>aquila_favonia</t>
+  </si>
+  <si>
+    <t>blackcliff_longsword</t>
+  </si>
+  <si>
+    <t>cool_steel</t>
+  </si>
+  <si>
+    <t>dark_iron_sword</t>
+  </si>
+  <si>
+    <t>dull_blade</t>
+  </si>
+  <si>
+    <t>favonius_sword</t>
+  </si>
+  <si>
+    <t>festering_desire</t>
+  </si>
+  <si>
+    <t>fillet_blade</t>
+  </si>
+  <si>
+    <t>freedom_sworn</t>
+  </si>
+  <si>
+    <t>harbinger_of_dawn</t>
+  </si>
+  <si>
+    <t>iron_sting</t>
+  </si>
+  <si>
+    <t>lion's_roar</t>
+  </si>
+  <si>
+    <t>mistsplitter_reforged</t>
+  </si>
+  <si>
+    <t>primordial_jade_cutter</t>
+  </si>
+  <si>
+    <t>prototype_rancour</t>
+  </si>
+  <si>
+    <t>royal_longsword</t>
+  </si>
+  <si>
+    <t>sacrificial_sword</t>
+  </si>
+  <si>
+    <t>silver_sword</t>
+  </si>
+  <si>
+    <t>skyrider_sword</t>
+  </si>
+  <si>
+    <t>skyward_blade</t>
+  </si>
+  <si>
+    <t>summit_shaper</t>
+  </si>
+  <si>
+    <t>sword_of_descension</t>
+  </si>
+  <si>
+    <t>the_alley_flash</t>
+  </si>
+  <si>
+    <t>the_black_sword</t>
+  </si>
+  <si>
+    <t>the_flute</t>
+  </si>
+  <si>
+    <t>traveler's_handy_sword</t>
+  </si>
+  <si>
+    <t>Amenoma Kageuchi</t>
+  </si>
+  <si>
+    <t>Aquila Favonia</t>
+  </si>
+  <si>
+    <t>Blackcliff Longsword</t>
+  </si>
+  <si>
+    <t>Cool Steel</t>
+  </si>
+  <si>
+    <t>Dark Iron Sword</t>
+  </si>
+  <si>
+    <t>Dull Blade</t>
+  </si>
+  <si>
+    <t>Favonius Sword</t>
+  </si>
+  <si>
+    <t>Festering Desire</t>
+  </si>
+  <si>
+    <t>Fillet Blade</t>
+  </si>
+  <si>
+    <t>Freedom Sworn</t>
+  </si>
+  <si>
+    <t>Harbinger of Dawn</t>
+  </si>
+  <si>
+    <t>Iron Sting</t>
+  </si>
+  <si>
+    <t>Lion's Roar</t>
+  </si>
+  <si>
+    <t>Mistsplitter Reforged</t>
+  </si>
+  <si>
+    <t>Primordial Jade Cutter</t>
+  </si>
+  <si>
+    <t>Prototype Rancour</t>
+  </si>
+  <si>
+    <t>Royal Longsword</t>
+  </si>
+  <si>
+    <t>Sacrificial Sword</t>
+  </si>
+  <si>
+    <t>Silver Sword</t>
+  </si>
+  <si>
+    <t>Skyrider Sword</t>
+  </si>
+  <si>
+    <t>Skyward Blade</t>
+  </si>
+  <si>
+    <t>Summit Shaper</t>
+  </si>
+  <si>
+    <t>Sword of Descension</t>
+  </si>
+  <si>
+    <t>The Alley Flash</t>
+  </si>
+  <si>
+    <t>The Black Sword</t>
+  </si>
+  <si>
+    <t>The Flute</t>
+  </si>
+  <si>
+    <t>Traveler's Handy Sword</t>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhyDMG%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritDMG%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritRate%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天目影打刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风鹰剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑岩长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗铁剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无锋剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西风剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐殖之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃虎鱼刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍古自由之誓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黎明神剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁蜂刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匣里龙吟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雾切之回光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞天御剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐岩结绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试作斩岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗室长剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭礼剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斫峰之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降临之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗巷闪光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅行剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風鷹劍</t>
+  </si>
+  <si>
+    <t>黑岩長劍</t>
+  </si>
+  <si>
+    <t>暗鐵劍</t>
+  </si>
+  <si>
+    <t>無鋒劍</t>
+  </si>
+  <si>
+    <t>西風劍</t>
+  </si>
+  <si>
+    <t>腐殖之劍</t>
+  </si>
+  <si>
+    <t>吃虎魚刀</t>
+  </si>
+  <si>
+    <t>蒼古自由之誓</t>
+  </si>
+  <si>
+    <t>黎明神劍</t>
+  </si>
+  <si>
+    <t>鐵蜂刺</t>
+  </si>
+  <si>
+    <t>匣裡龍吟</t>
+  </si>
+  <si>
+    <t>霧切之迴光</t>
+  </si>
+  <si>
+    <t>磐岩結綠</t>
+  </si>
+  <si>
+    <t>試作斬岩</t>
+  </si>
+  <si>
+    <t>宗室長劍</t>
+  </si>
+  <si>
+    <t>祭禮劍</t>
+  </si>
+  <si>
+    <t>銀劍</t>
+  </si>
+  <si>
+    <t>飛天御劍</t>
+  </si>
+  <si>
+    <t>降臨之劍</t>
+  </si>
+  <si>
+    <t>暗巷閃光</t>
+  </si>
+  <si>
+    <t>黑劍</t>
+  </si>
+  <si>
+    <t>笛劍</t>
+  </si>
+  <si>
+    <t>旅行劍</t>
+  </si>
+  <si>
+    <t>Claymore List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣兵重剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以理服人</t>
+  </si>
+  <si>
+    <t>沐浴龙血的剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以理服人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁影阔剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quartz</t>
+  </si>
+  <si>
+    <t>HP%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白铁大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑岩斩刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西风大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂木斩长正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千岩古剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衔珠海皇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试作古华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雨裁</t>
+  </si>
+  <si>
+    <t>雨裁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗室大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭礼大剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螭骨剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪葬的星银</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白影剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空之傲</t>
+  </si>
+  <si>
+    <t>天空之傲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>松籁响起之时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无工之剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼的末路</t>
+  </si>
+  <si>
+    <t>狼的末路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waster Greatsword</t>
+  </si>
+  <si>
+    <t>Old Merc's Pal</t>
+  </si>
+  <si>
+    <t>Bloodtainted Greatsword</t>
+  </si>
+  <si>
+    <t>Debate Club</t>
+  </si>
+  <si>
+    <t>Ferrous Shadow</t>
+  </si>
+  <si>
+    <t>Skyrider Greatsword</t>
+  </si>
+  <si>
+    <t>White Iron Greatsword</t>
+  </si>
+  <si>
+    <t>Blackcliff Slasher</t>
+  </si>
+  <si>
+    <t>Favonius Greatsword</t>
+  </si>
+  <si>
+    <t>Katsuragikiri Nagamasa</t>
+  </si>
+  <si>
+    <t>Lithic Blade</t>
+  </si>
+  <si>
+    <t>Luxurious Sea-Lord</t>
+  </si>
+  <si>
+    <t>Prototype Archaic</t>
+  </si>
+  <si>
+    <t>Rainslasher</t>
+  </si>
+  <si>
+    <t>Royal Greatsword</t>
+  </si>
+  <si>
+    <t>Sacrificial Greatsword</t>
+  </si>
+  <si>
+    <t>Serpent Spine</t>
+  </si>
+  <si>
+    <t>Snow-Tombed Starsilver</t>
+  </si>
+  <si>
+    <t>The Bell</t>
+  </si>
+  <si>
+    <t>Whiteblind</t>
+  </si>
+  <si>
+    <t>Skyward Pride</t>
+  </si>
+  <si>
+    <t>Song of Broken Pines</t>
+  </si>
+  <si>
+    <t>The Unforged</t>
+  </si>
+  <si>
+    <t>Wolf's Gravestone</t>
+  </si>
+  <si>
+    <t>waster_greatsword</t>
+  </si>
+  <si>
+    <t>old_merc's_pal</t>
+  </si>
+  <si>
+    <t>bloodtainted_greatsword</t>
+  </si>
+  <si>
+    <t>debate_club</t>
+  </si>
+  <si>
+    <t>quartz</t>
+  </si>
+  <si>
+    <t>ferrous_shadow</t>
+  </si>
+  <si>
+    <t>skyrider_greatsword</t>
+  </si>
+  <si>
+    <t>white_iron_greatsword</t>
+  </si>
+  <si>
+    <t>blackcliff_slasher</t>
+  </si>
+  <si>
+    <t>favonius_greatsword</t>
+  </si>
+  <si>
+    <t>katsuragikiri_nagamasa</t>
+  </si>
+  <si>
+    <t>lithic_blade</t>
+  </si>
+  <si>
+    <t>luxurious_sea-lord</t>
+  </si>
+  <si>
+    <t>prototype_archaic</t>
+  </si>
+  <si>
+    <t>rainslasher</t>
+  </si>
+  <si>
+    <t>royal_greatsword</t>
+  </si>
+  <si>
+    <t>sacrificial_greatsword</t>
+  </si>
+  <si>
+    <t>serpent_spine</t>
+  </si>
+  <si>
+    <t>snow-tombed_starsilver</t>
+  </si>
+  <si>
+    <t>the_bell</t>
+  </si>
+  <si>
+    <t>whiteblind</t>
+  </si>
+  <si>
+    <t>skyward_pride</t>
+  </si>
+  <si>
+    <t>song_of_broken_pines</t>
+  </si>
+  <si>
+    <t>the_unforged</t>
+  </si>
+  <si>
+    <t>wolf's_gravestone</t>
+  </si>
+  <si>
+    <t>訓練大劍</t>
+  </si>
+  <si>
+    <t>傭兵重劍</t>
+  </si>
+  <si>
+    <t>沐浴龍血的劍</t>
+  </si>
+  <si>
+    <t>鐵影闊劍</t>
+  </si>
+  <si>
+    <t>飛天大御劍</t>
+  </si>
+  <si>
+    <t>白鐵大劍</t>
+  </si>
+  <si>
+    <t>黑岩斬刀</t>
+  </si>
+  <si>
+    <t>西風大劍</t>
+  </si>
+  <si>
+    <t>桂木斬長正</t>
+  </si>
+  <si>
+    <t>千巖古劍</t>
+  </si>
+  <si>
+    <t>銜珠海皇</t>
+  </si>
+  <si>
+    <t>試作古華</t>
+  </si>
+  <si>
+    <t>宗室大劍</t>
+  </si>
+  <si>
+    <t>祭禮大劍</t>
+  </si>
+  <si>
+    <t>螭骨劍</t>
+  </si>
+  <si>
+    <t>雪葬的星銀</t>
+  </si>
+  <si>
+    <t>鍾劍</t>
+  </si>
+  <si>
+    <t>白影劍</t>
+  </si>
+  <si>
+    <t>松籟響起之時</t>
+  </si>
+  <si>
+    <t>無工之劍</t>
+  </si>
+  <si>
+    <t>飞天大御剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石英大剑</t>
+  </si>
+  <si>
+    <t>石英大劍</t>
+  </si>
+  <si>
+    <t>Polearm List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beginner's Protector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手长枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁尖枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>White Tassel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白缨枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑缨枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Tassel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halberd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钺矛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crescent Pike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流月针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype Starglitter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试作星镰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitain Cross Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜多院十文字</t>
+  </si>
+  <si>
+    <t>喜多院十文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragonspine Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙脊长枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royal Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗室猎枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Catch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Favonius Lance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「渔获」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西风长枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithic Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千岩长枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deathmatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon's Bane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匣里灭辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决斗之枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blackcliff Pole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑岩刺枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skyward Spine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engulfing Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天空之脊</t>
+  </si>
+  <si>
+    <t>薙草之稻光</t>
+  </si>
+  <si>
+    <t>薙草之稻光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护摩之杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff of Homa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primordial Jade Winged-Spear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和璞鸢</t>
+  </si>
+  <si>
+    <t>Vortex Vanquisher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贯虹之槊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手長槍</t>
+  </si>
+  <si>
+    <t>鐵尖槍</t>
+  </si>
+  <si>
+    <t>白纓槍</t>
+  </si>
+  <si>
+    <t>黑纓槍</t>
+  </si>
+  <si>
+    <t>鉞矛</t>
+  </si>
+  <si>
+    <t>流月針</t>
+  </si>
+  <si>
+    <t>試作星鐮</t>
+  </si>
+  <si>
+    <t>龍脊長槍</t>
+  </si>
+  <si>
+    <t>宗室獵槍</t>
+  </si>
+  <si>
+    <t>「漁獲」</t>
+  </si>
+  <si>
+    <t>決鬥之槍</t>
+  </si>
+  <si>
+    <t>匣裡滅辰</t>
+  </si>
+  <si>
+    <t>黑岩刺槍</t>
+  </si>
+  <si>
+    <t>護摩之杖</t>
+  </si>
+  <si>
+    <t>和璞鳶</t>
+  </si>
+  <si>
+    <t>貫虹之槊</t>
+  </si>
+  <si>
+    <t>千岩長槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西風長槍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4908,8 +5988,16 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4943,6 +6031,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5045,7 +6139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5169,6 +6263,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5187,12 +6287,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="44">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6108,7 +7220,7 @@
     <sortCondition ref="B1:B10"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F8D7EDC0-D23C-46E6-811C-566418C3556F}" name="欄1" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{F8D7EDC0-D23C-46E6-811C-566418C3556F}" name="欄1" dataDxfId="43"/>
     <tableColumn id="2" xr3:uid="{94B273F2-2152-4C45-972D-7CF59CA686A0}" name="欄2"/>
     <tableColumn id="3" xr3:uid="{F572BF82-8FF2-44C3-A39B-FE676229F982}" name="欄3"/>
     <tableColumn id="4" xr3:uid="{5A22E185-B077-47FD-9521-482F30C2B555}" name="欄4"/>
@@ -6118,32 +7230,103 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{15464BD1-0DC5-4BD2-B6A8-59578FBE4A8A}" name="表格10" displayName="表格10" ref="A2:B12" totalsRowShown="0">
+  <autoFilter ref="A2:B12" xr:uid="{15464BD1-0DC5-4BD2-B6A8-59578FBE4A8A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{20041694-57E1-40AE-B579-20BB0AB275DE}" name="EN"/>
+    <tableColumn id="2" xr3:uid="{242245F9-3664-4E59-B22D-647250C7E7EB}" name="Meaning'"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{2C3F3A93-D8A8-48D6-BD9C-E5A8AC8A926D}" name="表格11" displayName="表格11" ref="G2:P29" totalsRowShown="0">
+  <autoFilter ref="G2:P29" xr:uid="{2C3F3A93-D8A8-48D6-BD9C-E5A8AC8A926D}"/>
+  <tableColumns count="10">
+    <tableColumn id="15" xr3:uid="{EC110DFF-2A53-4A12-917F-DB8D495934C1}" name="Id" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1B03FF58-EB4E-451A-8EC1-D4134A8B6D80}" name="name"/>
+    <tableColumn id="16" xr3:uid="{A726EE41-BA0E-4B70-8EC7-E4C8743DA40C}" name="stars"/>
+    <tableColumn id="2" xr3:uid="{C7BCDEE6-8248-4490-A722-84B46743348F}" name="stat_1"/>
+    <tableColumn id="4" xr3:uid="{E16C4889-81DA-40EE-A51D-5FEBDFBA6AAB}" name="stat_2"/>
+    <tableColumn id="14" xr3:uid="{ECBBD842-58B3-4EBA-AD15-5DA1D2A984B4}" name="en_us"/>
+    <tableColumn id="6" xr3:uid="{B4FB6072-8F87-4972-96AA-67E5DC549501}" name="zh_hk"/>
+    <tableColumn id="7" xr3:uid="{06F6C5F3-C446-4632-A5EC-9A460BD0201E}" name="zh_cn"/>
+    <tableColumn id="8" xr3:uid="{4E6D7416-426E-4100-8D87-88A62E297113}" name="ru_ru"/>
+    <tableColumn id="9" xr3:uid="{E31400F2-D2D3-485C-86FB-8C62004B2DA4}" name="ja_jp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E355504B-7F91-4471-BEAD-EE6C2F081A0F}" name="表格1113" displayName="表格1113" ref="R2:AA27" totalsRowShown="0">
+  <autoFilter ref="R2:AA27" xr:uid="{E355504B-7F91-4471-BEAD-EE6C2F081A0F}"/>
+  <tableColumns count="10">
+    <tableColumn id="15" xr3:uid="{FB1B7DA4-5014-4091-94BF-7267087285FF}" name="Id" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{1C4B0309-3595-428E-AEB3-A4ABA3F2DC48}" name="name"/>
+    <tableColumn id="16" xr3:uid="{82A5565C-A532-497E-A4FE-14FDBB1A800A}" name="stars"/>
+    <tableColumn id="2" xr3:uid="{B24E20AA-5F9D-4508-B069-501D4481B4FA}" name="stat_1"/>
+    <tableColumn id="4" xr3:uid="{363CDE87-44F3-41B3-A641-6A0BAE326AFD}" name="stat_2"/>
+    <tableColumn id="14" xr3:uid="{D1841425-8AFF-4744-8877-6A9AEB36AD7D}" name="en_us"/>
+    <tableColumn id="6" xr3:uid="{CAA95829-9C4E-4C22-AB4D-23733A10B06D}" name="zh_hk"/>
+    <tableColumn id="7" xr3:uid="{EDCAAD25-827C-4F94-9533-B331DFA30B5D}" name="zh_cn"/>
+    <tableColumn id="8" xr3:uid="{6779C416-2FD1-4BD8-8AC9-B0FBF79804CC}" name="ru_ru"/>
+    <tableColumn id="9" xr3:uid="{A5A2B046-1CCD-410B-97E5-D0875CCCE676}" name="ja_jp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{555EA72C-B044-478B-A57F-131075C25D4E}" name="表格111314" displayName="表格111314" ref="AC2:AL23" totalsRowShown="0">
+  <autoFilter ref="AC2:AL23" xr:uid="{555EA72C-B044-478B-A57F-131075C25D4E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC3:AL23">
+    <sortCondition ref="AC2:AC23"/>
+  </sortState>
+  <tableColumns count="10">
+    <tableColumn id="15" xr3:uid="{2E276206-0917-4B18-BD7F-B71BBBC4AD99}" name="Id" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{23C26060-0EF7-4D05-B388-5DC56E22C4C6}" name="name"/>
+    <tableColumn id="16" xr3:uid="{39C0C26D-2CFF-4D7C-833D-BB17362BEE82}" name="stars"/>
+    <tableColumn id="2" xr3:uid="{4AD8545C-F9D2-4056-AA83-35BB3D40E019}" name="stat_1"/>
+    <tableColumn id="4" xr3:uid="{B100F0F5-4E2D-4A8E-8A5D-EEA245575DD5}" name="stat_2"/>
+    <tableColumn id="14" xr3:uid="{0B4FB660-0EA7-4D6E-9C7D-DDE5048B1E90}" name="en_us"/>
+    <tableColumn id="6" xr3:uid="{AE4DDD75-680D-42EF-B3D9-C5B8A6116D30}" name="zh_hk"/>
+    <tableColumn id="7" xr3:uid="{EB44780A-0031-4CED-8D03-5AF0208E564A}" name="zh_cn"/>
+    <tableColumn id="8" xr3:uid="{EE0FA7E2-4EA6-451A-A2A0-D17ED1E87C23}" name="ru_ru"/>
+    <tableColumn id="9" xr3:uid="{6D9B5B63-BE08-431E-A2E4-2CD8A403EBE7}" name="ja_jp"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473CDE15-4806-4BE7-AA96-B40FBCF102DE}" name="表格3" displayName="表格3" ref="L1:P42" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473CDE15-4806-4BE7-AA96-B40FBCF102DE}" name="表格3" displayName="表格3" ref="L1:P42" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="L1:P42" xr:uid="{473CDE15-4806-4BE7-AA96-B40FBCF102DE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6AC5CD60-6F10-4D8C-B6C5-750AC51A1851}" name="欄1" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{E52E40DB-9D86-4DA7-8F40-CABBC5682667}" name="欄2" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{CFC9CC74-0D9A-4B80-A217-216C55C87EA6}" name="欄3" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{D0E41185-D8BF-4874-96C3-C51512AA32F0}" name="欄4" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{20534908-AE06-4E11-9C48-72752018E6AB}" name="欄5" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{6AC5CD60-6F10-4D8C-B6C5-750AC51A1851}" name="欄1" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E52E40DB-9D86-4DA7-8F40-CABBC5682667}" name="欄2" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{CFC9CC74-0D9A-4B80-A217-216C55C87EA6}" name="欄3" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{D0E41185-D8BF-4874-96C3-C51512AA32F0}" name="欄4" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{20534908-AE06-4E11-9C48-72752018E6AB}" name="欄5" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2A78286-176C-4F13-BA46-F1CB954EBA8A}" name="表格3_5" displayName="表格3_5" ref="R1:V42" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C2A78286-176C-4F13-BA46-F1CB954EBA8A}" name="表格3_5" displayName="表格3_5" ref="R1:V42" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
   <autoFilter ref="R1:V42" xr:uid="{C2A78286-176C-4F13-BA46-F1CB954EBA8A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R2:V42">
     <sortCondition ref="S1:S42"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C3672042-00E8-484A-B1F8-9547D9C24F1C}" name="欄1" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{14098B71-1643-45FE-8C3A-4EDD9592D446}" name="欄2" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{1F334A15-498B-4BAF-88F3-1B08C566CC0B}" name="欄3" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{163E8FDE-C6FA-4860-BB56-DCA54D72A676}" name="欄4" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{5CD6E9E9-6BDB-41C9-9675-C6B3F6FF8062}" name="欄5" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{C3672042-00E8-484A-B1F8-9547D9C24F1C}" name="欄1" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{14098B71-1643-45FE-8C3A-4EDD9592D446}" name="欄2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{1F334A15-498B-4BAF-88F3-1B08C566CC0B}" name="欄3" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{163E8FDE-C6FA-4860-BB56-DCA54D72A676}" name="欄4" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{5CD6E9E9-6BDB-41C9-9675-C6B3F6FF8062}" name="欄5" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6174,9 +7357,9 @@
     <tableColumn id="10" xr3:uid="{2CA12209-BEC1-446B-837E-3625B66D6479}" name="欄6"/>
     <tableColumn id="11" xr3:uid="{2F7BDED2-E982-465A-B8B9-13C77DFFF140}" name="isComingSoon"/>
     <tableColumn id="12" xr3:uid="{8ED078E3-D2E5-4368-B7AA-86F09197E483}" name="欄7"/>
-    <tableColumn id="13" xr3:uid="{F499B208-A2C0-40A2-AF4F-08B2864D50A5}" name="Nation" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{F499B208-A2C0-40A2-AF4F-08B2864D50A5}" name="Nation" dataDxfId="22"/>
     <tableColumn id="14" xr3:uid="{E4841D03-A89B-4225-BC6E-DAB79E4F69BA}" name="欄8"/>
-    <tableColumn id="15" xr3:uid="{0859A80F-96D6-43FB-963F-2975A79D04A2}" name="Sex" dataDxfId="18"/>
+    <tableColumn id="15" xr3:uid="{0859A80F-96D6-43FB-963F-2975A79D04A2}" name="Sex" dataDxfId="21"/>
     <tableColumn id="16" xr3:uid="{1894B40B-FC5A-40C6-8A31-D990D4DCBEDA}" name="欄9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6202,9 +7385,9 @@
     <tableColumn id="10" xr3:uid="{A1C3925A-BC1D-49AD-BD0A-C0C6FF86710C}" name="欄8"/>
     <tableColumn id="11" xr3:uid="{DDCFEB9E-5DA7-44E3-8B6E-E882B0296DBE}" name="欄10"/>
     <tableColumn id="12" xr3:uid="{9025A34E-B09A-478F-ACD3-F4808D9018A8}" name="欄11"/>
-    <tableColumn id="13" xr3:uid="{BC2704BE-C18D-494E-9323-E6CEC40CCBDD}" name="欄12" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{BC2704BE-C18D-494E-9323-E6CEC40CCBDD}" name="欄12" dataDxfId="20"/>
     <tableColumn id="14" xr3:uid="{99CDB4FB-5A98-4A92-9B3A-D8A142CD4650}" name="欄13"/>
-    <tableColumn id="15" xr3:uid="{57901587-33CB-4B1B-9D1A-29869E5D51CF}" name="欄14" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{57901587-33CB-4B1B-9D1A-29869E5D51CF}" name="欄14" dataDxfId="19"/>
     <tableColumn id="16" xr3:uid="{E15460D2-39A1-4749-A0BC-79D78BDC80A3}" name="欄9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6215,9 +7398,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2F8C9CD3-6807-4BB1-912C-534D61040DE2}" name="表格5" displayName="表格5" ref="A2:C92" totalsRowShown="0">
   <autoFilter ref="A2:C92" xr:uid="{2F8C9CD3-6807-4BB1-912C-534D61040DE2}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4D933B04-2089-4C42-B0F5-9CCF437372DE}" name="Lvl" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{19F425B7-5DDF-49D7-AF9A-C7488228FC37}" name="EXP" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{EBC5B7AC-235A-443F-9457-36203EB4C657}" name="Mora" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{4D933B04-2089-4C42-B0F5-9CCF437372DE}" name="Lvl" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{19F425B7-5DDF-49D7-AF9A-C7488228FC37}" name="EXP" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{EBC5B7AC-235A-443F-9457-36203EB4C657}" name="Mora" dataDxfId="16">
       <calculatedColumnFormula>表格5[[#This Row],[EXP]]/5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6226,10 +7409,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3CBCC354-20AF-4B90-B32B-2773B06C4903}" name="表格7" displayName="表格7" ref="L2:V9" totalsRowShown="0" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3CBCC354-20AF-4B90-B32B-2773B06C4903}" name="表格7" displayName="表格7" ref="L2:V9" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="L2:V9" xr:uid="{3CBCC354-20AF-4B90-B32B-2773B06C4903}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{445C1D55-89FB-45DA-AC14-C3B2291AD18C}" name="Lvl" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{445C1D55-89FB-45DA-AC14-C3B2291AD18C}" name="Lvl" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{D85ADDA0-5697-4B45-B253-D28D12138887}" name="silver"/>
     <tableColumn id="3" xr3:uid="{C74453EA-1392-420B-9F6D-B70ED17F5F04}" name="fragment"/>
     <tableColumn id="4" xr3:uid="{4E395841-CCE4-4125-A549-76820121865B}" name="chunk"/>
@@ -6246,10 +7429,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6F67A92-13C6-452B-B533-7A6CE4B956BC}" name="表格7_9" displayName="表格7_9" ref="L23:U33" totalsRowShown="0" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B6F67A92-13C6-452B-B533-7A6CE4B956BC}" name="表格7_9" displayName="表格7_9" ref="L23:U33" totalsRowShown="0" tableBorderDxfId="13">
   <autoFilter ref="L23:U33" xr:uid="{B6F67A92-13C6-452B-B533-7A6CE4B956BC}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E5F80E02-005D-4CE6-938B-BC3A3F902FA9}" name="Lvl" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E5F80E02-005D-4CE6-938B-BC3A3F902FA9}" name="Lvl" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{63946B89-AD80-421F-843F-3ACEB5116A1F}" name="teach"/>
     <tableColumn id="3" xr3:uid="{95661BC4-9F13-4054-AFE8-53C0C9C938DF}" name="guide"/>
     <tableColumn id="4" xr3:uid="{CC0A828D-0AE2-4065-B058-C2C341F047E4}" name="phi"/>
@@ -6265,19 +7448,19 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BC3DCDF1-850C-4450-AFF2-19B7D92E1A07}" name="表格9" displayName="表格9" ref="L50:S91" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{BC3DCDF1-850C-4450-AFF2-19B7D92E1A07}" name="表格9" displayName="表格9" ref="L50:S91" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L51:T86">
     <sortCondition ref="L50:L86"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{6C52EE62-FF4B-4DE8-83C0-D6436E18DD9A}" name="ID" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{6C52EE62-FF4B-4DE8-83C0-D6436E18DD9A}" name="ID" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{6B0882EA-DCCC-4EC2-A448-3DA915481575}" name="CharName"/>
-    <tableColumn id="2" xr3:uid="{E53A3D14-8402-47E5-B585-0960C1B3C866}" name="Crystal" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6F35CFC6-EB53-4FD8-9991-84FD8CE6220B}" name="Boss" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{17B35194-9BF4-42AC-965C-670DDA3FA254}" name="Local" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8827F259-32C5-474B-9C18-649FDAECC3B3}" name="Common" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{9386E62E-DB69-43C8-90CB-7E2B6F05B2C2}" name="Talent-Book" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{EB22D77C-1EAF-4FC1-A992-7476EECA02BA}" name="Talent-Boss" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E53A3D14-8402-47E5-B585-0960C1B3C866}" name="Crystal" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6F35CFC6-EB53-4FD8-9991-84FD8CE6220B}" name="Boss" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{17B35194-9BF4-42AC-965C-670DDA3FA254}" name="Local" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8827F259-32C5-474B-9C18-649FDAECC3B3}" name="Common" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9386E62E-DB69-43C8-90CB-7E2B6F05B2C2}" name="Talent-Book" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{EB22D77C-1EAF-4FC1-A992-7476EECA02BA}" name="Talent-Boss" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8849,7 +10032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD46B98-C1E0-46DC-B117-82EFF581F8D6}">
   <dimension ref="A1:P95"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A53" sqref="A53:C95"/>
     </sheetView>
   </sheetViews>
@@ -11070,22 +12253,22 @@
     </row>
     <row r="50" spans="1:16" ht="17.25" thickBot="1"/>
     <row r="51" spans="1:16" s="21" customFormat="1" ht="26.25" thickBot="1">
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="41" t="s">
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="43"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="45"/>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" t="s">
@@ -19831,7 +21014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DDF792-EDA2-41C8-9FF9-80AF9A857C2E}">
   <dimension ref="A1:AK278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G191" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G196" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P203" sqref="P203"/>
     </sheetView>
   </sheetViews>
@@ -19863,43 +21046,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="32.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>837</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="L1" s="45" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="L1" s="47" t="s">
         <v>860</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="47"/>
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="47"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="47"/>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" s="25" t="s">
@@ -20013,14 +21196,14 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="Z3" s="48" t="s">
         <v>873</v>
       </c>
-      <c r="AA3" s="46"/>
-      <c r="AB3" s="46"/>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="26">
@@ -20087,12 +21270,12 @@
       <c r="V4">
         <v>20000</v>
       </c>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="26">
@@ -20159,12 +21342,12 @@
       <c r="V5">
         <v>40000</v>
       </c>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="46"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="26">
@@ -20231,12 +21414,12 @@
       <c r="V6">
         <v>60000</v>
       </c>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="48"/>
+      <c r="AE6" s="48"/>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="26">
@@ -21453,31 +22636,31 @@
         <f>表格5[[#This Row],[Mora]]&amp;"},"</f>
         <v>2755},</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="46" t="s">
         <v>863</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="46"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="46"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="46"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="46"/>
+      <c r="AH22" s="46"/>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="26">
@@ -23399,33 +24582,33 @@
         <f>表格5[[#This Row],[Mora]]&amp;"},"</f>
         <v>12255},</v>
       </c>
-      <c r="L49" s="44" t="s">
+      <c r="L49" s="46" t="s">
         <v>875</v>
       </c>
-      <c r="M49" s="44"/>
-      <c r="N49" s="44"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="44"/>
-      <c r="AB49" s="44"/>
-      <c r="AC49" s="44"/>
-      <c r="AD49" s="44"/>
-      <c r="AE49" s="44"/>
-      <c r="AF49" s="44"/>
-      <c r="AG49" s="44"/>
-      <c r="AH49" s="44"/>
-      <c r="AI49" s="44"/>
-      <c r="AJ49" s="44"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
       <c r="AK49" s="21"/>
     </row>
     <row r="50" spans="1:37">
@@ -36600,4 +37783,1688 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4FB002-A857-4FB3-9B85-E1B286490B83}">
+  <dimension ref="A1:AM29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="9" style="42"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="42"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="42"/>
+    <col min="30" max="30" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="25.5" customHeight="1">
+      <c r="A1" s="49" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="G1" s="49" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="R1" s="49" t="s">
+        <v>1376</v>
+      </c>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AC1" s="49" t="s">
+        <v>1478</v>
+      </c>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="R2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="T2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="X2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G3" s="17">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="R3" s="17">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="R4" s="17">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="X4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="AC4" s="17">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="R5" s="17">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="AC5" s="17">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G6" s="17">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1295</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1329</v>
+      </c>
+      <c r="R6" s="17">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1409</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="AC6" s="17">
+        <v>4</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>1486</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>1526</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="R7" s="17">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>1382</v>
+      </c>
+      <c r="AC7" s="17">
+        <v>5</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G8" s="17">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1270</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1297</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1356</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1331</v>
+      </c>
+      <c r="R8" s="17">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>1435</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1410</v>
+      </c>
+      <c r="X8" t="s">
+        <v>1477</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>1476</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>6</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G9" s="17">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="R9" s="17">
+        <v>7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G10" s="17">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="R10" s="17">
+        <v>8</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1437</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G11" s="17">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1334</v>
+      </c>
+      <c r="R11" s="17">
+        <v>9</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1438</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1461</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>1496</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>1530</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G12" s="17">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1301</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1335</v>
+      </c>
+      <c r="R12" s="17">
+        <v>10</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="X12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="G13" s="17">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1361</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1336</v>
+      </c>
+      <c r="R13" s="17">
+        <v>11</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="X13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1388</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>11</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="G14" s="17">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1303</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1362</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1337</v>
+      </c>
+      <c r="R14" s="17">
+        <v>12</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="X14" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1389</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>12</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="G15" s="17">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1363</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R15" s="17">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>1442</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1417</v>
+      </c>
+      <c r="X15" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1390</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>13</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>1504</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>1539</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="G16" s="17">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1323</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1339</v>
+      </c>
+      <c r="R16" s="17">
+        <v>14</v>
+      </c>
+      <c r="S16" t="s">
+        <v>1443</v>
+      </c>
+      <c r="W16" t="s">
+        <v>1418</v>
+      </c>
+      <c r="X16" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>1391</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>1506</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="17" spans="7:36">
+      <c r="G17" s="17">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="R17" s="17">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>1444</v>
+      </c>
+      <c r="W17" t="s">
+        <v>1419</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>1393</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>15</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>1507</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>1534</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="18" spans="7:36">
+      <c r="G18" s="17">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1322</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1366</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1342</v>
+      </c>
+      <c r="R18" s="17">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1445</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1420</v>
+      </c>
+      <c r="X18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>16</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="19" spans="7:36">
+      <c r="G19" s="17">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1343</v>
+      </c>
+      <c r="R19" s="17">
+        <v>17</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1446</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>1395</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>1512</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>1514</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="20" spans="7:36">
+      <c r="G20" s="17">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1282</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1368</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1344</v>
+      </c>
+      <c r="R20" s="17">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1447</v>
+      </c>
+      <c r="W20" t="s">
+        <v>1422</v>
+      </c>
+      <c r="X20" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1396</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>1513</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="21" spans="7:36">
+      <c r="G21" s="17">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1283</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>124</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1310</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1369</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="R21" s="17">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="W21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1470</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1397</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>19</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>1518</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>1536</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="22" spans="7:36">
+      <c r="G22" s="17">
+        <v>20</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1284</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1340</v>
+      </c>
+      <c r="R22" s="17">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1449</v>
+      </c>
+      <c r="W22" t="s">
+        <v>1424</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1398</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>20</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>1519</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="23" spans="7:36">
+      <c r="G23" s="17">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1285</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1245</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1250</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1346</v>
+      </c>
+      <c r="R23" s="17">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1450</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1425</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1472</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="AC23" s="17">
+        <v>21</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>1521</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>1538</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="24" spans="7:36">
+      <c r="G24" s="17">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1251</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1347</v>
+      </c>
+      <c r="R24" s="17">
+        <v>22</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1451</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1426</v>
+      </c>
+      <c r="X24" t="s">
+        <v>1400</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AC24" s="17"/>
+    </row>
+    <row r="25" spans="7:36">
+      <c r="G25" s="17">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1314</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1348</v>
+      </c>
+      <c r="R25" s="17">
+        <v>23</v>
+      </c>
+      <c r="S25" t="s">
+        <v>1452</v>
+      </c>
+      <c r="W25" t="s">
+        <v>1427</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>1402</v>
+      </c>
+      <c r="AC25" s="17"/>
+    </row>
+    <row r="26" spans="7:36">
+      <c r="G26" s="17">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1372</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1349</v>
+      </c>
+      <c r="R26" s="17">
+        <v>24</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="W26" t="s">
+        <v>1428</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1474</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>1403</v>
+      </c>
+      <c r="AC26" s="17"/>
+    </row>
+    <row r="27" spans="7:36">
+      <c r="G27" s="17">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1373</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1350</v>
+      </c>
+      <c r="R27" s="17">
+        <v>25</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1454</v>
+      </c>
+      <c r="W27" t="s">
+        <v>1429</v>
+      </c>
+      <c r="X27" t="s">
+        <v>1404</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>1405</v>
+      </c>
+      <c r="AC27" s="17"/>
+    </row>
+    <row r="28" spans="7:36">
+      <c r="G28" s="17">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1290</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1317</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1374</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1351</v>
+      </c>
+      <c r="R28" s="17"/>
+    </row>
+    <row r="29" spans="7:36">
+      <c r="G29" s="17">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1320</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1318</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1375</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1352</v>
+      </c>
+      <c r="R29" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:P1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AC1:AL1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>